--- a/excel_routes/route_DMM_CAI_threats.xlsx
+++ b/excel_routes/route_DMM_CAI_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -50,6 +50,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00D4EDDA"/>
         <bgColor rgb="00D4EDDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF3CD"/>
+        <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -71,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -80,6 +86,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +473,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -528,7 +537,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>10-JAN-26</t>
+          <t>13-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -583,17 +592,17 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-78</v>
+        <v>-75</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -628,26 +637,26 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>371</v>
+        <v>638</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-75</v>
+        <v>192</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
@@ -663,7 +672,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>13-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -673,26 +682,26 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Nesma Airlines NE-155</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>569</v>
+        <v>371</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>123</v>
+        <v>-75</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
@@ -708,7 +717,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>13-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -718,26 +727,26 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>638</v>
+        <v>418</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>192</v>
+        <v>-28</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
@@ -753,7 +762,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>15-JAN-26</t>
+          <t>16-JAN-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -763,17 +772,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-75</v>
+        <v>-78</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -798,7 +807,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>15-JAN-26</t>
+          <t>16-JAN-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -808,17 +817,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-28</v>
+        <v>-75</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -843,7 +852,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>15-JAN-26</t>
+          <t>16-JAN-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -853,17 +862,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>529</v>
+        <v>569</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>40</v>
@@ -888,7 +897,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>16-JAN-26</t>
+          <t>17-JAN-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -898,7 +907,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>Nile Air NP-134</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
@@ -933,7 +942,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>16-JAN-26</t>
+          <t>17-JAN-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -943,26 +952,26 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>529</v>
+        <v>368</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>83</v>
+        <v>-78</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
@@ -988,17 +997,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-134</t>
+          <t>Nesma Airlines NE-155</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-78</v>
+        <v>-75</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1033,17 +1042,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>Nesma Airlines NE-153</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-78</v>
+        <v>-75</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>30</v>
@@ -1078,17 +1087,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>371</v>
+        <v>436</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-75</v>
+        <v>-10</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>30</v>
@@ -1123,26 +1132,26 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-153</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>371</v>
+        <v>489</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-75</v>
+        <v>43</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
@@ -1168,26 +1177,26 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>436</v>
+        <v>509</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F16" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I16" s="2" t="n">
         <v>-10</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
@@ -1213,26 +1222,26 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>489</v>
+        <v>638</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
@@ -1248,7 +1257,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>20-JAN-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1258,26 +1267,26 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>509</v>
+        <v>368</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>63</v>
+        <v>-78</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
@@ -1293,7 +1302,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>20-JAN-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1303,26 +1312,26 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>638</v>
+        <v>371</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>192</v>
+        <v>-75</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
@@ -1348,26 +1357,26 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>368</v>
+        <v>489</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-78</v>
+        <v>43</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
@@ -1393,26 +1402,26 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>425</v>
+        <v>509</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-21</v>
+        <v>63</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J21" s="3" t="inlineStr">
         <is>
@@ -1428,7 +1437,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1438,26 +1447,26 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>489</v>
+        <v>418</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>446</v>
+        <v>506</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>43</v>
+        <v>-88</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
@@ -1473,7 +1482,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1483,26 +1492,26 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nesma Airlines NE-155</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>509</v>
+        <v>425</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>446</v>
+        <v>506</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>63</v>
+        <v>-81</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="inlineStr">
         <is>
@@ -1528,26 +1537,26 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>368</v>
+        <v>509</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>506</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-138</v>
+        <v>3</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J24" s="3" t="inlineStr">
         <is>
@@ -1563,7 +1572,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>23-JAN-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1573,17 +1582,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>500</v>
+        <v>368</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>506</v>
+        <v>446</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-6</v>
+        <v>-78</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>30</v>
@@ -1608,7 +1617,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>23-JAN-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1618,26 +1627,26 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Nesma Airlines NE-153</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>509</v>
+        <v>371</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>506</v>
+        <v>446</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>3</v>
+        <v>-75</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
@@ -1663,26 +1672,26 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>368</v>
+        <v>509</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-78</v>
+        <v>63</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J27" s="3" t="inlineStr">
         <is>
@@ -1698,7 +1707,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1708,17 +1717,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-153</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-75</v>
+        <v>-78</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>30</v>
@@ -1743,7 +1752,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1753,26 +1762,26 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>509</v>
+        <v>436</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>63</v>
+        <v>-10</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
@@ -1798,26 +1807,26 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>368</v>
+        <v>509</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-78</v>
+        <v>63</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
@@ -1843,26 +1852,26 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>436</v>
+        <v>569</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F31" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I31" s="2" t="n">
         <v>-10</v>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
@@ -1888,26 +1897,26 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>509</v>
+        <v>638</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
@@ -1923,7 +1932,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>24-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1933,26 +1942,26 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>569</v>
+        <v>418</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>123</v>
+        <v>-58</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
@@ -1978,26 +1987,26 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>319</v>
+        <v>425</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>476</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-157</v>
+        <v>-51</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
@@ -2023,26 +2032,26 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>319</v>
+        <v>509</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>476</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-157</v>
+        <v>33</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
@@ -2068,26 +2077,26 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>418</v>
+        <v>509</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>476</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-58</v>
+        <v>33</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
@@ -2113,26 +2122,26 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>319</v>
+        <v>418</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>476</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-157</v>
+        <v>-58</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
@@ -2158,26 +2167,26 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>418</v>
+        <v>509</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>476</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-58</v>
+        <v>33</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
@@ -2193,7 +2202,7 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -2207,22 +2216,22 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>339</v>
+        <v>599</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-167</v>
+        <v>123</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
@@ -2328,7 +2337,7 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -2338,26 +2347,26 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>319</v>
+        <v>569</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>566</v>
+        <v>506</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-247</v>
+        <v>63</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J42" s="3" t="inlineStr">
         <is>
@@ -2383,26 +2392,26 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>566</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-187</v>
+        <v>-148</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="inlineStr">
         <is>
@@ -2428,17 +2437,17 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>566</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-148</v>
+        <v>-130</v>
       </c>
       <c r="G44" s="2" t="n">
         <v>30</v>
@@ -2473,33 +2482,4218 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>436</v>
+        <v>529</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>566</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-130</v>
+        <v>-37</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I45" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>31-JAN-26</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-894</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>569</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>31-JAN-26</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-682</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>758</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>03-FEB-26</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-132</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>418</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>-148</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="inlineStr">
+      <c r="J48" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>03-FEB-26</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-151</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>-66</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>03-FEB-26</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-894</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>599</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>03-FEB-26</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-854</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>599</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>03-FEB-26</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-688</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>638</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>05-FEB-26</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-132</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>563</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>05-FEB-26</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-854</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>629</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>05-FEB-26</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-894</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>709</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J55" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>05-FEB-26</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-682</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>758</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>06-FEB-26</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-911</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>399</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>806</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>-407</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>06-FEB-26</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-151</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>568</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>806</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>-238</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>06-FEB-26</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-684</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>590</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>806</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>-216</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J59" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>06-FEB-26</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-232</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>629</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>806</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>-177</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>06-FEB-26</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-688</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>926</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>806</v>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J61" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>06-FEB-26</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-682</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>1030</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>806</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I62" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>07-FEB-26</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-911</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>399</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>-317</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J63" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>07-FEB-26</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-316</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>473</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>-243</v>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>07-FEB-26</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-688</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>590</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>-126</v>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J65" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>07-FEB-26</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-684</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>590</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>-126</v>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J66" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>07-FEB-26</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-854</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>629</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>-87</v>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I67" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J67" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>07-FEB-26</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-132</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>629</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>-87</v>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>07-FEB-26</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-894</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>669</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>-47</v>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I69" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>07-FEB-26</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-682</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>830</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I70" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J70" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>10-FEB-26</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-911</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>369</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>626</v>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>-257</v>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I71" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J71" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>10-FEB-26</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-132</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>563</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>626</v>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>-63</v>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I72" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>10-FEB-26</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-854</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>599</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>626</v>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>-27</v>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I73" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J73" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K73" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>10-FEB-26</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-894</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>629</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>626</v>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I74" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J74" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>12-FEB-26</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-911</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>339</v>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>-377</v>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I75" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J75" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>12-FEB-26</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-854</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>569</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>-147</v>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I76" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J76" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>12-FEB-26</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-688</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>590</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>-126</v>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I77" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J77" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>12-FEB-26</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-894</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>599</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>-117</v>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I78" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J78" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>12-FEB-26</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-132</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>629</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>-87</v>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I79" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>12-FEB-26</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-155</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>656</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>-60</v>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I80" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>12-FEB-26</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-682</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>758</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I81" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J81" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>13-FEB-26</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-911</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>339</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>-377</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I82" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J82" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>13-FEB-26</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-684</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>590</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>-126</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I83" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J83" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>13-FEB-26</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-894</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>599</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>-117</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I84" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J84" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>13-FEB-26</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-688</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>638</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>-78</v>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I85" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J85" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>13-FEB-26</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-232</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>679</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>-37</v>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I86" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>13-FEB-26</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-682</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>766</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I87" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J87" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K87" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>14-FEB-26</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-911</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>339</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>-377</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I88" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J88" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>14-FEB-26</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-894</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>409</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>-307</v>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I89" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>14-FEB-26</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-854</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>409</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>-307</v>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I90" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J90" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>14-FEB-26</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-688</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>590</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>-126</v>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I91" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J91" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K91" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>14-FEB-26</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-684</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>590</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>-126</v>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I92" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J92" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>14-FEB-26</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-132</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>629</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>-87</v>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I93" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>14-FEB-26</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-316</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>664</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>-52</v>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I94" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>17-FEB-26</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-911</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>369</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>626</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>-257</v>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J95" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>17-FEB-26</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-854</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>409</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>626</v>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>-217</v>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I96" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J96" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>17-FEB-26</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-894</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>439</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>626</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>-187</v>
+      </c>
+      <c r="G97" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I97" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J97" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K97" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-911</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>339</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>626</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>-287</v>
+      </c>
+      <c r="G98" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I98" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J98" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K98" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-894</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>409</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>626</v>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>-217</v>
+      </c>
+      <c r="G99" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I99" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J99" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-854</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>409</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>626</v>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>-217</v>
+      </c>
+      <c r="G100" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I100" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J100" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K100" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-155</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>425</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>626</v>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>-201</v>
+      </c>
+      <c r="G101" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I101" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-332</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>563</v>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>626</v>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>-63</v>
+      </c>
+      <c r="G102" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I102" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K102" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>19-FEB-26</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-132</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>563</v>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>626</v>
+      </c>
+      <c r="F103" s="2" t="n">
+        <v>-63</v>
+      </c>
+      <c r="G103" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I103" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K103" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>20-FEB-26</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-911</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>339</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>896</v>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>-557</v>
+      </c>
+      <c r="G104" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I104" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J104" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K104" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>20-FEB-26</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-894</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>409</v>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>896</v>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>-487</v>
+      </c>
+      <c r="G105" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I105" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J105" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>20-FEB-26</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-688</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>590</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>896</v>
+      </c>
+      <c r="F106" s="2" t="n">
+        <v>-306</v>
+      </c>
+      <c r="G106" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I106" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J106" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>20-FEB-26</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-684</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>590</v>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>896</v>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>-306</v>
+      </c>
+      <c r="G107" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I107" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J107" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>20-FEB-26</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-682</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>598</v>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>896</v>
+      </c>
+      <c r="F108" s="2" t="n">
+        <v>-298</v>
+      </c>
+      <c r="G108" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I108" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J108" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>21-FEB-26</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-911</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>339</v>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="F109" s="2" t="n">
+        <v>-227</v>
+      </c>
+      <c r="G109" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H109" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I109" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J109" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K109" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>21-FEB-26</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-894</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>379</v>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="F110" s="2" t="n">
+        <v>-187</v>
+      </c>
+      <c r="G110" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H110" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I110" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J110" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>21-FEB-26</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-854</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>379</v>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="F111" s="2" t="n">
+        <v>-187</v>
+      </c>
+      <c r="G111" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I111" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J111" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>21-FEB-26</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-155</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="F112" s="2" t="n">
+        <v>-66</v>
+      </c>
+      <c r="G112" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H112" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I112" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>21-FEB-26</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-132</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>563</v>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="F113" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G113" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I113" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K113" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>24-FEB-26</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-911</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>339</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="F114" s="2" t="n">
+        <v>-227</v>
+      </c>
+      <c r="G114" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H114" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I114" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J114" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K114" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>24-FEB-26</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-132</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>563</v>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="F115" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G115" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H115" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I115" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>24-FEB-26</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-894</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>569</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="F116" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G116" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H116" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I116" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J116" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>24-FEB-26</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-854</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>569</v>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="F117" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G117" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H117" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I117" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J117" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K117" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>26-FEB-26</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-911</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>339</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>626</v>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>-287</v>
+      </c>
+      <c r="G118" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H118" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I118" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J118" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>26-FEB-26</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-854</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>379</v>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>626</v>
+      </c>
+      <c r="F119" s="2" t="n">
+        <v>-247</v>
+      </c>
+      <c r="G119" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H119" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I119" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J119" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>26-FEB-26</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-894</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>409</v>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>626</v>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>-217</v>
+      </c>
+      <c r="G120" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H120" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I120" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J120" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>26-FEB-26</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-155</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>626</v>
+      </c>
+      <c r="F121" s="2" t="n">
+        <v>-126</v>
+      </c>
+      <c r="G121" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H121" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I121" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>26-FEB-26</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-132</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>563</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>626</v>
+      </c>
+      <c r="F122" s="2" t="n">
+        <v>-63</v>
+      </c>
+      <c r="G122" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H122" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I122" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>27-FEB-26</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-911</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>339</v>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F123" s="2" t="n">
+        <v>-377</v>
+      </c>
+      <c r="G123" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H123" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I123" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J123" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>27-FEB-26</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-894</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>409</v>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F124" s="2" t="n">
+        <v>-307</v>
+      </c>
+      <c r="G124" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H124" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I124" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J124" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>27-FEB-26</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-232</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>563</v>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>-153</v>
+      </c>
+      <c r="G125" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H125" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I125" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>27-FEB-26</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-151</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>568</v>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F126" s="2" t="n">
+        <v>-148</v>
+      </c>
+      <c r="G126" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H126" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I126" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>27-FEB-26</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-688</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>590</v>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F127" s="2" t="n">
+        <v>-126</v>
+      </c>
+      <c r="G127" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H127" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I127" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J127" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>27-FEB-26</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-684</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>590</v>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>-126</v>
+      </c>
+      <c r="G128" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H128" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I128" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J128" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>27-FEB-26</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-682</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>598</v>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>716</v>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>-118</v>
+      </c>
+      <c r="G129" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H129" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I129" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J129" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>28-FEB-26</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-911</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>369</v>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>806</v>
+      </c>
+      <c r="F130" s="2" t="n">
+        <v>-437</v>
+      </c>
+      <c r="G130" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H130" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I130" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J130" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>28-FEB-26</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-854</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>439</v>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>806</v>
+      </c>
+      <c r="F131" s="2" t="n">
+        <v>-367</v>
+      </c>
+      <c r="G131" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H131" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I131" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J131" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>28-FEB-26</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-894</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>479</v>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>806</v>
+      </c>
+      <c r="F132" s="2" t="n">
+        <v>-327</v>
+      </c>
+      <c r="G132" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H132" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I132" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J132" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>28-FEB-26</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-155</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>568</v>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>806</v>
+      </c>
+      <c r="F133" s="2" t="n">
+        <v>-238</v>
+      </c>
+      <c r="G133" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H133" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I133" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>28-FEB-26</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-688</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>590</v>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>806</v>
+      </c>
+      <c r="F134" s="2" t="n">
+        <v>-216</v>
+      </c>
+      <c r="G134" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H134" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I134" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J134" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>28-FEB-26</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-682</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>590</v>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>806</v>
+      </c>
+      <c r="F135" s="2" t="n">
+        <v>-216</v>
+      </c>
+      <c r="G135" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H135" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I135" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J135" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>28-FEB-26</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-684</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>590</v>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>806</v>
+      </c>
+      <c r="F136" s="2" t="n">
+        <v>-216</v>
+      </c>
+      <c r="G136" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H136" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I136" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J136" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>28-FEB-26</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-132</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>629</v>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>806</v>
+      </c>
+      <c r="F137" s="2" t="n">
+        <v>-177</v>
+      </c>
+      <c r="G137" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H137" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I137" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K137" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>28-FEB-26</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>SM-434</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-316</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>664</v>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>806</v>
+      </c>
+      <c r="F138" s="2" t="n">
+        <v>-142</v>
+      </c>
+      <c r="G138" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H138" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I138" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K138" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_DMM_CAI_threats.xlsx
+++ b/excel_routes/route_DMM_CAI_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K143"/>
+  <dimension ref="A1:K135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -636,7 +636,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -646,26 +646,26 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>421</v>
+        <v>509</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>447</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-26</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -691,26 +691,26 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nesma Airlines NE-155</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>489</v>
+        <v>425</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>447</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>42</v>
+        <v>-22</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
@@ -726,7 +726,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -736,26 +736,26 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>638</v>
+        <v>509</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>447</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
@@ -781,17 +781,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>447</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-29</v>
+        <v>-76</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -826,17 +826,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>447</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-22</v>
+        <v>-29</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -1096,30 +1096,30 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>646</v>
+        <v>399</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>728</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-82</v>
+        <v>-329</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J14" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>15</v>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1141,30 +1141,30 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>728</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-72</v>
+        <v>-82</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J15" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1186,17 +1186,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>723</v>
+        <v>656</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>728</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-5</v>
+        <v>-72</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>30</v>
@@ -1221,7 +1221,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1231,26 +1231,26 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>473</v>
+        <v>709</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>651</v>
+        <v>728</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-178</v>
+        <v>-19</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1276,26 +1276,26 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>629</v>
+        <v>723</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>651</v>
+        <v>728</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-22</v>
+        <v>-5</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
@@ -1321,26 +1321,26 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>629</v>
+        <v>473</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>651</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-22</v>
+        <v>-178</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
@@ -1366,17 +1366,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>Nesma Airlines NE-153</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>629</v>
+        <v>568</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>651</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-22</v>
+        <v>-83</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>30</v>
@@ -1411,30 +1411,30 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>651</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-13</v>
+        <v>-22</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1446,7 +1446,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1456,26 +1456,26 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
         <v>629</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>575</v>
+        <v>651</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>54</v>
+        <v>-22</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1501,17 +1501,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>629</v>
+        <v>669</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>575</v>
+        <v>651</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>40</v>
@@ -1536,7 +1536,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1546,17 +1546,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
         <v>758</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>575</v>
+        <v>651</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>46</v>
@@ -1581,7 +1581,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>10-FEB-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1591,26 +1591,26 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>369</v>
+        <v>629</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>651</v>
+        <v>575</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-282</v>
+        <v>54</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="J25" s="3" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>10-FEB-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1636,26 +1636,26 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>568</v>
+        <v>629</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>651</v>
+        <v>575</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-83</v>
+        <v>54</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>10-FEB-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1681,30 +1681,30 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>599</v>
+        <v>758</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>651</v>
+        <v>575</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-52</v>
+        <v>183</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J27" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1726,26 +1726,26 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>629</v>
+        <v>369</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>651</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-22</v>
+        <v>-282</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
@@ -1771,30 +1771,30 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>758</v>
+        <v>599</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>651</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>107</v>
+        <v>-52</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J29" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J29" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
@@ -1816,26 +1816,26 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>758</v>
+        <v>669</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>651</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>13-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1861,26 +1861,26 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>369</v>
+        <v>758</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>651</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-282</v>
+        <v>107</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>13-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1906,26 +1906,26 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>629</v>
+        <v>758</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>651</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-22</v>
+        <v>107</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
@@ -1951,26 +1951,26 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>758</v>
+        <v>369</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>651</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>107</v>
+        <v>-282</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1996,26 +1996,26 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>399</v>
+        <v>629</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>651</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-252</v>
+        <v>-22</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -2041,26 +2041,26 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>589</v>
+        <v>758</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>651</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-62</v>
+        <v>107</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -2086,30 +2086,30 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>599</v>
+        <v>758</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>651</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-52</v>
+        <v>107</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J36" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
@@ -2131,30 +2131,30 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>599</v>
+        <v>399</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>651</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-52</v>
+        <v>-252</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J37" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>15</v>
+      </c>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
@@ -2176,17 +2176,17 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>Nesma Airlines NE-155</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>629</v>
+        <v>568</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>651</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-22</v>
+        <v>-83</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>30</v>
@@ -2211,7 +2211,7 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -2221,26 +2221,26 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>369</v>
+        <v>589</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>626</v>
+        <v>651</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-257</v>
+        <v>-62</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -2266,17 +2266,17 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>599</v>
+        <v>629</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>626</v>
+        <v>651</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-27</v>
+        <v>-22</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>40</v>
@@ -2301,7 +2301,7 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -2311,17 +2311,17 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>669</v>
+        <v>629</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>626</v>
+        <v>651</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>43</v>
+        <v>-22</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>40</v>
@@ -2346,7 +2346,7 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -2356,26 +2356,26 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>369</v>
+        <v>629</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>626</v>
+        <v>651</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-257</v>
+        <v>-22</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -2401,26 +2401,26 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>500</v>
+        <v>369</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>626</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-126</v>
+        <v>-257</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J43" s="3" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
@@ -2481,7 +2481,7 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -2491,17 +2491,17 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>599</v>
+        <v>669</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>626</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-27</v>
+        <v>43</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>40</v>
@@ -2536,26 +2536,26 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>766</v>
+        <v>369</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>626</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>140</v>
+        <v>-257</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J46" s="3" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -2581,30 +2581,30 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>Nesma Airlines NE-155</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>339</v>
+        <v>500</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>896</v>
+        <v>626</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-557</v>
+        <v>-126</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J47" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
@@ -2616,7 +2616,7 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -2626,30 +2626,30 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>896</v>
+        <v>626</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-306</v>
+        <v>-27</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J48" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J48" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -2671,30 +2671,30 @@
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>590</v>
+        <v>629</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>896</v>
+        <v>626</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-306</v>
+        <v>3</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J49" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J49" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
@@ -2706,7 +2706,7 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -2716,26 +2716,26 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>598</v>
+        <v>766</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>896</v>
+        <v>626</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>-298</v>
+        <v>140</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J50" s="3" t="inlineStr">
         <is>
@@ -2761,30 +2761,30 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>599</v>
+        <v>339</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>896</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>-297</v>
+        <v>-557</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J51" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J51" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
@@ -2796,7 +2796,7 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
@@ -2806,30 +2806,30 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>339</v>
+        <v>590</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>566</v>
+        <v>896</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>-227</v>
+        <v>-306</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J52" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>7</v>
+      </c>
+      <c r="J52" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr">
@@ -2841,7 +2841,7 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -2851,30 +2851,30 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>500</v>
+        <v>590</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>566</v>
+        <v>896</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>-66</v>
+        <v>-306</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>7</v>
+      </c>
+      <c r="J53" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K53" s="2" t="inlineStr">
@@ -2886,7 +2886,7 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -2896,26 +2896,26 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>563</v>
+        <v>598</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>566</v>
+        <v>896</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>-3</v>
+        <v>-298</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -2941,17 +2941,17 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>566</v>
+        <v>896</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>3</v>
+        <v>-297</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>40</v>
@@ -2962,9 +2962,9 @@
       <c r="I55" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J55" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J55" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K55" s="2" t="inlineStr">
@@ -2986,26 +2986,26 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>599</v>
+        <v>563</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>566</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>33</v>
+        <v>-3</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
@@ -3031,26 +3031,26 @@
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>379</v>
+        <v>563</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>566</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>-187</v>
+        <v>-3</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="inlineStr">
         <is>
@@ -3080,22 +3080,22 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>379</v>
+        <v>569</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>566</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>-187</v>
+        <v>3</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
@@ -3121,26 +3121,26 @@
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>566</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>-3</v>
+        <v>33</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
@@ -3436,26 +3436,26 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>439</v>
+        <v>568</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>716</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>-277</v>
+        <v>-148</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
@@ -3481,26 +3481,26 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>716</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>-148</v>
+        <v>-126</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I67" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
@@ -3571,17 +3571,17 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>716</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>-126</v>
+        <v>-118</v>
       </c>
       <c r="G69" s="2" t="n">
         <v>23</v>
@@ -3616,26 +3616,26 @@
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>598</v>
+        <v>629</v>
       </c>
       <c r="E70" s="2" t="n">
         <v>716</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>-118</v>
+        <v>-87</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -3661,26 +3661,26 @@
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>629</v>
+        <v>469</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>716</v>
+        <v>806</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>-87</v>
+        <v>-337</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J71" s="3" t="inlineStr">
         <is>
@@ -3706,26 +3706,26 @@
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>469</v>
+        <v>590</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>806</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>-337</v>
+        <v>-216</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J72" s="3" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
@@ -3796,26 +3796,26 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>590</v>
+        <v>629</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>806</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>-216</v>
+        <v>-177</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H74" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I74" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J74" s="3" t="inlineStr">
         <is>
@@ -3841,17 +3841,17 @@
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>Nesma Airlines NE-155</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>806</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>-177</v>
+        <v>-150</v>
       </c>
       <c r="G75" s="2" t="n">
         <v>30</v>
@@ -3886,17 +3886,17 @@
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>806</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>-150</v>
+        <v>-142</v>
       </c>
       <c r="G76" s="2" t="n">
         <v>30</v>
@@ -3931,30 +3931,30 @@
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>806</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>-142</v>
+        <v>-137</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J77" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K77" s="2" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
@@ -4021,26 +4021,26 @@
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>669</v>
+        <v>758</v>
       </c>
       <c r="E79" s="2" t="n">
         <v>806</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>-137</v>
+        <v>-48</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H79" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I79" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J79" s="4" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -4066,26 +4066,26 @@
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>758</v>
+        <v>899</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>806</v>
+        <v>1136</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>-48</v>
+        <v>-237</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H80" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I80" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J80" s="4" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -4115,13 +4115,13 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>709</v>
+        <v>949</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>806</v>
+        <v>1136</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>-97</v>
+        <v>-187</v>
       </c>
       <c r="G81" s="2" t="n">
         <v>40</v>
@@ -4146,7 +4146,7 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
@@ -4156,17 +4156,17 @@
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>749</v>
+        <v>899</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>806</v>
+        <v>1016</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>-57</v>
+        <v>-117</v>
       </c>
       <c r="G82" s="2" t="n">
         <v>40</v>
@@ -4205,13 +4205,13 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>849</v>
+        <v>949</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>1016</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>-167</v>
+        <v>-67</v>
       </c>
       <c r="G83" s="2" t="n">
         <v>40</v>
@@ -4236,7 +4236,7 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
@@ -4246,17 +4246,17 @@
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>899</v>
+        <v>949</v>
       </c>
       <c r="E84" s="2" t="n">
         <v>1016</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>-117</v>
+        <v>-67</v>
       </c>
       <c r="G84" s="2" t="n">
         <v>40</v>
@@ -4291,26 +4291,26 @@
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>659</v>
+        <v>849</v>
       </c>
       <c r="E85" s="2" t="n">
         <v>896</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>-237</v>
+        <v>-47</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H85" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I85" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J85" s="3" t="inlineStr">
         <is>
@@ -4336,26 +4336,26 @@
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>659</v>
+        <v>851</v>
       </c>
       <c r="E86" s="2" t="n">
         <v>896</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>-237</v>
+        <v>-45</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H86" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I86" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J86" s="3" t="inlineStr">
         <is>
@@ -4381,26 +4381,26 @@
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>851</v>
+        <v>949</v>
       </c>
       <c r="E87" s="2" t="n">
         <v>896</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>-45</v>
+        <v>53</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H87" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I87" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J87" s="3" t="inlineStr">
         <is>
@@ -4565,26 +4565,26 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>759</v>
+        <v>949</v>
       </c>
       <c r="E91" s="2" t="n">
         <v>1016</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>-257</v>
+        <v>-67</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H91" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I91" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J91" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J91" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K91" s="2" t="inlineStr">
@@ -4610,26 +4610,26 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>759</v>
+        <v>949</v>
       </c>
       <c r="E92" s="2" t="n">
         <v>1016</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>-257</v>
+        <v>-67</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H92" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I92" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J92" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J92" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K92" s="2" t="inlineStr">
@@ -4655,22 +4655,22 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>1069</v>
+        <v>879</v>
       </c>
       <c r="E93" s="2" t="n">
         <v>1436</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>-367</v>
+        <v>-557</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H93" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I93" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J93" s="5" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -4745,22 +4745,22 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>1499</v>
+        <v>1109</v>
       </c>
       <c r="E95" s="2" t="n">
         <v>1436</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>63</v>
+        <v>-327</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H95" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I95" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J95" s="3" t="inlineStr">
         <is>
@@ -5281,30 +5281,30 @@
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>1149</v>
+        <v>1109</v>
       </c>
       <c r="E107" s="2" t="n">
         <v>1436</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>-287</v>
+        <v>-327</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H107" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I107" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J107" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K107" s="2" t="inlineStr">
@@ -5326,26 +5326,26 @@
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>1299</v>
+        <v>1149</v>
       </c>
       <c r="E108" s="2" t="n">
         <v>1436</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>-137</v>
+        <v>-287</v>
       </c>
       <c r="G108" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H108" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I108" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J108" s="4" t="inlineStr">
         <is>
@@ -5641,30 +5641,30 @@
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>649</v>
+        <v>799</v>
       </c>
       <c r="E115" s="2" t="n">
         <v>896</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>-247</v>
+        <v>-97</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H115" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I115" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J115" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J115" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K115" s="2" t="inlineStr">
@@ -5686,17 +5686,17 @@
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>799</v>
+        <v>949</v>
       </c>
       <c r="E116" s="2" t="n">
         <v>896</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>-97</v>
+        <v>53</v>
       </c>
       <c r="G116" s="2" t="n">
         <v>40</v>
@@ -5707,9 +5707,9 @@
       <c r="I116" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J116" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J116" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K116" s="2" t="inlineStr">
@@ -5721,7 +5721,7 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>21-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
@@ -5731,17 +5731,17 @@
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>851</v>
+        <v>725</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>-45</v>
+        <v>-81</v>
       </c>
       <c r="G117" s="2" t="n">
         <v>30</v>
@@ -5776,26 +5776,26 @@
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>725</v>
+        <v>799</v>
       </c>
       <c r="E118" s="2" t="n">
         <v>806</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>-81</v>
+        <v>-7</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H118" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I118" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J118" s="3" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D119" s="2" t="n">
@@ -5866,17 +5866,17 @@
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>799</v>
+        <v>899</v>
       </c>
       <c r="E120" s="2" t="n">
         <v>806</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>-7</v>
+        <v>93</v>
       </c>
       <c r="G120" s="2" t="n">
         <v>40</v>
@@ -5901,7 +5901,7 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -5915,22 +5915,22 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>899</v>
+        <v>429</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>806</v>
+        <v>716</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>93</v>
+        <v>-287</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H121" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I121" s="2" t="n">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="J121" s="3" t="inlineStr">
         <is>
@@ -5960,22 +5960,22 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>479</v>
+        <v>669</v>
       </c>
       <c r="E122" s="2" t="n">
         <v>716</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>-237</v>
+        <v>-47</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H122" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I122" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J122" s="3" t="inlineStr">
         <is>
@@ -6095,22 +6095,22 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>519</v>
+        <v>709</v>
       </c>
       <c r="E125" s="2" t="n">
         <v>716</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>-197</v>
+        <v>-7</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H125" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I125" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J125" s="3" t="inlineStr">
         <is>
@@ -6140,22 +6140,22 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>519</v>
+        <v>709</v>
       </c>
       <c r="E126" s="2" t="n">
         <v>716</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>-197</v>
+        <v>-7</v>
       </c>
       <c r="G126" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H126" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I126" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J126" s="3" t="inlineStr">
         <is>
@@ -6181,26 +6181,26 @@
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>429</v>
+        <v>664</v>
       </c>
       <c r="E127" s="2" t="n">
         <v>716</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>-287</v>
+        <v>-52</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H127" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I127" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J127" s="3" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>31-MAR-26</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -6226,26 +6226,26 @@
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>479</v>
+        <v>505</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>716</v>
+        <v>626</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>-237</v>
+        <v>-121</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H128" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I128" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J128" s="3" t="inlineStr">
         <is>
@@ -6261,12 +6261,12 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>03-APR-26</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
@@ -6275,22 +6275,22 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>519</v>
+        <v>629</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>716</v>
+        <v>506</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>-197</v>
+        <v>123</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H129" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I129" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J129" s="3" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>05-APR-26</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
@@ -6320,13 +6320,13 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>664</v>
+        <v>436</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>716</v>
+        <v>446</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>-52</v>
+        <v>-10</v>
       </c>
       <c r="G130" s="2" t="n">
         <v>30</v>
@@ -6351,36 +6351,36 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>30-MAR-26</t>
+          <t>14-APR-26</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>519</v>
+        <v>430</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>716</v>
+        <v>446</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>-197</v>
+        <v>-16</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H131" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I131" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J131" s="3" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>19-APR-26</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
@@ -6410,13 +6410,13 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="G132" s="2" t="n">
         <v>30</v>
@@ -6441,12 +6441,12 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>21-APR-26</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
@@ -6455,13 +6455,13 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>473</v>
+        <v>430</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>506</v>
+        <v>446</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>-33</v>
+        <v>-16</v>
       </c>
       <c r="G133" s="2" t="n">
         <v>30</v>
@@ -6486,7 +6486,7 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>24-APR-26</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
@@ -6496,26 +6496,26 @@
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>629</v>
+        <v>436</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>506</v>
+        <v>446</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>123</v>
+        <v>-10</v>
       </c>
       <c r="G134" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H134" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I134" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J134" s="3" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>05-APR-26</t>
+          <t>26-APR-26</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
@@ -6568,366 +6568,6 @@
         </is>
       </c>
       <c r="K135" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="inlineStr">
-        <is>
-          <t>10-APR-26</t>
-        </is>
-      </c>
-      <c r="B136" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C136" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-316</t>
-        </is>
-      </c>
-      <c r="D136" s="2" t="n">
-        <v>436</v>
-      </c>
-      <c r="E136" s="2" t="n">
-        <v>446</v>
-      </c>
-      <c r="F136" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="G136" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H136" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I136" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="inlineStr">
-        <is>
-          <t>10-APR-26</t>
-        </is>
-      </c>
-      <c r="B137" s="2" t="inlineStr">
-        <is>
-          <t>SM-440</t>
-        </is>
-      </c>
-      <c r="C137" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-316</t>
-        </is>
-      </c>
-      <c r="D137" s="2" t="n">
-        <v>436</v>
-      </c>
-      <c r="E137" s="2" t="n">
-        <v>476</v>
-      </c>
-      <c r="F137" s="2" t="n">
-        <v>-40</v>
-      </c>
-      <c r="G137" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H137" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I137" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K137" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="inlineStr">
-        <is>
-          <t>10-APR-26</t>
-        </is>
-      </c>
-      <c r="B138" s="2" t="inlineStr">
-        <is>
-          <t>SM-440</t>
-        </is>
-      </c>
-      <c r="C138" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-894</t>
-        </is>
-      </c>
-      <c r="D138" s="2" t="n">
-        <v>599</v>
-      </c>
-      <c r="E138" s="2" t="n">
-        <v>476</v>
-      </c>
-      <c r="F138" s="2" t="n">
-        <v>123</v>
-      </c>
-      <c r="G138" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H138" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I138" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J138" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K138" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="inlineStr">
-        <is>
-          <t>12-APR-26</t>
-        </is>
-      </c>
-      <c r="B139" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C139" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-316</t>
-        </is>
-      </c>
-      <c r="D139" s="2" t="n">
-        <v>436</v>
-      </c>
-      <c r="E139" s="2" t="n">
-        <v>446</v>
-      </c>
-      <c r="F139" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="G139" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H139" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I139" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K139" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="inlineStr">
-        <is>
-          <t>17-APR-26</t>
-        </is>
-      </c>
-      <c r="B140" s="2" t="inlineStr">
-        <is>
-          <t>SM-440</t>
-        </is>
-      </c>
-      <c r="C140" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-316</t>
-        </is>
-      </c>
-      <c r="D140" s="2" t="n">
-        <v>436</v>
-      </c>
-      <c r="E140" s="2" t="n">
-        <v>446</v>
-      </c>
-      <c r="F140" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="G140" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H140" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I140" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="inlineStr">
-        <is>
-          <t>21-APR-26</t>
-        </is>
-      </c>
-      <c r="B141" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C141" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-316</t>
-        </is>
-      </c>
-      <c r="D141" s="2" t="n">
-        <v>430</v>
-      </c>
-      <c r="E141" s="2" t="n">
-        <v>446</v>
-      </c>
-      <c r="F141" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="G141" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H141" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I141" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="inlineStr">
-        <is>
-          <t>24-APR-26</t>
-        </is>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>SM-440</t>
-        </is>
-      </c>
-      <c r="C142" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-316</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="n">
-        <v>436</v>
-      </c>
-      <c r="E142" s="2" t="n">
-        <v>446</v>
-      </c>
-      <c r="F142" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="G142" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H142" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I142" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K142" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="inlineStr">
-        <is>
-          <t>26-APR-26</t>
-        </is>
-      </c>
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-316</t>
-        </is>
-      </c>
-      <c r="D143" s="2" t="n">
-        <v>436</v>
-      </c>
-      <c r="E143" s="2" t="n">
-        <v>446</v>
-      </c>
-      <c r="F143" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="G143" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H143" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I143" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_DMM_CAI_threats.xlsx
+++ b/excel_routes/route_DMM_CAI_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K213"/>
+  <dimension ref="A1:K196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
@@ -591,7 +591,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>418</v>
+        <v>354</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>447</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-29</v>
+        <v>-93</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -636,7 +636,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>509</v>
+        <v>569</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>447</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>40</v>
@@ -681,7 +681,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -691,17 +691,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-153</t>
+          <t>Nesma Airlines NE-155</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-97</v>
+        <v>-63</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -726,7 +726,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -736,17 +736,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>350</v>
+        <v>418</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-97</v>
+        <v>-55</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -771,7 +771,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -781,26 +781,26 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>354</v>
+        <v>599</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-93</v>
+        <v>126</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -826,26 +826,26 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>529</v>
+        <v>354</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>82</v>
+        <v>-119</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -871,26 +871,26 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>509</v>
+        <v>410</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>62</v>
+        <v>-63</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>Nesma Airlines NE-155</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
@@ -951,7 +951,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>447</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-29</v>
+        <v>-30</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30</v>
@@ -1006,17 +1006,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>447</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-37</v>
+        <v>-29</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1051,26 +1051,26 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>418</v>
+        <v>569</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>447</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-29</v>
+        <v>122</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>03-FEB-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1100,13 +1100,13 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>529</v>
+        <v>599</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>40</v>
@@ -1131,7 +1131,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>03-FEB-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1141,26 +1141,26 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>410</v>
+        <v>669</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>524</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-114</v>
+        <v>145</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>03-FEB-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>629</v>
+        <v>709</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>524</v>
+        <v>651</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>40</v>
@@ -1221,7 +1221,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>03-FEB-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1231,26 +1231,26 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>629</v>
+        <v>856</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>524</v>
+        <v>651</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1276,17 +1276,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>410</v>
+        <v>511</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-63</v>
+        <v>-13</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>30</v>
@@ -1311,7 +1311,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>06-FEB-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1325,13 +1325,13 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>709</v>
+        <v>629</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>651</v>
+        <v>524</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>40</v>
@@ -1356,7 +1356,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>06-FEB-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1366,26 +1366,26 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>766</v>
+        <v>629</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>651</v>
+        <v>524</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
@@ -1411,17 +1411,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
         <v>629</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>575</v>
+        <v>524</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>40</v>
@@ -1456,26 +1456,26 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>629</v>
+        <v>664</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>575</v>
+        <v>524</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
@@ -1501,26 +1501,26 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>758</v>
+        <v>669</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>575</v>
+        <v>524</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J23" s="3" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1550,22 +1550,22 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>399</v>
+        <v>647</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>651</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-252</v>
+        <v>-4</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1591,17 +1591,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>599</v>
+        <v>669</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>651</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-52</v>
+        <v>18</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>40</v>
@@ -1612,9 +1612,9 @@
       <c r="I25" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J25" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1626,7 +1626,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1636,26 +1636,26 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>600</v>
+        <v>848</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>651</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-51</v>
+        <v>197</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1681,26 +1681,26 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>669</v>
+        <v>563</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>651</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>18</v>
+        <v>-88</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1726,26 +1726,26 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>830</v>
+        <v>577</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>651</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>179</v>
+        <v>-74</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1771,26 +1771,26 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>830</v>
+        <v>589</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>651</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>179</v>
+        <v>-62</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>13-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1816,30 +1816,30 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>399</v>
+        <v>599</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>651</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-252</v>
+        <v>-52</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J30" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
@@ -1851,7 +1851,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>13-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1861,26 +1861,26 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nesma Airlines NE-155</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>629</v>
+        <v>600</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>651</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-22</v>
+        <v>-51</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>13-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1906,26 +1906,26 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>758</v>
+        <v>629</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>651</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>107</v>
+        <v>-22</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>13-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1951,26 +1951,26 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>830</v>
+        <v>547</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>179</v>
+        <v>-79</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1996,30 +1996,30 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>399</v>
+        <v>569</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-252</v>
+        <v>-57</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J34" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
@@ -2031,7 +2031,7 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -2041,26 +2041,26 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-62</v>
+        <v>3</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -2086,30 +2086,30 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>600</v>
+        <v>656</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-51</v>
+        <v>30</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J36" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -2131,26 +2131,26 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nesma Airlines NE-155</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>629</v>
+        <v>550</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-22</v>
+        <v>-76</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -2180,13 +2180,13 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>629</v>
+        <v>569</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-22</v>
+        <v>-57</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>40</v>
@@ -2197,9 +2197,9 @@
       <c r="I38" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J38" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J38" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
@@ -2211,7 +2211,7 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -2221,17 +2221,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>629</v>
+        <v>577</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-22</v>
+        <v>-49</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>30</v>
@@ -2256,7 +2256,7 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -2266,26 +2266,26 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>758</v>
+        <v>669</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J40" s="3" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -2311,26 +2311,26 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>369</v>
+        <v>784</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>626</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-257</v>
+        <v>158</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J41" s="3" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -2356,30 +2356,30 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>599</v>
+        <v>487</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>626</v>
+        <v>896</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-27</v>
+        <v>-409</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J42" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
@@ -2391,7 +2391,7 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -2405,13 +2405,13 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>669</v>
+        <v>569</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>626</v>
+        <v>896</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>43</v>
+        <v>-327</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>40</v>
@@ -2422,9 +2422,9 @@
       <c r="I43" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J43" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J43" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
@@ -2436,7 +2436,7 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -2446,26 +2446,26 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>369</v>
+        <v>608</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>626</v>
+        <v>896</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-257</v>
+        <v>-288</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J44" s="3" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -2491,30 +2491,30 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>550</v>
+        <v>784</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>626</v>
+        <v>896</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-76</v>
+        <v>-112</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J45" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
@@ -2526,7 +2526,7 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -2536,26 +2536,26 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>599</v>
+        <v>417</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>626</v>
+        <v>566</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-27</v>
+        <v>-149</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -2581,26 +2581,26 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>629</v>
+        <v>487</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>626</v>
+        <v>566</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>3</v>
+        <v>-79</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -2626,26 +2626,26 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>766</v>
+        <v>529</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>626</v>
+        <v>566</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>140</v>
+        <v>-37</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J48" s="3" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -2671,30 +2671,30 @@
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>339</v>
+        <v>529</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>896</v>
+        <v>566</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-557</v>
+        <v>-37</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J49" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J49" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
@@ -2706,7 +2706,7 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -2716,30 +2716,30 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>896</v>
+        <v>566</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>-306</v>
+        <v>-3</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J50" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
@@ -2751,7 +2751,7 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>24-FEB-26</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -2761,30 +2761,30 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>590</v>
+        <v>418</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>896</v>
+        <v>566</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>-306</v>
+        <v>-148</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J51" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
@@ -2796,7 +2796,7 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>24-FEB-26</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
@@ -2806,26 +2806,26 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>598</v>
+        <v>529</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>896</v>
+        <v>566</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>-298</v>
+        <v>-37</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>7</v>
+        <v>-10</v>
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>24-FEB-26</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -2855,13 +2855,13 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>629</v>
+        <v>569</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>896</v>
+        <v>566</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>-267</v>
+        <v>3</v>
       </c>
       <c r="G53" s="2" t="n">
         <v>40</v>
@@ -2872,9 +2872,9 @@
       <c r="I53" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J53" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K53" s="2" t="inlineStr">
@@ -2886,7 +2886,7 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -2896,26 +2896,26 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>Nesma Airlines NE-155</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>339</v>
+        <v>550</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>566</v>
+        <v>626</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>-227</v>
+        <v>-76</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -2941,30 +2941,30 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>473</v>
+        <v>656</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>566</v>
+        <v>626</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>-93</v>
+        <v>30</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J55" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K55" s="2" t="inlineStr">
@@ -2976,7 +2976,7 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -2986,30 +2986,30 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>569</v>
+        <v>656</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>566</v>
+        <v>626</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J56" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J56" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K56" s="2" t="inlineStr">
@@ -3021,7 +3021,7 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
@@ -3031,26 +3031,26 @@
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>566</v>
+        <v>716</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>33</v>
+        <v>-116</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>24-FEB-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -3076,26 +3076,26 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>563</v>
+        <v>608</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>566</v>
+        <v>716</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>-3</v>
+        <v>-108</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>24-FEB-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -3121,26 +3121,26 @@
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>569</v>
+        <v>608</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>566</v>
+        <v>716</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>3</v>
+        <v>-108</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>24-FEB-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
@@ -3166,26 +3166,26 @@
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>599</v>
+        <v>629</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>566</v>
+        <v>716</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>33</v>
+        <v>-87</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -3211,26 +3211,26 @@
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>399</v>
+        <v>669</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>626</v>
+        <v>716</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>-227</v>
+        <v>-47</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="J61" s="3" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -3256,26 +3256,26 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>550</v>
+        <v>784</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>626</v>
+        <v>716</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>-76</v>
+        <v>68</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -3301,30 +3301,30 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>599</v>
+        <v>436</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>626</v>
+        <v>806</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>-27</v>
+        <v>-370</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J63" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J63" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K63" s="2" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -3346,26 +3346,26 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>626</v>
+        <v>806</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>3</v>
+        <v>-198</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -3391,30 +3391,30 @@
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>638</v>
+        <v>616</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>626</v>
+        <v>806</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>12</v>
+        <v>-190</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J65" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J65" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K65" s="2" t="inlineStr">
@@ -3426,7 +3426,7 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -3436,26 +3436,26 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>590</v>
+        <v>629</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>716</v>
+        <v>806</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>-126</v>
+        <v>-177</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -3481,26 +3481,26 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>590</v>
+        <v>647</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>716</v>
+        <v>806</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>-126</v>
+        <v>-159</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I67" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -3526,30 +3526,30 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>600</v>
+        <v>669</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>716</v>
+        <v>806</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>-116</v>
+        <v>-137</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J68" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K68" s="2" t="inlineStr">
@@ -3561,7 +3561,7 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -3571,30 +3571,30 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nesma Airlines NE-155</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>629</v>
+        <v>670</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>716</v>
+        <v>806</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>-87</v>
+        <v>-136</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J69" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K69" s="2" t="inlineStr">
@@ -3606,7 +3606,7 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -3616,30 +3616,30 @@
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>629</v>
+        <v>709</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>716</v>
+        <v>806</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>-87</v>
+        <v>-97</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J70" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K70" s="2" t="inlineStr">
@@ -3651,7 +3651,7 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -3661,17 +3661,17 @@
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>646</v>
+        <v>944</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>716</v>
+        <v>806</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>-70</v>
+        <v>138</v>
       </c>
       <c r="G71" s="2" t="n">
         <v>46</v>
@@ -3682,9 +3682,9 @@
       <c r="I71" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J71" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J71" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K71" s="2" t="inlineStr">
@@ -3696,7 +3696,7 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -3706,30 +3706,30 @@
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>469</v>
+        <v>749</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>806</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>-337</v>
+        <v>-57</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J72" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J72" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K72" s="2" t="inlineStr">
@@ -3741,7 +3741,7 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -3751,30 +3751,30 @@
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>473</v>
+        <v>849</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>806</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>-333</v>
+        <v>43</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J73" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K73" s="2" t="inlineStr">
@@ -3786,7 +3786,7 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -3796,30 +3796,30 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>590</v>
+        <v>949</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>806</v>
+        <v>1016</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>-216</v>
+        <v>-67</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H74" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I74" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J74" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J74" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K74" s="2" t="inlineStr">
@@ -3831,7 +3831,7 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -3841,26 +3841,26 @@
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>598</v>
+        <v>1023</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>806</v>
+        <v>1136</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>-208</v>
+        <v>-113</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J75" s="3" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
@@ -3890,13 +3890,13 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>669</v>
+        <v>1069</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>806</v>
+        <v>1136</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>-137</v>
+        <v>-67</v>
       </c>
       <c r="G76" s="2" t="n">
         <v>40</v>
@@ -3921,7 +3921,7 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -3931,30 +3931,30 @@
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>669</v>
+        <v>851</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>806</v>
+        <v>896</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>-137</v>
+        <v>-45</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J77" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J77" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K77" s="2" t="inlineStr">
@@ -3966,7 +3966,7 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -3976,26 +3976,26 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>670</v>
+        <v>949</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>806</v>
+        <v>896</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>-136</v>
+        <v>53</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H78" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I78" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J78" s="3" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -4021,26 +4021,26 @@
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>679</v>
+        <v>1083</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>806</v>
+        <v>896</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>-127</v>
+        <v>187</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H79" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I79" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J79" s="3" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -4066,17 +4066,17 @@
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>758</v>
+        <v>1083</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>806</v>
+        <v>896</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>-48</v>
+        <v>187</v>
       </c>
       <c r="G80" s="2" t="n">
         <v>46</v>
@@ -4087,9 +4087,9 @@
       <c r="I80" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J80" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J80" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K80" s="2" t="inlineStr">
@@ -4101,7 +4101,7 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -4111,30 +4111,30 @@
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>749</v>
+        <v>1024</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>806</v>
+        <v>1136</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>-57</v>
+        <v>-112</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H81" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I81" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J81" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J81" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K81" s="2" t="inlineStr">
@@ -4146,7 +4146,7 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
@@ -4156,17 +4156,17 @@
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>799</v>
+        <v>1069</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>806</v>
+        <v>1136</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>-7</v>
+        <v>-67</v>
       </c>
       <c r="G82" s="2" t="n">
         <v>40</v>
@@ -4177,9 +4177,9 @@
       <c r="I82" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J82" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J82" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K82" s="2" t="inlineStr">
@@ -4191,7 +4191,7 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
@@ -4205,13 +4205,13 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>949</v>
+        <v>1299</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>1016</v>
+        <v>1676</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>-67</v>
+        <v>-377</v>
       </c>
       <c r="G83" s="2" t="n">
         <v>40</v>
@@ -4222,9 +4222,9 @@
       <c r="I83" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J83" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J83" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K83" s="2" t="inlineStr">
@@ -4236,7 +4236,7 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
@@ -4246,30 +4246,30 @@
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nesma Airlines NE-155</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>1069</v>
+        <v>1429</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>1016</v>
+        <v>1676</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>53</v>
+        <v>-247</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H84" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I84" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J84" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J84" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K84" s="2" t="inlineStr">
@@ -4281,7 +4281,7 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -4291,30 +4291,30 @@
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>849</v>
+        <v>1453</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>896</v>
+        <v>1676</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>-47</v>
+        <v>-223</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H85" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I85" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J85" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J85" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K85" s="2" t="inlineStr">
@@ -4326,7 +4326,7 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -4336,17 +4336,17 @@
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>851</v>
+        <v>1477</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>896</v>
+        <v>1676</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>-45</v>
+        <v>-199</v>
       </c>
       <c r="G86" s="2" t="n">
         <v>30</v>
@@ -4371,7 +4371,7 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
@@ -4381,26 +4381,26 @@
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>899</v>
+        <v>1803</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>896</v>
+        <v>1676</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H87" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I87" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J87" s="3" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -4426,26 +4426,26 @@
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>949</v>
+        <v>1429</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>896</v>
+        <v>1436</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>53</v>
+        <v>-7</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H88" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I88" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J88" s="3" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -4471,26 +4471,26 @@
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>1065</v>
+        <v>1499</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>896</v>
+        <v>1436</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H89" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I89" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J89" s="3" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -4516,26 +4516,26 @@
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>Nesma Airlines NE-155</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>1065</v>
+        <v>1149</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>896</v>
+        <v>1256</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>169</v>
+        <v>-107</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H90" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I90" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J90" s="3" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
@@ -4561,26 +4561,26 @@
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>1065</v>
+        <v>1238</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>896</v>
+        <v>1256</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>169</v>
+        <v>-18</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H91" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I91" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
@@ -4606,30 +4606,30 @@
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>949</v>
+        <v>1243</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>1016</v>
+        <v>1256</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>-67</v>
+        <v>-13</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H92" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I92" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J92" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J92" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K92" s="2" t="inlineStr">
@@ -4641,7 +4641,7 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
@@ -4651,26 +4651,26 @@
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>1069</v>
+        <v>1249</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>1016</v>
+        <v>1436</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>53</v>
+        <v>-187</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H93" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I93" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J93" s="3" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
@@ -4696,26 +4696,26 @@
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>1249</v>
+        <v>1499</v>
       </c>
       <c r="E94" s="2" t="n">
         <v>1436</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>-187</v>
+        <v>63</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H94" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I94" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J94" s="3" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -4741,30 +4741,30 @@
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Nesma Airlines NE-155</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>1299</v>
+        <v>1429</v>
       </c>
       <c r="E95" s="2" t="n">
         <v>1436</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>-137</v>
+        <v>-7</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H95" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I95" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J95" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J95" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K95" s="2" t="inlineStr">
@@ -4776,7 +4776,7 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -4786,30 +4786,30 @@
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>1149</v>
+        <v>1499</v>
       </c>
       <c r="E96" s="2" t="n">
         <v>1436</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>-287</v>
+        <v>63</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H96" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I96" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J96" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K96" s="2" t="inlineStr">
@@ -4821,7 +4821,7 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -4835,13 +4835,13 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>1238</v>
+        <v>914</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>1436</v>
+        <v>1256</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>-198</v>
+        <v>-342</v>
       </c>
       <c r="G97" s="2" t="n">
         <v>30</v>
@@ -4852,9 +4852,9 @@
       <c r="I97" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J97" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J97" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K97" s="2" t="inlineStr">
@@ -4866,7 +4866,7 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -4876,30 +4876,30 @@
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>1299</v>
+        <v>1149</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>1436</v>
+        <v>1256</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>-137</v>
+        <v>-107</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H98" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I98" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J98" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J98" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K98" s="2" t="inlineStr">
@@ -4911,7 +4911,7 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -4921,26 +4921,26 @@
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>949</v>
+        <v>1299</v>
       </c>
       <c r="E99" s="2" t="n">
         <v>1256</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>-307</v>
+        <v>43</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H99" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I99" s="2" t="n">
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="J99" s="3" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -4966,30 +4966,30 @@
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>1024</v>
+        <v>949</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>1256</v>
+        <v>896</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>-232</v>
+        <v>53</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H100" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I100" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J100" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K100" s="2" t="inlineStr">
@@ -5001,7 +5001,7 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
@@ -5011,30 +5011,30 @@
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>1069</v>
+        <v>725</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>1256</v>
+        <v>806</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>-187</v>
+        <v>-81</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H101" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I101" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J101" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J101" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K101" s="2" t="inlineStr">
@@ -5046,7 +5046,7 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -5056,26 +5056,26 @@
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>1143</v>
+        <v>799</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>1256</v>
+        <v>806</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>-113</v>
+        <v>-7</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H102" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I102" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J102" s="3" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
@@ -5101,26 +5101,26 @@
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>1243</v>
+        <v>799</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>1256</v>
+        <v>806</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H103" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I103" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J103" s="3" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -5146,17 +5146,17 @@
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>1299</v>
+        <v>899</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>1256</v>
+        <v>806</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="G104" s="2" t="n">
         <v>40</v>
@@ -5181,7 +5181,7 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
@@ -5191,26 +5191,26 @@
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>1425</v>
+        <v>647</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>1256</v>
+        <v>716</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>169</v>
+        <v>-69</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H105" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I105" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J105" s="3" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
@@ -5236,26 +5236,26 @@
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>1425</v>
+        <v>669</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>1256</v>
+        <v>716</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>169</v>
+        <v>-47</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H106" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I106" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J106" s="3" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -5281,30 +5281,30 @@
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>1149</v>
+        <v>709</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>1436</v>
+        <v>716</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>-287</v>
+        <v>-7</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H107" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I107" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J107" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K107" s="2" t="inlineStr">
@@ -5316,7 +5316,7 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -5326,30 +5326,30 @@
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>1299</v>
+        <v>647</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>1436</v>
+        <v>716</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>-137</v>
+        <v>-69</v>
       </c>
       <c r="G108" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H108" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I108" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J108" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J108" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K108" s="2" t="inlineStr">
@@ -5361,7 +5361,7 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -5375,13 +5375,13 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>1499</v>
+        <v>709</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>1436</v>
+        <v>716</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>63</v>
+        <v>-7</v>
       </c>
       <c r="G109" s="2" t="n">
         <v>40</v>
@@ -5406,7 +5406,7 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
@@ -5416,26 +5416,26 @@
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>1249</v>
+        <v>709</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>1436</v>
+        <v>716</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>-187</v>
+        <v>-7</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H110" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I110" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J110" s="3" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -5461,30 +5461,30 @@
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>1499</v>
+        <v>417</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>1436</v>
+        <v>806</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>63</v>
+        <v>-389</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H111" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I111" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J111" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J111" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K111" s="2" t="inlineStr">
@@ -5496,7 +5496,7 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
@@ -5506,26 +5506,26 @@
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>1499</v>
+        <v>607</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>1436</v>
+        <v>806</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>63</v>
+        <v>-199</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H112" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I112" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J112" s="3" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -5551,26 +5551,26 @@
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>914</v>
+        <v>709</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>1256</v>
+        <v>806</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>-342</v>
+        <v>-97</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H113" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I113" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J113" s="4" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -5596,17 +5596,17 @@
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>1069</v>
+        <v>709</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>1256</v>
+        <v>806</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>-187</v>
+        <v>-97</v>
       </c>
       <c r="G114" s="2" t="n">
         <v>40</v>
@@ -5631,7 +5631,7 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -5641,17 +5641,17 @@
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>1149</v>
+        <v>723</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>1256</v>
+        <v>806</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>-107</v>
+        <v>-83</v>
       </c>
       <c r="G115" s="2" t="n">
         <v>30</v>
@@ -5676,7 +5676,7 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>30-MAR-26</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
@@ -5686,17 +5686,17 @@
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>1249</v>
+        <v>709</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>1256</v>
+        <v>626</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>-7</v>
+        <v>83</v>
       </c>
       <c r="G116" s="2" t="n">
         <v>40</v>
@@ -5721,36 +5721,36 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>21-MAR-26</t>
+          <t>30-MAR-26</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>849</v>
+        <v>687</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>896</v>
+        <v>716</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>-47</v>
+        <v>-29</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H117" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I117" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J117" s="3" t="inlineStr">
         <is>
@@ -5766,36 +5766,36 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>21-MAR-26</t>
+          <t>30-MAR-26</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>851</v>
+        <v>709</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>896</v>
+        <v>716</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>-45</v>
+        <v>-7</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H118" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I118" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J118" s="3" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>21-MAR-26</t>
+          <t>01-APR-26</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -5821,17 +5821,17 @@
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>949</v>
+        <v>629</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>896</v>
+        <v>506</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="G119" s="2" t="n">
         <v>40</v>
@@ -5856,36 +5856,36 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>06-APR-26</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>725</v>
+        <v>569</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>806</v>
+        <v>446</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>-81</v>
+        <v>123</v>
       </c>
       <c r="G120" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H120" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I120" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J120" s="3" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>07-APR-26</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -5911,26 +5911,26 @@
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>716</v>
+        <v>476</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>-287</v>
+        <v>-64</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H121" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I121" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J121" s="3" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>07-APR-26</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
@@ -5956,26 +5956,26 @@
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>479</v>
+        <v>569</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>716</v>
+        <v>476</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>-237</v>
+        <v>93</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H122" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I122" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J122" s="3" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>10-APR-26</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
@@ -6001,26 +6001,26 @@
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>519</v>
+        <v>417</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>716</v>
+        <v>446</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>-197</v>
+        <v>-29</v>
       </c>
       <c r="G123" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H123" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I123" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J123" s="3" t="inlineStr">
         <is>
@@ -6036,36 +6036,36 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>27-MAR-26</t>
+          <t>10-APR-26</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>469</v>
+        <v>417</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>716</v>
+        <v>476</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>-247</v>
+        <v>-59</v>
       </c>
       <c r="G124" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H124" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I124" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J124" s="3" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>27-MAR-26</t>
+          <t>12-APR-26</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
@@ -6091,26 +6091,26 @@
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>709</v>
+        <v>417</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>716</v>
+        <v>446</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>-7</v>
+        <v>-29</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H125" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I125" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J125" s="3" t="inlineStr">
         <is>
@@ -6126,36 +6126,36 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>27-MAR-26</t>
+          <t>17-APR-26</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>709</v>
+        <v>417</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>716</v>
+        <v>446</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>-7</v>
+        <v>-29</v>
       </c>
       <c r="G126" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H126" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I126" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J126" s="3" t="inlineStr">
         <is>
@@ -6171,36 +6171,36 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>17-APR-26</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>429</v>
+        <v>569</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>716</v>
+        <v>446</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>-287</v>
+        <v>123</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H127" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I127" s="2" t="n">
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="J127" s="3" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>19-APR-26</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -6226,26 +6226,26 @@
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>479</v>
+        <v>417</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>716</v>
+        <v>446</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>-237</v>
+        <v>-29</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H128" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I128" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J128" s="3" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>21-APR-26</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
@@ -6271,26 +6271,26 @@
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>519</v>
+        <v>412</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>716</v>
+        <v>446</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>-197</v>
+        <v>-34</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H129" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I129" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J129" s="3" t="inlineStr">
         <is>
@@ -6306,12 +6306,12 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>24-APR-26</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
@@ -6320,13 +6320,13 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>627</v>
+        <v>417</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>716</v>
+        <v>446</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>-89</v>
+        <v>-29</v>
       </c>
       <c r="G130" s="2" t="n">
         <v>30</v>
@@ -6351,7 +6351,7 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>30-MAR-26</t>
+          <t>24-APR-26</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
@@ -6365,22 +6365,22 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>519</v>
+        <v>569</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>716</v>
+        <v>446</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>-197</v>
+        <v>123</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H131" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I131" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J131" s="3" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>31-MAR-26</t>
+          <t>26-APR-26</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
@@ -6410,13 +6410,13 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>505</v>
+        <v>417</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>626</v>
+        <v>446</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>-121</v>
+        <v>-29</v>
       </c>
       <c r="G132" s="2" t="n">
         <v>30</v>
@@ -6441,7 +6441,7 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>31-MAR-26</t>
+          <t>28-APR-26</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
@@ -6451,26 +6451,26 @@
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>749</v>
+        <v>412</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>626</v>
+        <v>446</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>123</v>
+        <v>-34</v>
       </c>
       <c r="G133" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H133" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I133" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J133" s="3" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>05-MAY-26</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
@@ -6500,13 +6500,13 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>473</v>
+        <v>412</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>-3</v>
+        <v>-34</v>
       </c>
       <c r="G134" s="2" t="n">
         <v>30</v>
@@ -6531,7 +6531,7 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>08-MAY-26</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
@@ -6545,13 +6545,13 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>473</v>
+        <v>417</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>506</v>
+        <v>446</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>-33</v>
+        <v>-29</v>
       </c>
       <c r="G135" s="2" t="n">
         <v>30</v>
@@ -6576,36 +6576,36 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>10-MAY-26</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>629</v>
+        <v>417</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>506</v>
+        <v>446</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>123</v>
+        <v>-29</v>
       </c>
       <c r="G136" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H136" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I136" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J136" s="3" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>07-APR-26</t>
+          <t>12-MAY-26</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -6635,13 +6635,13 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>-46</v>
+        <v>-34</v>
       </c>
       <c r="G137" s="2" t="n">
         <v>30</v>
@@ -6666,7 +6666,7 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>07-APR-26</t>
+          <t>17-MAY-26</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
@@ -6676,30 +6676,30 @@
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>599</v>
+        <v>663</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>476</v>
+        <v>1676</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>123</v>
+        <v>-1013</v>
       </c>
       <c r="G138" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H138" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I138" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J138" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>7</v>
+      </c>
+      <c r="J138" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K138" s="2" t="inlineStr">
@@ -6711,40 +6711,40 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>10-APR-26</t>
+          <t>17-MAY-26</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>EgyptAir MS-698</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>455</v>
+        <v>663</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>476</v>
+        <v>1676</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>-21</v>
+        <v>-1013</v>
       </c>
       <c r="G139" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H139" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I139" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>7</v>
+      </c>
+      <c r="J139" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K139" s="2" t="inlineStr">
@@ -6756,40 +6756,40 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>10-APR-26</t>
+          <t>17-MAY-26</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>599</v>
+        <v>723</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>476</v>
+        <v>1676</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>123</v>
+        <v>-953</v>
       </c>
       <c r="G140" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H140" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I140" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J140" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>7</v>
+      </c>
+      <c r="J140" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K140" s="2" t="inlineStr">
@@ -6801,7 +6801,7 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>12-APR-26</t>
+          <t>17-MAY-26</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
@@ -6811,17 +6811,17 @@
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>436</v>
+        <v>723</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>446</v>
+        <v>1676</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>-10</v>
+        <v>-953</v>
       </c>
       <c r="G141" s="2" t="n">
         <v>30</v>
@@ -6832,9 +6832,9 @@
       <c r="I141" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J141" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J141" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K141" s="2" t="inlineStr">
@@ -6846,7 +6846,7 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>15-APR-26</t>
+          <t>17-MAY-26</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
@@ -6856,30 +6856,30 @@
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>599</v>
+        <v>851</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>476</v>
+        <v>1676</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>123</v>
+        <v>-825</v>
       </c>
       <c r="G142" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H142" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I142" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J142" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J142" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K142" s="2" t="inlineStr">
@@ -6891,40 +6891,40 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>17-APR-26</t>
+          <t>17-MAY-26</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>436</v>
+        <v>879</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>446</v>
+        <v>1676</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>-10</v>
+        <v>-797</v>
       </c>
       <c r="G143" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H143" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I143" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J143" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K143" s="2" t="inlineStr">
@@ -6936,40 +6936,40 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>24-APR-26</t>
+          <t>17-MAY-26</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>436</v>
+        <v>949</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>446</v>
+        <v>1676</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>-10</v>
+        <v>-727</v>
       </c>
       <c r="G144" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H144" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I144" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J144" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K144" s="2" t="inlineStr">
@@ -6981,40 +6981,40 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>26-APR-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>436</v>
+        <v>663</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>446</v>
+        <v>1676</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>-10</v>
+        <v>-1013</v>
       </c>
       <c r="G145" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H145" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I145" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>7</v>
+      </c>
+      <c r="J145" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K145" s="2" t="inlineStr">
@@ -7026,7 +7026,7 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>01-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -7036,30 +7036,30 @@
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>EgyptAir MS-698</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>436</v>
+        <v>663</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>446</v>
+        <v>1676</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>-10</v>
+        <v>-1013</v>
       </c>
       <c r="G146" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H146" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I146" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>7</v>
+      </c>
+      <c r="J146" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K146" s="2" t="inlineStr">
@@ -7071,27 +7071,27 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>10-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>Nile Air NP-332</t>
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>436</v>
+        <v>723</v>
       </c>
       <c r="E147" s="2" t="n">
-        <v>446</v>
+        <v>1676</v>
       </c>
       <c r="F147" s="2" t="n">
-        <v>-10</v>
+        <v>-953</v>
       </c>
       <c r="G147" s="2" t="n">
         <v>30</v>
@@ -7102,9 +7102,9 @@
       <c r="I147" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J147" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J147" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K147" s="2" t="inlineStr">
@@ -7116,40 +7116,40 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>12-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>430</v>
+        <v>783</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>446</v>
+        <v>1676</v>
       </c>
       <c r="F148" s="2" t="n">
+        <v>-893</v>
+      </c>
+      <c r="G148" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H148" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I148" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="G148" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H148" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I148" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J148" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K148" s="2" t="inlineStr">
@@ -7161,36 +7161,36 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>17-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>511</v>
+        <v>873</v>
       </c>
       <c r="E149" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>-1165</v>
+        <v>-803</v>
       </c>
       <c r="G149" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H149" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I149" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J149" s="5" t="inlineStr">
         <is>
@@ -7206,36 +7206,36 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>17-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>645</v>
+        <v>879</v>
       </c>
       <c r="E150" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>-1031</v>
+        <v>-797</v>
       </c>
       <c r="G150" s="2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H150" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I150" s="2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J150" s="5" t="inlineStr">
         <is>
@@ -7251,36 +7251,36 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>17-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-698</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>645</v>
+        <v>949</v>
       </c>
       <c r="E151" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>-1031</v>
+        <v>-727</v>
       </c>
       <c r="G151" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H151" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I151" s="2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J151" s="5" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>17-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
@@ -7306,26 +7306,26 @@
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>705</v>
+        <v>811</v>
       </c>
       <c r="E152" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>-971</v>
+        <v>-865</v>
       </c>
       <c r="G152" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H152" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I152" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J152" s="5" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>17-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
@@ -7351,17 +7351,17 @@
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>723</v>
+        <v>845</v>
       </c>
       <c r="E153" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>-953</v>
+        <v>-831</v>
       </c>
       <c r="G153" s="2" t="n">
         <v>30</v>
@@ -7386,7 +7386,7 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>17-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
@@ -7396,26 +7396,26 @@
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="E154" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F154" s="2" t="n">
-        <v>-797</v>
+        <v>-803</v>
       </c>
       <c r="G154" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H154" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I154" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J154" s="5" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>17-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
@@ -7441,26 +7441,26 @@
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>EgyptAir MS-698</t>
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>949</v>
+        <v>873</v>
       </c>
       <c r="E155" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>-727</v>
+        <v>-803</v>
       </c>
       <c r="G155" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H155" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I155" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J155" s="5" t="inlineStr">
         <is>
@@ -7476,36 +7476,36 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>645</v>
+        <v>879</v>
       </c>
       <c r="E156" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F156" s="2" t="n">
-        <v>-1031</v>
+        <v>-797</v>
       </c>
       <c r="G156" s="2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H156" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I156" s="2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J156" s="5" t="inlineStr">
         <is>
@@ -7521,36 +7521,36 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-698</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>645</v>
+        <v>963</v>
       </c>
       <c r="E157" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>-1031</v>
+        <v>-713</v>
       </c>
       <c r="G157" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H157" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I157" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J157" s="5" t="inlineStr">
         <is>
@@ -7566,12 +7566,12 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>705</v>
+        <v>1083</v>
       </c>
       <c r="E158" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F158" s="2" t="n">
-        <v>-971</v>
+        <v>-593</v>
       </c>
       <c r="G158" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H158" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I158" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J158" s="5" t="inlineStr">
         <is>
@@ -7611,36 +7611,36 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-332</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>723</v>
+        <v>1249</v>
       </c>
       <c r="E159" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F159" s="2" t="n">
-        <v>-953</v>
+        <v>-427</v>
       </c>
       <c r="G159" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H159" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I159" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J159" s="5" t="inlineStr">
         <is>
@@ -7656,36 +7656,36 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>765</v>
+        <v>1238</v>
       </c>
       <c r="E160" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F160" s="2" t="n">
-        <v>-911</v>
+        <v>-438</v>
       </c>
       <c r="G160" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H160" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I160" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J160" s="5" t="inlineStr">
         <is>
@@ -7701,36 +7701,36 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>879</v>
+        <v>1249</v>
       </c>
       <c r="E161" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F161" s="2" t="n">
-        <v>-797</v>
+        <v>-427</v>
       </c>
       <c r="G161" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H161" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I161" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J161" s="5" t="inlineStr">
         <is>
@@ -7746,36 +7746,36 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>949</v>
+        <v>1323</v>
       </c>
       <c r="E162" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F162" s="2" t="n">
-        <v>-727</v>
+        <v>-353</v>
       </c>
       <c r="G162" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H162" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I162" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J162" s="5" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
@@ -7801,26 +7801,26 @@
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>621</v>
+        <v>1323</v>
       </c>
       <c r="E163" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F163" s="2" t="n">
-        <v>-1055</v>
+        <v>-353</v>
       </c>
       <c r="G163" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H163" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I163" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J163" s="5" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
@@ -7846,26 +7846,26 @@
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>811</v>
+        <v>1323</v>
       </c>
       <c r="E164" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F164" s="2" t="n">
-        <v>-865</v>
+        <v>-353</v>
       </c>
       <c r="G164" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H164" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I164" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J164" s="5" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
@@ -7891,17 +7891,17 @@
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>EgyptAir MS-698</t>
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>855</v>
+        <v>1323</v>
       </c>
       <c r="E165" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F165" s="2" t="n">
-        <v>-821</v>
+        <v>-353</v>
       </c>
       <c r="G165" s="2" t="n">
         <v>46</v>
@@ -7926,36 +7926,36 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-698</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>855</v>
+        <v>1238</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>1676</v>
+        <v>2096</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>-821</v>
+        <v>-858</v>
       </c>
       <c r="G166" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H166" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I166" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J166" s="5" t="inlineStr">
         <is>
@@ -7971,36 +7971,36 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>945</v>
+        <v>1243</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>1676</v>
+        <v>2096</v>
       </c>
       <c r="F167" s="2" t="n">
-        <v>-731</v>
+        <v>-853</v>
       </c>
       <c r="G167" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H167" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I167" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J167" s="5" t="inlineStr">
         <is>
@@ -8016,36 +8016,36 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>1065</v>
+        <v>1299</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>1676</v>
+        <v>2096</v>
       </c>
       <c r="F168" s="2" t="n">
-        <v>-611</v>
+        <v>-797</v>
       </c>
       <c r="G168" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H168" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I168" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J168" s="5" t="inlineStr">
         <is>
@@ -8061,36 +8061,36 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>1069</v>
+        <v>1443</v>
       </c>
       <c r="E169" s="2" t="n">
-        <v>1676</v>
+        <v>2096</v>
       </c>
       <c r="F169" s="2" t="n">
-        <v>-607</v>
+        <v>-653</v>
       </c>
       <c r="G169" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H169" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I169" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J169" s="5" t="inlineStr">
         <is>
@@ -8106,36 +8106,36 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>1249</v>
+        <v>1443</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>1676</v>
+        <v>2096</v>
       </c>
       <c r="F170" s="2" t="n">
-        <v>-427</v>
+        <v>-653</v>
       </c>
       <c r="G170" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H170" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I170" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J170" s="5" t="inlineStr">
         <is>
@@ -8151,36 +8151,36 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>EgyptAir MS-698</t>
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>949</v>
+        <v>1443</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>1676</v>
+        <v>2096</v>
       </c>
       <c r="F171" s="2" t="n">
-        <v>-727</v>
+        <v>-653</v>
       </c>
       <c r="G171" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H171" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I171" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J171" s="5" t="inlineStr">
         <is>
@@ -8196,36 +8196,36 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>1238</v>
+        <v>1623</v>
       </c>
       <c r="E172" s="2" t="n">
-        <v>1676</v>
+        <v>2096</v>
       </c>
       <c r="F172" s="2" t="n">
-        <v>-438</v>
+        <v>-473</v>
       </c>
       <c r="G172" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H172" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I172" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J172" s="5" t="inlineStr">
         <is>
@@ -8241,40 +8241,40 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>1305</v>
+        <v>2099</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>1676</v>
+        <v>2096</v>
       </c>
       <c r="F173" s="2" t="n">
-        <v>-371</v>
+        <v>3</v>
       </c>
       <c r="G173" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H173" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I173" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J173" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-10</v>
+      </c>
+      <c r="J173" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K173" s="2" t="inlineStr">
@@ -8286,7 +8286,7 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>24-MAY-26</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
@@ -8296,26 +8296,26 @@
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>1305</v>
+        <v>1238</v>
       </c>
       <c r="E174" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F174" s="2" t="n">
-        <v>-371</v>
+        <v>-438</v>
       </c>
       <c r="G174" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H174" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I174" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J174" s="5" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>24-MAY-26</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
@@ -8341,26 +8341,26 @@
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>1305</v>
+        <v>1243</v>
       </c>
       <c r="E175" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F175" s="2" t="n">
-        <v>-371</v>
+        <v>-433</v>
       </c>
       <c r="G175" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H175" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I175" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J175" s="5" t="inlineStr">
         <is>
@@ -8376,7 +8376,7 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>24-MAY-26</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
@@ -8386,26 +8386,26 @@
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-698</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>1305</v>
+        <v>1249</v>
       </c>
       <c r="E176" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F176" s="2" t="n">
-        <v>-371</v>
+        <v>-427</v>
       </c>
       <c r="G176" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H176" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I176" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J176" s="5" t="inlineStr">
         <is>
@@ -8421,36 +8421,36 @@
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>22-MAY-26</t>
+          <t>24-MAY-26</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>1238</v>
+        <v>1443</v>
       </c>
       <c r="E177" s="2" t="n">
-        <v>2096</v>
+        <v>1676</v>
       </c>
       <c r="F177" s="2" t="n">
-        <v>-858</v>
+        <v>-233</v>
       </c>
       <c r="G177" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H177" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I177" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J177" s="5" t="inlineStr">
         <is>
@@ -8466,27 +8466,27 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>22-MAY-26</t>
+          <t>24-MAY-26</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>1425</v>
+        <v>1443</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>2096</v>
+        <v>1676</v>
       </c>
       <c r="F178" s="2" t="n">
-        <v>-671</v>
+        <v>-233</v>
       </c>
       <c r="G178" s="2" t="n">
         <v>46</v>
@@ -8511,27 +8511,27 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>22-MAY-26</t>
+          <t>24-MAY-26</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>1425</v>
+        <v>1443</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>2096</v>
+        <v>1676</v>
       </c>
       <c r="F179" s="2" t="n">
-        <v>-671</v>
+        <v>-233</v>
       </c>
       <c r="G179" s="2" t="n">
         <v>46</v>
@@ -8556,12 +8556,12 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>22-MAY-26</t>
+          <t>24-MAY-26</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
@@ -8570,13 +8570,13 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>1425</v>
+        <v>1443</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>2096</v>
+        <v>1676</v>
       </c>
       <c r="F180" s="2" t="n">
-        <v>-671</v>
+        <v>-233</v>
       </c>
       <c r="G180" s="2" t="n">
         <v>46</v>
@@ -8601,7 +8601,7 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>22-MAY-26</t>
+          <t>25-MAY-26</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
@@ -8611,26 +8611,26 @@
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>Nile Air NP-332</t>
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>1605</v>
+        <v>1238</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>2096</v>
+        <v>1676</v>
       </c>
       <c r="F181" s="2" t="n">
-        <v>-491</v>
+        <v>-438</v>
       </c>
       <c r="G181" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H181" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I181" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J181" s="5" t="inlineStr">
         <is>
@@ -8646,36 +8646,36 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>24-MAY-26</t>
+          <t>25-MAY-26</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>949</v>
+        <v>1443</v>
       </c>
       <c r="E182" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F182" s="2" t="n">
-        <v>-727</v>
+        <v>-233</v>
       </c>
       <c r="G182" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H182" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I182" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J182" s="5" t="inlineStr">
         <is>
@@ -8691,36 +8691,36 @@
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>24-MAY-26</t>
+          <t>25-MAY-26</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>1238</v>
+        <v>1443</v>
       </c>
       <c r="E183" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F183" s="2" t="n">
-        <v>-438</v>
+        <v>-233</v>
       </c>
       <c r="G183" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H183" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I183" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J183" s="5" t="inlineStr">
         <is>
@@ -8736,36 +8736,36 @@
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>24-MAY-26</t>
+          <t>25-MAY-26</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>EgyptAir MS-698</t>
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>1243</v>
+        <v>1443</v>
       </c>
       <c r="E184" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F184" s="2" t="n">
-        <v>-433</v>
+        <v>-233</v>
       </c>
       <c r="G184" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H184" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I184" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J184" s="5" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>24-MAY-26</t>
+          <t>26-MAY-26</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
@@ -8791,30 +8791,30 @@
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>1425</v>
+        <v>1099</v>
       </c>
       <c r="E185" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F185" s="2" t="n">
-        <v>-251</v>
+        <v>-577</v>
       </c>
       <c r="G185" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H185" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I185" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J185" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J185" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K185" s="2" t="inlineStr">
@@ -8826,7 +8826,7 @@
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>24-MAY-26</t>
+          <t>26-MAY-26</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
@@ -8836,26 +8836,26 @@
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>1425</v>
+        <v>1237</v>
       </c>
       <c r="E186" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F186" s="2" t="n">
-        <v>-251</v>
+        <v>-439</v>
       </c>
       <c r="G186" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H186" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I186" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J186" s="5" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>24-MAY-26</t>
+          <t>26-MAY-26</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
@@ -8881,26 +8881,26 @@
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>1425</v>
+        <v>1238</v>
       </c>
       <c r="E187" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F187" s="2" t="n">
-        <v>-251</v>
+        <v>-438</v>
       </c>
       <c r="G187" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H187" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I187" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J187" s="5" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>24-MAY-26</t>
+          <t>26-MAY-26</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
@@ -8926,17 +8926,17 @@
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-698</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>1425</v>
+        <v>1443</v>
       </c>
       <c r="E188" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F188" s="2" t="n">
-        <v>-251</v>
+        <v>-233</v>
       </c>
       <c r="G188" s="2" t="n">
         <v>46</v>
@@ -8961,7 +8961,7 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>25-MAY-26</t>
+          <t>26-MAY-26</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
@@ -8971,26 +8971,26 @@
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-332</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>1238</v>
+        <v>1443</v>
       </c>
       <c r="E189" s="2" t="n">
-        <v>2096</v>
+        <v>1676</v>
       </c>
       <c r="F189" s="2" t="n">
-        <v>-858</v>
+        <v>-233</v>
       </c>
       <c r="G189" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H189" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I189" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J189" s="5" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>25-MAY-26</t>
+          <t>26-MAY-26</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
@@ -9016,17 +9016,17 @@
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>1425</v>
+        <v>1443</v>
       </c>
       <c r="E190" s="2" t="n">
-        <v>2096</v>
+        <v>1676</v>
       </c>
       <c r="F190" s="2" t="n">
-        <v>-671</v>
+        <v>-233</v>
       </c>
       <c r="G190" s="2" t="n">
         <v>46</v>
@@ -9051,7 +9051,7 @@
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>25-MAY-26</t>
+          <t>26-MAY-26</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
@@ -9061,17 +9061,17 @@
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>EgyptAir MS-698</t>
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>1425</v>
+        <v>1443</v>
       </c>
       <c r="E191" s="2" t="n">
-        <v>2096</v>
+        <v>1676</v>
       </c>
       <c r="F191" s="2" t="n">
-        <v>-671</v>
+        <v>-233</v>
       </c>
       <c r="G191" s="2" t="n">
         <v>46</v>
@@ -9096,7 +9096,7 @@
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>25-MAY-26</t>
+          <t>27-MAY-26</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
@@ -9106,30 +9106,30 @@
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-698</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>1425</v>
+        <v>723</v>
       </c>
       <c r="E192" s="2" t="n">
-        <v>2096</v>
+        <v>896</v>
       </c>
       <c r="F192" s="2" t="n">
-        <v>-671</v>
+        <v>-173</v>
       </c>
       <c r="G192" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H192" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I192" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J192" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>7</v>
+      </c>
+      <c r="J192" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K192" s="2" t="inlineStr">
@@ -9141,7 +9141,7 @@
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>25-MAY-26</t>
+          <t>27-MAY-26</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
@@ -9151,30 +9151,30 @@
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>1849</v>
+        <v>783</v>
       </c>
       <c r="E193" s="2" t="n">
-        <v>2096</v>
+        <v>896</v>
       </c>
       <c r="F193" s="2" t="n">
-        <v>-247</v>
+        <v>-113</v>
       </c>
       <c r="G193" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H193" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I193" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J193" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J193" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K193" s="2" t="inlineStr">
@@ -9186,7 +9186,7 @@
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>25-MAY-26</t>
+          <t>27-MAY-26</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
@@ -9196,17 +9196,17 @@
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>EgyptAir MS-698</t>
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>2085</v>
+        <v>873</v>
       </c>
       <c r="E194" s="2" t="n">
-        <v>2096</v>
+        <v>896</v>
       </c>
       <c r="F194" s="2" t="n">
-        <v>-11</v>
+        <v>-23</v>
       </c>
       <c r="G194" s="2" t="n">
         <v>46</v>
@@ -9231,40 +9231,40 @@
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>25-MAY-26</t>
+          <t>27-MAY-26</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-332</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>1238</v>
+        <v>963</v>
       </c>
       <c r="E195" s="2" t="n">
-        <v>1676</v>
+        <v>896</v>
       </c>
       <c r="F195" s="2" t="n">
-        <v>-438</v>
+        <v>67</v>
       </c>
       <c r="G195" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H195" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I195" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J195" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K195" s="2" t="inlineStr">
@@ -9276,27 +9276,27 @@
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>25-MAY-26</t>
+          <t>29-MAY-26</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>1425</v>
+        <v>783</v>
       </c>
       <c r="E196" s="2" t="n">
-        <v>1676</v>
+        <v>566</v>
       </c>
       <c r="F196" s="2" t="n">
-        <v>-251</v>
+        <v>217</v>
       </c>
       <c r="G196" s="2" t="n">
         <v>46</v>
@@ -9307,777 +9307,12 @@
       <c r="I196" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J196" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J196" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K196" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="2" t="inlineStr">
-        <is>
-          <t>25-MAY-26</t>
-        </is>
-      </c>
-      <c r="B197" s="2" t="inlineStr">
-        <is>
-          <t>SM-440</t>
-        </is>
-      </c>
-      <c r="C197" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-684</t>
-        </is>
-      </c>
-      <c r="D197" s="2" t="n">
-        <v>1425</v>
-      </c>
-      <c r="E197" s="2" t="n">
-        <v>1676</v>
-      </c>
-      <c r="F197" s="2" t="n">
-        <v>-251</v>
-      </c>
-      <c r="G197" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H197" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I197" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J197" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="2" t="inlineStr">
-        <is>
-          <t>25-MAY-26</t>
-        </is>
-      </c>
-      <c r="B198" s="2" t="inlineStr">
-        <is>
-          <t>SM-440</t>
-        </is>
-      </c>
-      <c r="C198" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-698</t>
-        </is>
-      </c>
-      <c r="D198" s="2" t="n">
-        <v>1425</v>
-      </c>
-      <c r="E198" s="2" t="n">
-        <v>1676</v>
-      </c>
-      <c r="F198" s="2" t="n">
-        <v>-251</v>
-      </c>
-      <c r="G198" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H198" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I198" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J198" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B199" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C199" s="2" t="inlineStr">
-        <is>
-          <t>flyadeal F3-911</t>
-        </is>
-      </c>
-      <c r="D199" s="2" t="n">
-        <v>1099</v>
-      </c>
-      <c r="E199" s="2" t="n">
-        <v>1676</v>
-      </c>
-      <c r="F199" s="2" t="n">
-        <v>-577</v>
-      </c>
-      <c r="G199" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H199" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I199" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J199" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B200" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C200" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-316</t>
-        </is>
-      </c>
-      <c r="D200" s="2" t="n">
-        <v>1238</v>
-      </c>
-      <c r="E200" s="2" t="n">
-        <v>1676</v>
-      </c>
-      <c r="F200" s="2" t="n">
-        <v>-438</v>
-      </c>
-      <c r="G200" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H200" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I200" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K200" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B201" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C201" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-132</t>
-        </is>
-      </c>
-      <c r="D201" s="2" t="n">
-        <v>1238</v>
-      </c>
-      <c r="E201" s="2" t="n">
-        <v>1676</v>
-      </c>
-      <c r="F201" s="2" t="n">
-        <v>-438</v>
-      </c>
-      <c r="G201" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H201" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I201" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K201" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B202" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C202" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-688</t>
-        </is>
-      </c>
-      <c r="D202" s="2" t="n">
-        <v>1425</v>
-      </c>
-      <c r="E202" s="2" t="n">
-        <v>1676</v>
-      </c>
-      <c r="F202" s="2" t="n">
-        <v>-251</v>
-      </c>
-      <c r="G202" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H202" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I202" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J202" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K202" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B203" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C203" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-682</t>
-        </is>
-      </c>
-      <c r="D203" s="2" t="n">
-        <v>1425</v>
-      </c>
-      <c r="E203" s="2" t="n">
-        <v>1676</v>
-      </c>
-      <c r="F203" s="2" t="n">
-        <v>-251</v>
-      </c>
-      <c r="G203" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H203" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I203" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J203" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K203" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-684</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="n">
-        <v>1425</v>
-      </c>
-      <c r="E204" s="2" t="n">
-        <v>1676</v>
-      </c>
-      <c r="F204" s="2" t="n">
-        <v>-251</v>
-      </c>
-      <c r="G204" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H204" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I204" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J204" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C205" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-698</t>
-        </is>
-      </c>
-      <c r="D205" s="2" t="n">
-        <v>1425</v>
-      </c>
-      <c r="E205" s="2" t="n">
-        <v>1676</v>
-      </c>
-      <c r="F205" s="2" t="n">
-        <v>-251</v>
-      </c>
-      <c r="G205" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H205" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I205" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J205" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="inlineStr">
-        <is>
-          <t>27-MAY-26</t>
-        </is>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C206" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-682</t>
-        </is>
-      </c>
-      <c r="D206" s="2" t="n">
-        <v>765</v>
-      </c>
-      <c r="E206" s="2" t="n">
-        <v>716</v>
-      </c>
-      <c r="F206" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="G206" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H206" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I206" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J206" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="inlineStr">
-        <is>
-          <t>27-MAY-26</t>
-        </is>
-      </c>
-      <c r="B207" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C207" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-684</t>
-        </is>
-      </c>
-      <c r="D207" s="2" t="n">
-        <v>855</v>
-      </c>
-      <c r="E207" s="2" t="n">
-        <v>716</v>
-      </c>
-      <c r="F207" s="2" t="n">
-        <v>139</v>
-      </c>
-      <c r="G207" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H207" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I207" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J207" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="inlineStr">
-        <is>
-          <t>27-MAY-26</t>
-        </is>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C208" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-698</t>
-        </is>
-      </c>
-      <c r="D208" s="2" t="n">
-        <v>855</v>
-      </c>
-      <c r="E208" s="2" t="n">
-        <v>716</v>
-      </c>
-      <c r="F208" s="2" t="n">
-        <v>139</v>
-      </c>
-      <c r="G208" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H208" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I208" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J208" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="2" t="inlineStr">
-        <is>
-          <t>31-MAY-26</t>
-        </is>
-      </c>
-      <c r="B209" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C209" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-894</t>
-        </is>
-      </c>
-      <c r="D209" s="2" t="n">
-        <v>519</v>
-      </c>
-      <c r="E209" s="2" t="n">
-        <v>896</v>
-      </c>
-      <c r="F209" s="2" t="n">
-        <v>-377</v>
-      </c>
-      <c r="G209" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H209" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I209" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J209" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K209" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="2" t="inlineStr">
-        <is>
-          <t>31-MAY-26</t>
-        </is>
-      </c>
-      <c r="B210" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C210" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-698</t>
-        </is>
-      </c>
-      <c r="D210" s="2" t="n">
-        <v>645</v>
-      </c>
-      <c r="E210" s="2" t="n">
-        <v>896</v>
-      </c>
-      <c r="F210" s="2" t="n">
-        <v>-251</v>
-      </c>
-      <c r="G210" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H210" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I210" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J210" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="2" t="inlineStr">
-        <is>
-          <t>31-MAY-26</t>
-        </is>
-      </c>
-      <c r="B211" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C211" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-684</t>
-        </is>
-      </c>
-      <c r="D211" s="2" t="n">
-        <v>645</v>
-      </c>
-      <c r="E211" s="2" t="n">
-        <v>896</v>
-      </c>
-      <c r="F211" s="2" t="n">
-        <v>-251</v>
-      </c>
-      <c r="G211" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H211" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I211" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J211" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="2" t="inlineStr">
-        <is>
-          <t>31-MAY-26</t>
-        </is>
-      </c>
-      <c r="B212" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C212" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-688</t>
-        </is>
-      </c>
-      <c r="D212" s="2" t="n">
-        <v>705</v>
-      </c>
-      <c r="E212" s="2" t="n">
-        <v>896</v>
-      </c>
-      <c r="F212" s="2" t="n">
-        <v>-191</v>
-      </c>
-      <c r="G212" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H212" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I212" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J212" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="2" t="inlineStr">
-        <is>
-          <t>31-MAY-26</t>
-        </is>
-      </c>
-      <c r="B213" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C213" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-682</t>
-        </is>
-      </c>
-      <c r="D213" s="2" t="n">
-        <v>705</v>
-      </c>
-      <c r="E213" s="2" t="n">
-        <v>896</v>
-      </c>
-      <c r="F213" s="2" t="n">
-        <v>-191</v>
-      </c>
-      <c r="G213" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H213" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I213" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J213" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_DMM_CAI_threats.xlsx
+++ b/excel_routes/route_DMM_CAI_threats.xlsx
@@ -48,14 +48,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D4EDDA"/>
-        <bgColor rgb="00D4EDDA"/>
+        <fgColor rgb="00FFF3CD"/>
+        <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF3CD"/>
-        <bgColor rgb="00FFF3CD"/>
+        <fgColor rgb="00D4EDDA"/>
+        <bgColor rgb="00D4EDDA"/>
       </patternFill>
     </fill>
     <fill>
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K196"/>
+  <dimension ref="A1:K180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>350</v>
+        <v>418</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>447</v>
+        <v>804</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-97</v>
+        <v>-386</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -579,7 +579,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -601,17 +601,17 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>354</v>
+        <v>410</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>447</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-93</v>
+        <v>-37</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -622,7 +622,7 @@
       <c r="I3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -636,7 +636,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -646,28 +646,28 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Nesma Airlines NE-155</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>569</v>
+        <v>410</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>447</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>122</v>
+        <v>-37</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -681,7 +681,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -691,17 +691,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-63</v>
+        <v>-29</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -712,7 +712,7 @@
       <c r="I5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -726,7 +726,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>03-FEB-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -757,7 +757,7 @@
       <c r="I6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -771,7 +771,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>03-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -802,7 +802,7 @@
       <c r="I7" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -816,7 +816,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -826,17 +826,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>354</v>
+        <v>577</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>473</v>
+        <v>651</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-119</v>
+        <v>-74</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -847,7 +847,7 @@
       <c r="I8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -861,7 +861,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -871,17 +871,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>Nesma Airlines NE-155</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>410</v>
+        <v>600</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>473</v>
+        <v>651</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-63</v>
+        <v>-51</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30</v>
@@ -892,7 +892,7 @@
       <c r="I9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="inlineStr">
+      <c r="J9" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -906,7 +906,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -916,28 +916,28 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>410</v>
+        <v>629</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>447</v>
+        <v>651</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-37</v>
+        <v>-22</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J10" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -951,7 +951,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>417</v>
+        <v>723</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>447</v>
+        <v>728</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-30</v>
+        <v>-5</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30</v>
@@ -982,7 +982,7 @@
       <c r="I11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="3" t="inlineStr">
+      <c r="J11" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -996,7 +996,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1006,28 +1006,28 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>418</v>
+        <v>849</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>447</v>
+        <v>728</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-29</v>
+        <v>121</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1041,7 +1041,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1051,28 +1051,28 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>447</v>
+        <v>575</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>122</v>
+        <v>-23</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J13" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1086,7 +1086,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>03-FEB-26</t>
+          <t>10-FEB-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1100,13 +1100,13 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>599</v>
+        <v>669</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>473</v>
+        <v>575</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>40</v>
@@ -1117,7 +1117,7 @@
       <c r="I14" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J14" s="3" t="inlineStr">
+      <c r="J14" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1131,7 +1131,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>10-FEB-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1141,28 +1141,28 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>669</v>
+        <v>784</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>524</v>
+        <v>575</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J15" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1176,7 +1176,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>06-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1186,17 +1186,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>651</v>
+        <v>575</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>40</v>
@@ -1207,7 +1207,7 @@
       <c r="I16" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J16" s="3" t="inlineStr">
+      <c r="J16" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1221,7 +1221,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>06-FEB-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1231,28 +1231,28 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>856</v>
+        <v>669</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>651</v>
+        <v>524</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J17" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1266,7 +1266,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1276,28 +1276,28 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>511</v>
+        <v>669</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>524</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-13</v>
+        <v>145</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J18" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1311,7 +1311,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1321,17 +1321,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>629</v>
+        <v>669</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>524</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>40</v>
@@ -1342,7 +1342,7 @@
       <c r="I19" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J19" s="3" t="inlineStr">
+      <c r="J19" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1356,7 +1356,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1366,28 +1366,28 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>524</v>
+        <v>476</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J20" s="3" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1401,7 +1401,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1411,28 +1411,28 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Nesma Airlines NE-155</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>629</v>
+        <v>550</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>524</v>
+        <v>566</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>105</v>
+        <v>-16</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J21" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1446,7 +1446,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1456,28 +1456,28 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>664</v>
+        <v>599</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>524</v>
+        <v>566</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J22" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1491,7 +1491,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1501,30 +1501,30 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>669</v>
+        <v>477</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>524</v>
+        <v>896</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>145</v>
+        <v>-419</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J23" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J23" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>13-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1546,30 +1546,30 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>651</v>
+        <v>896</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-4</v>
+        <v>-267</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J24" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>13-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1591,30 +1591,30 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>651</v>
+        <v>896</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>18</v>
+        <v>-240</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J25" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1626,7 +1626,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>13-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1636,17 +1636,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>848</v>
+        <v>952</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>651</v>
+        <v>896</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>197</v>
+        <v>56</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>46</v>
@@ -1657,7 +1657,7 @@
       <c r="I26" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J26" s="3" t="inlineStr">
+      <c r="J26" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1671,7 +1671,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1681,17 +1681,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>563</v>
+        <v>417</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>651</v>
+        <v>476</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-88</v>
+        <v>-59</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>30</v>
@@ -1702,7 +1702,7 @@
       <c r="I27" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J27" s="3" t="inlineStr">
+      <c r="J27" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1716,7 +1716,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1726,28 +1726,28 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>577</v>
+        <v>519</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>651</v>
+        <v>476</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-74</v>
+        <v>43</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J28" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1761,7 +1761,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1771,28 +1771,28 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>651</v>
+        <v>476</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-62</v>
+        <v>123</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J29" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1806,7 +1806,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1816,30 +1816,30 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>599</v>
+        <v>656</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>651</v>
+        <v>476</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-52</v>
+        <v>180</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J30" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
@@ -1851,7 +1851,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>24-FEB-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1861,17 +1861,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>600</v>
+        <v>418</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>651</v>
+        <v>446</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-51</v>
+        <v>-28</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>30</v>
@@ -1882,7 +1882,7 @@
       <c r="I31" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J31" s="3" t="inlineStr">
+      <c r="J31" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1896,7 +1896,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>24-FEB-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1906,17 +1906,17 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>629</v>
+        <v>519</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>651</v>
+        <v>446</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-22</v>
+        <v>73</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>40</v>
@@ -1927,7 +1927,7 @@
       <c r="I32" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J32" s="3" t="inlineStr">
+      <c r="J32" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1941,7 +1941,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>24-FEB-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1951,28 +1951,28 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>626</v>
+        <v>446</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-79</v>
+        <v>123</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J33" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1986,7 +1986,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1996,30 +1996,30 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>569</v>
+        <v>629</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>626</v>
+        <v>716</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-57</v>
+        <v>-87</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J34" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
@@ -2031,7 +2031,7 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -2041,30 +2041,30 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>626</v>
+        <v>716</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>3</v>
+        <v>-60</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
@@ -2076,7 +2076,7 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -2086,30 +2086,30 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>626</v>
+        <v>716</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>30</v>
+        <v>-46</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -2131,28 +2131,28 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>550</v>
+        <v>776</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>626</v>
+        <v>716</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-76</v>
+        <v>60</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J37" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2166,7 +2166,7 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -2176,30 +2176,30 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>569</v>
+        <v>952</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>626</v>
+        <v>716</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-57</v>
+        <v>236</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J38" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
@@ -2211,7 +2211,7 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -2221,17 +2221,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>577</v>
+        <v>511</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>626</v>
+        <v>806</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-49</v>
+        <v>-295</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>30</v>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
@@ -2256,7 +2256,7 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -2266,28 +2266,28 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>669</v>
+        <v>629</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>626</v>
+        <v>806</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>43</v>
+        <v>-177</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J40" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2301,7 +2301,7 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -2311,30 +2311,30 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>784</v>
+        <v>669</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>626</v>
+        <v>806</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>158</v>
+        <v>-137</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J41" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
@@ -2346,7 +2346,7 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -2356,17 +2356,17 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>Nesma Airlines NE-155</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>487</v>
+        <v>670</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-409</v>
+        <v>-136</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>30</v>
@@ -2377,9 +2377,9 @@
       <c r="I42" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J42" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J42" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
@@ -2391,7 +2391,7 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -2401,30 +2401,30 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>569</v>
+        <v>727</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-327</v>
+        <v>-79</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J43" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J43" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
@@ -2436,7 +2436,7 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -2446,30 +2446,30 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>608</v>
+        <v>749</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-288</v>
+        <v>-57</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>7</v>
+        <v>-10</v>
       </c>
       <c r="J44" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -2491,17 +2491,17 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-112</v>
+        <v>-30</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>46</v>
@@ -2512,7 +2512,7 @@
       <c r="I45" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J45" s="4" t="inlineStr">
+      <c r="J45" s="3" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -2526,7 +2526,7 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -2536,30 +2536,30 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>417</v>
+        <v>784</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>566</v>
+        <v>806</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-149</v>
+        <v>-22</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J46" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
@@ -2571,7 +2571,7 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -2581,28 +2581,28 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>487</v>
+        <v>944</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>566</v>
+        <v>806</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-79</v>
+        <v>138</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J47" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2616,7 +2616,7 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -2626,28 +2626,28 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>529</v>
+        <v>811</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>566</v>
+        <v>896</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-37</v>
+        <v>-85</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J48" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2661,7 +2661,7 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -2675,13 +2675,13 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>529</v>
+        <v>849</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>566</v>
+        <v>896</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-37</v>
+        <v>-47</v>
       </c>
       <c r="G49" s="2" t="n">
         <v>40</v>
@@ -2692,7 +2692,7 @@
       <c r="I49" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J49" s="3" t="inlineStr">
+      <c r="J49" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2706,7 +2706,7 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -2716,30 +2716,30 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>563</v>
+        <v>1069</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>566</v>
+        <v>1136</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>-3</v>
+        <v>-67</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J50" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
@@ -2751,7 +2751,7 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>24-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -2761,28 +2761,28 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>418</v>
+        <v>1249</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>566</v>
+        <v>1136</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>-148</v>
+        <v>113</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J51" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2796,7 +2796,7 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>24-FEB-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
@@ -2806,28 +2806,28 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>529</v>
+        <v>1023</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>566</v>
+        <v>1136</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>-37</v>
+        <v>-113</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J52" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2841,7 +2841,7 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>24-FEB-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -2851,28 +2851,28 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>569</v>
+        <v>851</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>566</v>
+        <v>1016</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>3</v>
+        <v>-165</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J53" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2886,7 +2886,7 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -2896,28 +2896,28 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>550</v>
+        <v>1069</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>626</v>
+        <v>1016</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>-76</v>
+        <v>53</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J54" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2931,7 +2931,7 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -2941,30 +2941,30 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>656</v>
+        <v>1069</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>626</v>
+        <v>1016</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J55" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K55" s="2" t="inlineStr">
@@ -2976,7 +2976,7 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -2986,17 +2986,17 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>656</v>
+        <v>1203</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>626</v>
+        <v>1016</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="G56" s="2" t="n">
         <v>46</v>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="J56" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K56" s="2" t="inlineStr">
@@ -3021,7 +3021,7 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
@@ -3031,28 +3031,28 @@
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>600</v>
+        <v>1203</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>716</v>
+        <v>1016</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>-116</v>
+        <v>187</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J57" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3066,7 +3066,7 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -3076,28 +3076,28 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>608</v>
+        <v>1024</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>716</v>
+        <v>1136</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>-108</v>
+        <v>-112</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J58" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3111,7 +3111,7 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -3121,30 +3121,30 @@
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>Nesma Airlines NE-155</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>608</v>
+        <v>1429</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>716</v>
+        <v>1676</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>-108</v>
+        <v>-247</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K59" s="2" t="inlineStr">
@@ -3156,7 +3156,7 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
@@ -3166,28 +3166,28 @@
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>629</v>
+        <v>1799</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>716</v>
+        <v>1676</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>-87</v>
+        <v>123</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J60" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3201,7 +3201,7 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -3211,28 +3211,28 @@
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>669</v>
+        <v>1803</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>716</v>
+        <v>1676</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>-47</v>
+        <v>127</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J61" s="3" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J61" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3246,7 +3246,7 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -3256,28 +3256,28 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>784</v>
+        <v>1429</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>716</v>
+        <v>1436</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>68</v>
+        <v>-7</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J62" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J62" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3291,7 +3291,7 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -3301,17 +3301,17 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>436</v>
+        <v>1127</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>806</v>
+        <v>1256</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>-370</v>
+        <v>-129</v>
       </c>
       <c r="G63" s="2" t="n">
         <v>30</v>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="J63" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K63" s="2" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -3346,28 +3346,28 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>Nesma Airlines NE-155</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>608</v>
+        <v>1149</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>806</v>
+        <v>1256</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>-198</v>
+        <v>-107</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J64" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J64" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3381,7 +3381,7 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -3391,28 +3391,28 @@
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>616</v>
+        <v>1238</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>806</v>
+        <v>1256</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>-190</v>
+        <v>-18</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J65" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J65" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3426,7 +3426,7 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -3436,17 +3436,17 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>629</v>
+        <v>1244</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>806</v>
+        <v>1256</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>-177</v>
+        <v>-12</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>30</v>
@@ -3457,7 +3457,7 @@
       <c r="I66" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J66" s="3" t="inlineStr">
+      <c r="J66" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3471,7 +3471,7 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -3481,17 +3481,17 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>647</v>
+        <v>1249</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>806</v>
+        <v>1676</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>-159</v>
+        <v>-427</v>
       </c>
       <c r="G67" s="2" t="n">
         <v>30</v>
@@ -3502,9 +3502,9 @@
       <c r="I67" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J67" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J67" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K67" s="2" t="inlineStr">
@@ -3516,7 +3516,7 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -3526,30 +3526,30 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>669</v>
+        <v>1803</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>806</v>
+        <v>1676</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>-137</v>
+        <v>127</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J68" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K68" s="2" t="inlineStr">
@@ -3561,7 +3561,7 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -3575,13 +3575,13 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>670</v>
+        <v>1429</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>806</v>
+        <v>1676</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>-136</v>
+        <v>-247</v>
       </c>
       <c r="G69" s="2" t="n">
         <v>30</v>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="J69" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K69" s="2" t="inlineStr">
@@ -3606,7 +3606,7 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -3616,28 +3616,28 @@
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>709</v>
+        <v>1453</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>806</v>
+        <v>1676</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>-97</v>
+        <v>-223</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J70" s="4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -3651,7 +3651,7 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -3661,28 +3661,28 @@
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>944</v>
+        <v>1799</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>806</v>
+        <v>1676</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J71" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J71" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3696,7 +3696,7 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -3706,30 +3706,30 @@
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>749</v>
+        <v>1803</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>806</v>
+        <v>1676</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>-57</v>
+        <v>127</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J72" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K72" s="2" t="inlineStr">
@@ -3741,7 +3741,7 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -3751,28 +3751,28 @@
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>849</v>
+        <v>1803</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>806</v>
+        <v>1676</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J73" s="3" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J73" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3786,7 +3786,7 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -3796,30 +3796,30 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>949</v>
+        <v>1803</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>1016</v>
+        <v>1676</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>-67</v>
+        <v>127</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H74" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I74" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J74" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K74" s="2" t="inlineStr">
@@ -3831,7 +3831,7 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -3848,10 +3848,10 @@
         <v>1023</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>1136</v>
+        <v>1256</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>-113</v>
+        <v>-233</v>
       </c>
       <c r="G75" s="2" t="n">
         <v>30</v>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="J75" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K75" s="2" t="inlineStr">
@@ -3876,7 +3876,7 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
@@ -3886,30 +3886,30 @@
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>1069</v>
+        <v>1149</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>1136</v>
+        <v>1256</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>-67</v>
+        <v>-107</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I76" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J76" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K76" s="2" t="inlineStr">
@@ -3921,7 +3921,7 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -3931,28 +3931,28 @@
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>851</v>
+        <v>1249</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>896</v>
+        <v>1256</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>-45</v>
+        <v>-7</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J77" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -3966,7 +3966,7 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -3976,28 +3976,28 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>949</v>
+        <v>914</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>896</v>
+        <v>1016</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>53</v>
+        <v>-102</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H78" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I78" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J78" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J78" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -4011,7 +4011,7 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -4021,28 +4021,28 @@
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>1083</v>
+        <v>609</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>187</v>
+        <v>-197</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H79" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I79" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J79" s="3" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="J79" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -4056,7 +4056,7 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -4066,28 +4066,28 @@
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>1083</v>
+        <v>725</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>187</v>
+        <v>-81</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H80" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I80" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J80" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J80" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -4101,7 +4101,7 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -4111,28 +4111,28 @@
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>1024</v>
+        <v>799</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>1136</v>
+        <v>806</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>-112</v>
+        <v>-7</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H81" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I81" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J81" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -4146,7 +4146,7 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
@@ -4156,17 +4156,17 @@
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>1069</v>
+        <v>899</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>1136</v>
+        <v>806</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>-67</v>
+        <v>93</v>
       </c>
       <c r="G82" s="2" t="n">
         <v>40</v>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="J82" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K82" s="2" t="inlineStr">
@@ -4191,7 +4191,7 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
@@ -4201,30 +4201,30 @@
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>1299</v>
+        <v>477</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>1676</v>
+        <v>716</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>-377</v>
+        <v>-239</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H83" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I83" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J83" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J83" s="3" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K83" s="2" t="inlineStr">
@@ -4236,7 +4236,7 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
@@ -4246,30 +4246,30 @@
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>1429</v>
+        <v>709</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>1676</v>
+        <v>716</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>-247</v>
+        <v>-7</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H84" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I84" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J84" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K84" s="2" t="inlineStr">
@@ -4281,7 +4281,7 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -4291,30 +4291,30 @@
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>1453</v>
+        <v>709</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>1676</v>
+        <v>716</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>-223</v>
+        <v>-7</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H85" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I85" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J85" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K85" s="2" t="inlineStr">
@@ -4326,7 +4326,7 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -4336,17 +4336,17 @@
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>1477</v>
+        <v>723</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>1676</v>
+        <v>806</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>-199</v>
+        <v>-83</v>
       </c>
       <c r="G86" s="2" t="n">
         <v>30</v>
@@ -4357,7 +4357,7 @@
       <c r="I86" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J86" s="3" t="inlineStr">
+      <c r="J86" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -4371,7 +4371,7 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
@@ -4381,30 +4381,30 @@
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>1803</v>
+        <v>417</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>1676</v>
+        <v>806</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>127</v>
+        <v>-389</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H87" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I87" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J87" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K87" s="2" t="inlineStr">
@@ -4416,7 +4416,7 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -4426,17 +4426,17 @@
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>Air Arabia Egypt E5-312</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>1429</v>
+        <v>417</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>1436</v>
+        <v>806</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>-7</v>
+        <v>-389</v>
       </c>
       <c r="G88" s="2" t="n">
         <v>30</v>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="J88" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K88" s="2" t="inlineStr">
@@ -4461,7 +4461,7 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -4471,28 +4471,28 @@
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>1499</v>
+        <v>469</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>1436</v>
+        <v>806</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>63</v>
+        <v>-337</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H89" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I89" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J89" s="3" t="inlineStr">
+        <v>15</v>
+      </c>
+      <c r="J89" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -4506,7 +4506,7 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -4516,28 +4516,28 @@
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>1149</v>
+        <v>519</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>1256</v>
+        <v>806</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>-107</v>
+        <v>-287</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H90" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I90" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" s="3" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="J90" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -4551,7 +4551,7 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
@@ -4561,28 +4561,28 @@
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>1238</v>
+        <v>519</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>1256</v>
+        <v>806</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>-18</v>
+        <v>-287</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H91" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I91" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="J91" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -4596,7 +4596,7 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
@@ -4606,17 +4606,17 @@
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>1243</v>
+        <v>723</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>1256</v>
+        <v>806</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>-13</v>
+        <v>-83</v>
       </c>
       <c r="G92" s="2" t="n">
         <v>30</v>
@@ -4627,7 +4627,7 @@
       <c r="I92" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J92" s="3" t="inlineStr">
+      <c r="J92" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -4641,7 +4641,7 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>30-MAR-26</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
@@ -4651,28 +4651,28 @@
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>1249</v>
+        <v>709</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>1436</v>
+        <v>566</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>-187</v>
+        <v>143</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H93" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I93" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J93" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -4686,38 +4686,38 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>30-MAR-26</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>1499</v>
+        <v>687</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>1436</v>
+        <v>716</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>63</v>
+        <v>-29</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H94" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I94" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J94" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J94" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -4731,38 +4731,38 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>30-MAR-26</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-155</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>1429</v>
+        <v>709</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>1436</v>
+        <v>716</v>
       </c>
       <c r="F95" s="2" t="n">
         <v>-7</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H95" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I95" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J95" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -4776,7 +4776,7 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>31-MAR-26</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -4786,30 +4786,30 @@
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>1499</v>
+        <v>412</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>1436</v>
+        <v>626</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>63</v>
+        <v>-214</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H96" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I96" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K96" s="2" t="inlineStr">
@@ -4821,7 +4821,7 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>31-MAR-26</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -4831,30 +4831,30 @@
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>914</v>
+        <v>749</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>1256</v>
+        <v>626</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>-342</v>
+        <v>123</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H97" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I97" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J97" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K97" s="2" t="inlineStr">
@@ -4866,7 +4866,7 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>01-APR-26</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -4876,28 +4876,28 @@
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>1149</v>
+        <v>629</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>1256</v>
+        <v>506</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>-107</v>
+        <v>123</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H98" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I98" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J98" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -4911,38 +4911,38 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>03-APR-26</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>1299</v>
+        <v>417</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>1256</v>
+        <v>506</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>43</v>
+        <v>-89</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H99" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I99" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J99" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J99" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -4956,38 +4956,38 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>21-MAR-26</t>
+          <t>03-APR-26</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>949</v>
+        <v>477</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>896</v>
+        <v>506</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>53</v>
+        <v>-29</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H100" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I100" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J100" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J100" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -5001,38 +5001,38 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>03-APR-26</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>725</v>
+        <v>599</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>806</v>
+        <v>506</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>-81</v>
+        <v>93</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H101" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I101" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J101" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -5046,7 +5046,7 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>05-APR-26</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -5056,28 +5056,28 @@
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>799</v>
+        <v>417</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>806</v>
+        <v>446</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>-7</v>
+        <v>-29</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H102" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I102" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J102" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J102" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -5091,7 +5091,7 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>07-APR-26</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
@@ -5101,28 +5101,28 @@
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>799</v>
+        <v>412</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>806</v>
+        <v>476</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>-7</v>
+        <v>-64</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H103" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I103" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J103" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J103" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -5136,7 +5136,7 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>07-APR-26</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -5146,14 +5146,14 @@
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>899</v>
+        <v>569</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>806</v>
+        <v>476</v>
       </c>
       <c r="F104" s="2" t="n">
         <v>93</v>
@@ -5167,7 +5167,7 @@
       <c r="I104" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J104" s="3" t="inlineStr">
+      <c r="J104" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -5181,7 +5181,7 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>08-APR-26</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
@@ -5191,28 +5191,28 @@
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>647</v>
+        <v>569</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>716</v>
+        <v>446</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>-69</v>
+        <v>123</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H105" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I105" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J105" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -5226,38 +5226,38 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>10-APR-26</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>669</v>
+        <v>417</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>716</v>
+        <v>476</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>-47</v>
+        <v>-59</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H106" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I106" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J106" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J106" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -5271,12 +5271,12 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>10-APR-26</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
@@ -5285,13 +5285,13 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>709</v>
+        <v>569</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>716</v>
+        <v>476</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>-7</v>
+        <v>93</v>
       </c>
       <c r="G107" s="2" t="n">
         <v>40</v>
@@ -5302,7 +5302,7 @@
       <c r="I107" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J107" s="3" t="inlineStr">
+      <c r="J107" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -5316,7 +5316,7 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>27-MAR-26</t>
+          <t>12-APR-26</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -5326,17 +5326,17 @@
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>647</v>
+        <v>417</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>716</v>
+        <v>446</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>-69</v>
+        <v>-29</v>
       </c>
       <c r="G108" s="2" t="n">
         <v>30</v>
@@ -5347,7 +5347,7 @@
       <c r="I108" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J108" s="3" t="inlineStr">
+      <c r="J108" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -5361,12 +5361,12 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>27-MAR-26</t>
+          <t>13-APR-26</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
@@ -5375,13 +5375,13 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>709</v>
+        <v>569</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>716</v>
+        <v>446</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>-7</v>
+        <v>123</v>
       </c>
       <c r="G109" s="2" t="n">
         <v>40</v>
@@ -5392,7 +5392,7 @@
       <c r="I109" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J109" s="3" t="inlineStr">
+      <c r="J109" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -5406,38 +5406,38 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>27-MAR-26</t>
+          <t>17-APR-26</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>709</v>
+        <v>417</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>716</v>
+        <v>446</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>-7</v>
+        <v>-29</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H110" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I110" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J110" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J110" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -5451,7 +5451,7 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>20-APR-26</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -5461,30 +5461,30 @@
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>417</v>
+        <v>569</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>806</v>
+        <v>476</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>-389</v>
+        <v>93</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H111" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I111" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J111" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K111" s="2" t="inlineStr">
@@ -5496,38 +5496,38 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>20-APR-26</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>607</v>
+        <v>569</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>806</v>
+        <v>446</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>-199</v>
+        <v>123</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H112" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I112" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J112" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -5541,7 +5541,7 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>21-APR-26</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -5551,30 +5551,30 @@
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>709</v>
+        <v>412</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>806</v>
+        <v>446</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>-97</v>
+        <v>-34</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H113" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I113" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J113" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K113" s="2" t="inlineStr">
@@ -5586,40 +5586,40 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>24-APR-26</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>709</v>
+        <v>417</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>806</v>
+        <v>446</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>-97</v>
+        <v>-29</v>
       </c>
       <c r="G114" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H114" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I114" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J114" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K114" s="2" t="inlineStr">
@@ -5631,38 +5631,38 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>24-APR-26</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>723</v>
+        <v>569</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>806</v>
+        <v>446</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>-83</v>
+        <v>123</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H115" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I115" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J115" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -5676,7 +5676,7 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>30-MAR-26</t>
+          <t>26-APR-26</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
@@ -5686,28 +5686,28 @@
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>709</v>
+        <v>417</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>626</v>
+        <v>446</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>83</v>
+        <v>-29</v>
       </c>
       <c r="G116" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H116" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I116" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J116" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J116" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -5721,38 +5721,38 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>30-MAR-26</t>
+          <t>26-APR-26</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>687</v>
+        <v>569</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>716</v>
+        <v>446</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>-29</v>
+        <v>123</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H117" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I117" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J117" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -5766,7 +5766,7 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>30-MAR-26</t>
+          <t>27-APR-26</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
@@ -5780,13 +5780,13 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>709</v>
+        <v>569</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>716</v>
+        <v>446</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>-7</v>
+        <v>123</v>
       </c>
       <c r="G118" s="2" t="n">
         <v>40</v>
@@ -5797,7 +5797,7 @@
       <c r="I118" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J118" s="3" t="inlineStr">
+      <c r="J118" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -5811,7 +5811,7 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>28-APR-26</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -5821,28 +5821,28 @@
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>629</v>
+        <v>412</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>506</v>
+        <v>446</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>123</v>
+        <v>-34</v>
       </c>
       <c r="G119" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H119" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I119" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J119" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J119" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -5856,12 +5856,12 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>06-APR-26</t>
+          <t>28-APR-26</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
@@ -5887,7 +5887,7 @@
       <c r="I120" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J120" s="3" t="inlineStr">
+      <c r="J120" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -5901,7 +5901,7 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>07-APR-26</t>
+          <t>29-APR-26</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -5911,28 +5911,28 @@
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>412</v>
+        <v>569</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>-64</v>
+        <v>123</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H121" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I121" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J121" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -5946,7 +5946,7 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>07-APR-26</t>
+          <t>01-MAY-26</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
@@ -5956,28 +5956,28 @@
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>569</v>
+        <v>417</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>93</v>
+        <v>-29</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H122" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I122" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J122" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J122" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -5991,12 +5991,12 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>10-APR-26</t>
+          <t>01-MAY-26</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
@@ -6008,10 +6008,10 @@
         <v>417</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>-29</v>
+        <v>-59</v>
       </c>
       <c r="G123" s="2" t="n">
         <v>30</v>
@@ -6022,7 +6022,7 @@
       <c r="I123" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J123" s="3" t="inlineStr">
+      <c r="J123" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -6036,12 +6036,12 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>10-APR-26</t>
+          <t>03-MAY-26</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
@@ -6053,10 +6053,10 @@
         <v>417</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>-59</v>
+        <v>-29</v>
       </c>
       <c r="G124" s="2" t="n">
         <v>30</v>
@@ -6067,7 +6067,7 @@
       <c r="I124" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J124" s="3" t="inlineStr">
+      <c r="J124" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -6081,7 +6081,7 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>12-APR-26</t>
+          <t>05-MAY-26</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
@@ -6095,13 +6095,13 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E125" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>-29</v>
+        <v>-34</v>
       </c>
       <c r="G125" s="2" t="n">
         <v>30</v>
@@ -6112,7 +6112,7 @@
       <c r="I125" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J125" s="3" t="inlineStr">
+      <c r="J125" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -6126,7 +6126,7 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>17-APR-26</t>
+          <t>08-MAY-26</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
@@ -6157,7 +6157,7 @@
       <c r="I126" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J126" s="3" t="inlineStr">
+      <c r="J126" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -6171,38 +6171,38 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>17-APR-26</t>
+          <t>10-MAY-26</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>569</v>
+        <v>417</v>
       </c>
       <c r="E127" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>123</v>
+        <v>-29</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H127" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I127" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J127" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J127" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -6216,7 +6216,7 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>19-APR-26</t>
+          <t>12-MAY-26</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -6230,13 +6230,13 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E128" s="2" t="n">
         <v>446</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>-29</v>
+        <v>-34</v>
       </c>
       <c r="G128" s="2" t="n">
         <v>30</v>
@@ -6247,7 +6247,7 @@
       <c r="I128" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J128" s="3" t="inlineStr">
+      <c r="J128" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -6261,7 +6261,7 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>21-APR-26</t>
+          <t>17-MAY-26</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
@@ -6271,30 +6271,30 @@
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>412</v>
+        <v>663</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>446</v>
+        <v>1676</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>-34</v>
+        <v>-1013</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H129" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I129" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>7</v>
+      </c>
+      <c r="J129" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K129" s="2" t="inlineStr">
@@ -6306,40 +6306,40 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>24-APR-26</t>
+          <t>17-MAY-26</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>EgyptAir MS-698</t>
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>417</v>
+        <v>663</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>446</v>
+        <v>1676</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>-29</v>
+        <v>-1013</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H130" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I130" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>7</v>
+      </c>
+      <c r="J130" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K130" s="2" t="inlineStr">
@@ -6351,40 +6351,40 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>24-APR-26</t>
+          <t>17-MAY-26</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>569</v>
+        <v>723</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>446</v>
+        <v>1676</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>123</v>
+        <v>-953</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H131" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I131" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J131" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>7</v>
+      </c>
+      <c r="J131" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K131" s="2" t="inlineStr">
@@ -6396,7 +6396,7 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>26-APR-26</t>
+          <t>17-MAY-26</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
@@ -6406,17 +6406,17 @@
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>417</v>
+        <v>723</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>446</v>
+        <v>1676</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>-29</v>
+        <v>-953</v>
       </c>
       <c r="G132" s="2" t="n">
         <v>30</v>
@@ -6427,9 +6427,9 @@
       <c r="I132" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J132" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J132" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K132" s="2" t="inlineStr">
@@ -6441,40 +6441,40 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>28-APR-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>412</v>
+        <v>663</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>446</v>
+        <v>1676</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>-34</v>
+        <v>-1013</v>
       </c>
       <c r="G133" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H133" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I133" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>7</v>
+      </c>
+      <c r="J133" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K133" s="2" t="inlineStr">
@@ -6486,40 +6486,40 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>05-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>EgyptAir MS-698</t>
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>412</v>
+        <v>663</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>446</v>
+        <v>1676</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>-34</v>
+        <v>-1013</v>
       </c>
       <c r="G134" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H134" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I134" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>7</v>
+      </c>
+      <c r="J134" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K134" s="2" t="inlineStr">
@@ -6531,7 +6531,7 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>08-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
@@ -6541,17 +6541,17 @@
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>Nile Air NP-332</t>
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>417</v>
+        <v>723</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>446</v>
+        <v>1676</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>-29</v>
+        <v>-953</v>
       </c>
       <c r="G135" s="2" t="n">
         <v>30</v>
@@ -6562,9 +6562,9 @@
       <c r="I135" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J135" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J135" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K135" s="2" t="inlineStr">
@@ -6576,40 +6576,40 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>10-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>417</v>
+        <v>783</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>446</v>
+        <v>1676</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>-29</v>
+        <v>-893</v>
       </c>
       <c r="G136" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H136" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I136" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J136" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K136" s="2" t="inlineStr">
@@ -6621,40 +6621,40 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>12-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>412</v>
+        <v>873</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>446</v>
+        <v>1676</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>-34</v>
+        <v>-803</v>
       </c>
       <c r="G137" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H137" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I137" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J137" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K137" s="2" t="inlineStr">
@@ -6666,36 +6666,36 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>17-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>663</v>
+        <v>1069</v>
       </c>
       <c r="E138" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>-1013</v>
+        <v>-607</v>
       </c>
       <c r="G138" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H138" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I138" s="2" t="n">
-        <v>7</v>
+        <v>-10</v>
       </c>
       <c r="J138" s="5" t="inlineStr">
         <is>
@@ -6711,36 +6711,36 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>17-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-698</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>663</v>
+        <v>1249</v>
       </c>
       <c r="E139" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>-1013</v>
+        <v>-427</v>
       </c>
       <c r="G139" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H139" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I139" s="2" t="n">
-        <v>7</v>
+        <v>-10</v>
       </c>
       <c r="J139" s="5" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>17-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
@@ -6766,26 +6766,26 @@
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>723</v>
+        <v>811</v>
       </c>
       <c r="E140" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>-953</v>
+        <v>-865</v>
       </c>
       <c r="G140" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H140" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I140" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J140" s="5" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>17-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
@@ -6811,26 +6811,26 @@
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>723</v>
+        <v>873</v>
       </c>
       <c r="E141" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>-953</v>
+        <v>-803</v>
       </c>
       <c r="G141" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H141" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I141" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J141" s="5" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>17-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
@@ -6856,26 +6856,26 @@
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>EgyptAir MS-698</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>851</v>
+        <v>873</v>
       </c>
       <c r="E142" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>-825</v>
+        <v>-803</v>
       </c>
       <c r="G142" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H142" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I142" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J142" s="5" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>17-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
@@ -6936,7 +6936,7 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>17-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
@@ -6946,26 +6946,26 @@
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>949</v>
+        <v>1083</v>
       </c>
       <c r="E144" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>-727</v>
+        <v>-593</v>
       </c>
       <c r="G144" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H144" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I144" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J144" s="5" t="inlineStr">
         <is>
@@ -6981,36 +6981,36 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>663</v>
+        <v>1083</v>
       </c>
       <c r="E145" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>-1013</v>
+        <v>-593</v>
       </c>
       <c r="G145" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H145" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I145" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J145" s="5" t="inlineStr">
         <is>
@@ -7026,36 +7026,36 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-698</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>663</v>
+        <v>1238</v>
       </c>
       <c r="E146" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>-1013</v>
+        <v>-438</v>
       </c>
       <c r="G146" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H146" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I146" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J146" s="5" t="inlineStr">
         <is>
@@ -7071,36 +7071,36 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-332</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>723</v>
+        <v>1249</v>
       </c>
       <c r="E147" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F147" s="2" t="n">
-        <v>-953</v>
+        <v>-427</v>
       </c>
       <c r="G147" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H147" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I147" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J147" s="5" t="inlineStr">
         <is>
@@ -7116,12 +7116,12 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
@@ -7130,13 +7130,13 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>783</v>
+        <v>1323</v>
       </c>
       <c r="E148" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>-893</v>
+        <v>-353</v>
       </c>
       <c r="G148" s="2" t="n">
         <v>46</v>
@@ -7161,12 +7161,12 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
@@ -7175,13 +7175,13 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>873</v>
+        <v>1323</v>
       </c>
       <c r="E149" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>-803</v>
+        <v>-353</v>
       </c>
       <c r="G149" s="2" t="n">
         <v>46</v>
@@ -7206,36 +7206,36 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>879</v>
+        <v>1323</v>
       </c>
       <c r="E150" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>-797</v>
+        <v>-353</v>
       </c>
       <c r="G150" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H150" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I150" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J150" s="5" t="inlineStr">
         <is>
@@ -7251,36 +7251,36 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>EgyptAir MS-698</t>
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>949</v>
+        <v>1323</v>
       </c>
       <c r="E151" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>-727</v>
+        <v>-353</v>
       </c>
       <c r="G151" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H151" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I151" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J151" s="5" t="inlineStr">
         <is>
@@ -7296,27 +7296,27 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-132</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>811</v>
+        <v>1238</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>1676</v>
+        <v>2096</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>-865</v>
+        <v>-858</v>
       </c>
       <c r="G152" s="2" t="n">
         <v>30</v>
@@ -7341,12 +7341,12 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
@@ -7355,13 +7355,13 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>845</v>
+        <v>1244</v>
       </c>
       <c r="E153" s="2" t="n">
-        <v>1676</v>
+        <v>2096</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>-831</v>
+        <v>-852</v>
       </c>
       <c r="G153" s="2" t="n">
         <v>30</v>
@@ -7386,27 +7386,27 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>873</v>
+        <v>1443</v>
       </c>
       <c r="E154" s="2" t="n">
-        <v>1676</v>
+        <v>2096</v>
       </c>
       <c r="F154" s="2" t="n">
-        <v>-803</v>
+        <v>-653</v>
       </c>
       <c r="G154" s="2" t="n">
         <v>46</v>
@@ -7431,27 +7431,27 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-698</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>873</v>
+        <v>1443</v>
       </c>
       <c r="E155" s="2" t="n">
-        <v>1676</v>
+        <v>2096</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>-803</v>
+        <v>-653</v>
       </c>
       <c r="G155" s="2" t="n">
         <v>46</v>
@@ -7476,36 +7476,36 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>EgyptAir MS-698</t>
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>879</v>
+        <v>1443</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>1676</v>
+        <v>2096</v>
       </c>
       <c r="F156" s="2" t="n">
-        <v>-797</v>
+        <v>-653</v>
       </c>
       <c r="G156" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H156" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I156" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J156" s="5" t="inlineStr">
         <is>
@@ -7521,36 +7521,36 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>963</v>
+        <v>1477</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>1676</v>
+        <v>2096</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>-713</v>
+        <v>-619</v>
       </c>
       <c r="G157" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H157" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I157" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J157" s="5" t="inlineStr">
         <is>
@@ -7566,27 +7566,27 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>1083</v>
+        <v>1623</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>1676</v>
+        <v>2096</v>
       </c>
       <c r="F158" s="2" t="n">
-        <v>-593</v>
+        <v>-473</v>
       </c>
       <c r="G158" s="2" t="n">
         <v>46</v>
@@ -7611,27 +7611,27 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>1249</v>
+        <v>2099</v>
       </c>
       <c r="E159" s="2" t="n">
-        <v>1676</v>
+        <v>2096</v>
       </c>
       <c r="F159" s="2" t="n">
-        <v>-427</v>
+        <v>3</v>
       </c>
       <c r="G159" s="2" t="n">
         <v>40</v>
@@ -7642,9 +7642,9 @@
       <c r="I159" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J159" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J159" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K159" s="2" t="inlineStr">
@@ -7656,7 +7656,7 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>24-MAY-26</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
@@ -7701,7 +7701,7 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>24-MAY-26</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
@@ -7711,26 +7711,26 @@
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>1249</v>
+        <v>1443</v>
       </c>
       <c r="E161" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F161" s="2" t="n">
-        <v>-427</v>
+        <v>-233</v>
       </c>
       <c r="G161" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H161" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I161" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J161" s="5" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>24-MAY-26</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
@@ -7756,17 +7756,17 @@
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>1323</v>
+        <v>1443</v>
       </c>
       <c r="E162" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F162" s="2" t="n">
-        <v>-353</v>
+        <v>-233</v>
       </c>
       <c r="G162" s="2" t="n">
         <v>46</v>
@@ -7791,7 +7791,7 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>24-MAY-26</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
@@ -7801,17 +7801,17 @@
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>1323</v>
+        <v>1443</v>
       </c>
       <c r="E163" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F163" s="2" t="n">
-        <v>-353</v>
+        <v>-233</v>
       </c>
       <c r="G163" s="2" t="n">
         <v>46</v>
@@ -7836,7 +7836,7 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>24-MAY-26</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
@@ -7846,17 +7846,17 @@
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>EgyptAir MS-698</t>
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>1323</v>
+        <v>1443</v>
       </c>
       <c r="E164" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F164" s="2" t="n">
-        <v>-353</v>
+        <v>-233</v>
       </c>
       <c r="G164" s="2" t="n">
         <v>46</v>
@@ -7881,27 +7881,27 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>25-MAY-26</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>SM-434</t>
+          <t>SM-440</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-698</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>1323</v>
+        <v>1443</v>
       </c>
       <c r="E165" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F165" s="2" t="n">
-        <v>-353</v>
+        <v>-233</v>
       </c>
       <c r="G165" s="2" t="n">
         <v>46</v>
@@ -7926,7 +7926,7 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>22-MAY-26</t>
+          <t>25-MAY-26</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
@@ -7936,26 +7936,26 @@
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>EgyptAir MS-698</t>
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>1238</v>
+        <v>1443</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>2096</v>
+        <v>1676</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>-858</v>
+        <v>-233</v>
       </c>
       <c r="G166" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H166" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I166" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J166" s="5" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>22-MAY-26</t>
+          <t>25-MAY-26</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
@@ -7981,17 +7981,17 @@
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>Nile Air NP-332</t>
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>1243</v>
+        <v>1453</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>2096</v>
+        <v>1676</v>
       </c>
       <c r="F167" s="2" t="n">
-        <v>-853</v>
+        <v>-223</v>
       </c>
       <c r="G167" s="2" t="n">
         <v>30</v>
@@ -8002,9 +8002,9 @@
       <c r="I167" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J167" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J167" s="3" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K167" s="2" t="inlineStr">
@@ -8016,7 +8016,7 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>22-MAY-26</t>
+          <t>25-MAY-26</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
@@ -8026,30 +8026,30 @@
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>1299</v>
+        <v>1623</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>2096</v>
+        <v>1676</v>
       </c>
       <c r="F168" s="2" t="n">
-        <v>-797</v>
+        <v>-53</v>
       </c>
       <c r="G168" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H168" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I168" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J168" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J168" s="3" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K168" s="2" t="inlineStr">
@@ -8061,36 +8061,36 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>22-MAY-26</t>
+          <t>26-MAY-26</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>Air Arabia Egypt E5-316</t>
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>1443</v>
+        <v>1238</v>
       </c>
       <c r="E169" s="2" t="n">
-        <v>2096</v>
+        <v>1676</v>
       </c>
       <c r="F169" s="2" t="n">
-        <v>-653</v>
+        <v>-438</v>
       </c>
       <c r="G169" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H169" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I169" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J169" s="5" t="inlineStr">
         <is>
@@ -8106,36 +8106,36 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>22-MAY-26</t>
+          <t>26-MAY-26</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>1443</v>
+        <v>1238</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>2096</v>
+        <v>1676</v>
       </c>
       <c r="F170" s="2" t="n">
-        <v>-653</v>
+        <v>-438</v>
       </c>
       <c r="G170" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H170" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I170" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J170" s="5" t="inlineStr">
         <is>
@@ -8151,36 +8151,36 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>22-MAY-26</t>
+          <t>26-MAY-26</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-698</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>1443</v>
+        <v>1249</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>2096</v>
+        <v>1676</v>
       </c>
       <c r="F171" s="2" t="n">
-        <v>-653</v>
+        <v>-427</v>
       </c>
       <c r="G171" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H171" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I171" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J171" s="5" t="inlineStr">
         <is>
@@ -8196,27 +8196,27 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>22-MAY-26</t>
+          <t>26-MAY-26</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>1623</v>
+        <v>1443</v>
       </c>
       <c r="E172" s="2" t="n">
-        <v>2096</v>
+        <v>1676</v>
       </c>
       <c r="F172" s="2" t="n">
-        <v>-473</v>
+        <v>-233</v>
       </c>
       <c r="G172" s="2" t="n">
         <v>46</v>
@@ -8241,40 +8241,40 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>22-MAY-26</t>
+          <t>26-MAY-26</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>SM-440</t>
+          <t>SM-434</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>2099</v>
+        <v>1443</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>2096</v>
+        <v>1676</v>
       </c>
       <c r="F173" s="2" t="n">
-        <v>3</v>
+        <v>-233</v>
       </c>
       <c r="G173" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H173" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I173" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J173" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J173" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K173" s="2" t="inlineStr">
@@ -8286,7 +8286,7 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>24-MAY-26</t>
+          <t>26-MAY-26</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
@@ -8296,26 +8296,26 @@
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>EgyptAir MS-698</t>
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>1238</v>
+        <v>1443</v>
       </c>
       <c r="E174" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F174" s="2" t="n">
-        <v>-438</v>
+        <v>-233</v>
       </c>
       <c r="G174" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H174" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I174" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J174" s="5" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>24-MAY-26</t>
+          <t>26-MAY-26</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
@@ -8341,30 +8341,30 @@
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-316</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>1243</v>
+        <v>1623</v>
       </c>
       <c r="E175" s="2" t="n">
         <v>1676</v>
       </c>
       <c r="F175" s="2" t="n">
-        <v>-433</v>
+        <v>-53</v>
       </c>
       <c r="G175" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H175" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I175" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J175" s="3" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K175" s="2" t="inlineStr">
@@ -8376,7 +8376,7 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>24-MAY-26</t>
+          <t>27-MAY-26</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
@@ -8386,30 +8386,30 @@
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>1249</v>
+        <v>723</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>1676</v>
+        <v>896</v>
       </c>
       <c r="F176" s="2" t="n">
-        <v>-427</v>
+        <v>-173</v>
       </c>
       <c r="G176" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H176" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I176" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J176" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>7</v>
+      </c>
+      <c r="J176" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K176" s="2" t="inlineStr">
@@ -8421,7 +8421,7 @@
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>24-MAY-26</t>
+          <t>27-MAY-26</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
@@ -8431,17 +8431,17 @@
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>EgyptAir MS-682</t>
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>1443</v>
+        <v>873</v>
       </c>
       <c r="E177" s="2" t="n">
-        <v>1676</v>
+        <v>896</v>
       </c>
       <c r="F177" s="2" t="n">
-        <v>-233</v>
+        <v>-23</v>
       </c>
       <c r="G177" s="2" t="n">
         <v>46</v>
@@ -8452,9 +8452,9 @@
       <c r="I177" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J177" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J177" s="3" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K177" s="2" t="inlineStr">
@@ -8466,7 +8466,7 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>24-MAY-26</t>
+          <t>27-MAY-26</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
@@ -8476,17 +8476,17 @@
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-682</t>
+          <t>EgyptAir MS-698</t>
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>1443</v>
+        <v>873</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>1676</v>
+        <v>896</v>
       </c>
       <c r="F178" s="2" t="n">
-        <v>-233</v>
+        <v>-23</v>
       </c>
       <c r="G178" s="2" t="n">
         <v>46</v>
@@ -8497,9 +8497,9 @@
       <c r="I178" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J178" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J178" s="3" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K178" s="2" t="inlineStr">
@@ -8511,7 +8511,7 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>24-MAY-26</t>
+          <t>27-MAY-26</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
@@ -8525,13 +8525,13 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>1443</v>
+        <v>963</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>1676</v>
+        <v>896</v>
       </c>
       <c r="F179" s="2" t="n">
-        <v>-233</v>
+        <v>67</v>
       </c>
       <c r="G179" s="2" t="n">
         <v>46</v>
@@ -8542,9 +8542,9 @@
       <c r="I179" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J179" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J179" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K179" s="2" t="inlineStr">
@@ -8556,7 +8556,7 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>24-MAY-26</t>
+          <t>29-MAY-26</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
@@ -8566,17 +8566,17 @@
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-698</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>1443</v>
+        <v>783</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>1676</v>
+        <v>566</v>
       </c>
       <c r="F180" s="2" t="n">
-        <v>-233</v>
+        <v>217</v>
       </c>
       <c r="G180" s="2" t="n">
         <v>46</v>
@@ -8587,732 +8587,12 @@
       <c r="I180" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J180" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J180" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K180" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="inlineStr">
-        <is>
-          <t>25-MAY-26</t>
-        </is>
-      </c>
-      <c r="B181" s="2" t="inlineStr">
-        <is>
-          <t>SM-440</t>
-        </is>
-      </c>
-      <c r="C181" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-332</t>
-        </is>
-      </c>
-      <c r="D181" s="2" t="n">
-        <v>1238</v>
-      </c>
-      <c r="E181" s="2" t="n">
-        <v>1676</v>
-      </c>
-      <c r="F181" s="2" t="n">
-        <v>-438</v>
-      </c>
-      <c r="G181" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H181" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I181" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="inlineStr">
-        <is>
-          <t>25-MAY-26</t>
-        </is>
-      </c>
-      <c r="B182" s="2" t="inlineStr">
-        <is>
-          <t>SM-440</t>
-        </is>
-      </c>
-      <c r="C182" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-682</t>
-        </is>
-      </c>
-      <c r="D182" s="2" t="n">
-        <v>1443</v>
-      </c>
-      <c r="E182" s="2" t="n">
-        <v>1676</v>
-      </c>
-      <c r="F182" s="2" t="n">
-        <v>-233</v>
-      </c>
-      <c r="G182" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H182" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I182" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J182" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="inlineStr">
-        <is>
-          <t>25-MAY-26</t>
-        </is>
-      </c>
-      <c r="B183" s="2" t="inlineStr">
-        <is>
-          <t>SM-440</t>
-        </is>
-      </c>
-      <c r="C183" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-684</t>
-        </is>
-      </c>
-      <c r="D183" s="2" t="n">
-        <v>1443</v>
-      </c>
-      <c r="E183" s="2" t="n">
-        <v>1676</v>
-      </c>
-      <c r="F183" s="2" t="n">
-        <v>-233</v>
-      </c>
-      <c r="G183" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H183" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I183" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J183" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="inlineStr">
-        <is>
-          <t>25-MAY-26</t>
-        </is>
-      </c>
-      <c r="B184" s="2" t="inlineStr">
-        <is>
-          <t>SM-440</t>
-        </is>
-      </c>
-      <c r="C184" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-698</t>
-        </is>
-      </c>
-      <c r="D184" s="2" t="n">
-        <v>1443</v>
-      </c>
-      <c r="E184" s="2" t="n">
-        <v>1676</v>
-      </c>
-      <c r="F184" s="2" t="n">
-        <v>-233</v>
-      </c>
-      <c r="G184" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H184" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I184" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J184" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B185" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C185" s="2" t="inlineStr">
-        <is>
-          <t>flyadeal F3-911</t>
-        </is>
-      </c>
-      <c r="D185" s="2" t="n">
-        <v>1099</v>
-      </c>
-      <c r="E185" s="2" t="n">
-        <v>1676</v>
-      </c>
-      <c r="F185" s="2" t="n">
-        <v>-577</v>
-      </c>
-      <c r="G185" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H185" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I185" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J185" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B186" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C186" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-316</t>
-        </is>
-      </c>
-      <c r="D186" s="2" t="n">
-        <v>1237</v>
-      </c>
-      <c r="E186" s="2" t="n">
-        <v>1676</v>
-      </c>
-      <c r="F186" s="2" t="n">
-        <v>-439</v>
-      </c>
-      <c r="G186" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H186" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I186" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B187" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C187" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-132</t>
-        </is>
-      </c>
-      <c r="D187" s="2" t="n">
-        <v>1238</v>
-      </c>
-      <c r="E187" s="2" t="n">
-        <v>1676</v>
-      </c>
-      <c r="F187" s="2" t="n">
-        <v>-438</v>
-      </c>
-      <c r="G187" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H187" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I187" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K187" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B188" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C188" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-688</t>
-        </is>
-      </c>
-      <c r="D188" s="2" t="n">
-        <v>1443</v>
-      </c>
-      <c r="E188" s="2" t="n">
-        <v>1676</v>
-      </c>
-      <c r="F188" s="2" t="n">
-        <v>-233</v>
-      </c>
-      <c r="G188" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H188" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I188" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J188" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K188" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B189" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C189" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-682</t>
-        </is>
-      </c>
-      <c r="D189" s="2" t="n">
-        <v>1443</v>
-      </c>
-      <c r="E189" s="2" t="n">
-        <v>1676</v>
-      </c>
-      <c r="F189" s="2" t="n">
-        <v>-233</v>
-      </c>
-      <c r="G189" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H189" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I189" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J189" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K189" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B190" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C190" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-684</t>
-        </is>
-      </c>
-      <c r="D190" s="2" t="n">
-        <v>1443</v>
-      </c>
-      <c r="E190" s="2" t="n">
-        <v>1676</v>
-      </c>
-      <c r="F190" s="2" t="n">
-        <v>-233</v>
-      </c>
-      <c r="G190" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H190" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I190" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J190" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K190" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B191" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C191" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-698</t>
-        </is>
-      </c>
-      <c r="D191" s="2" t="n">
-        <v>1443</v>
-      </c>
-      <c r="E191" s="2" t="n">
-        <v>1676</v>
-      </c>
-      <c r="F191" s="2" t="n">
-        <v>-233</v>
-      </c>
-      <c r="G191" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H191" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I191" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J191" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K191" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="2" t="inlineStr">
-        <is>
-          <t>27-MAY-26</t>
-        </is>
-      </c>
-      <c r="B192" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C192" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-688</t>
-        </is>
-      </c>
-      <c r="D192" s="2" t="n">
-        <v>723</v>
-      </c>
-      <c r="E192" s="2" t="n">
-        <v>896</v>
-      </c>
-      <c r="F192" s="2" t="n">
-        <v>-173</v>
-      </c>
-      <c r="G192" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H192" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I192" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J192" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K192" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="2" t="inlineStr">
-        <is>
-          <t>27-MAY-26</t>
-        </is>
-      </c>
-      <c r="B193" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C193" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-682</t>
-        </is>
-      </c>
-      <c r="D193" s="2" t="n">
-        <v>783</v>
-      </c>
-      <c r="E193" s="2" t="n">
-        <v>896</v>
-      </c>
-      <c r="F193" s="2" t="n">
-        <v>-113</v>
-      </c>
-      <c r="G193" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H193" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I193" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J193" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K193" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="2" t="inlineStr">
-        <is>
-          <t>27-MAY-26</t>
-        </is>
-      </c>
-      <c r="B194" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C194" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-698</t>
-        </is>
-      </c>
-      <c r="D194" s="2" t="n">
-        <v>873</v>
-      </c>
-      <c r="E194" s="2" t="n">
-        <v>896</v>
-      </c>
-      <c r="F194" s="2" t="n">
-        <v>-23</v>
-      </c>
-      <c r="G194" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H194" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I194" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J194" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K194" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="2" t="inlineStr">
-        <is>
-          <t>27-MAY-26</t>
-        </is>
-      </c>
-      <c r="B195" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C195" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-684</t>
-        </is>
-      </c>
-      <c r="D195" s="2" t="n">
-        <v>963</v>
-      </c>
-      <c r="E195" s="2" t="n">
-        <v>896</v>
-      </c>
-      <c r="F195" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="G195" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H195" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I195" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J195" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K195" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="2" t="inlineStr">
-        <is>
-          <t>29-MAY-26</t>
-        </is>
-      </c>
-      <c r="B196" s="2" t="inlineStr">
-        <is>
-          <t>SM-434</t>
-        </is>
-      </c>
-      <c r="C196" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-688</t>
-        </is>
-      </c>
-      <c r="D196" s="2" t="n">
-        <v>783</v>
-      </c>
-      <c r="E196" s="2" t="n">
-        <v>566</v>
-      </c>
-      <c r="F196" s="2" t="n">
-        <v>217</v>
-      </c>
-      <c r="G196" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H196" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I196" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J196" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K196" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_DMM_CAI_threats.xlsx
+++ b/excel_routes/route_DMM_CAI_threats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_030226_at_07.14\reports\excel_routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_300126_at_05.16\reports\excel_routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01FD02D-65A4-4196-9174-12C2EAB68304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E0283D-6F96-4CB2-8118-9CACD5BAA9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="98">
   <si>
     <t>Date</t>
   </si>
@@ -60,78 +60,96 @@
     <t>Currency</t>
   </si>
   <si>
+    <t>30-JAN-26</t>
+  </si>
+  <si>
+    <t>SM-434</t>
+  </si>
+  <si>
+    <t>Nile Air NP-232</t>
+  </si>
+  <si>
+    <t>MEDIUM THREAT - MONITOR</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>31-JAN-26</t>
+  </si>
+  <si>
+    <t>Air Arabia Egypt E5-316</t>
+  </si>
+  <si>
+    <t>LOW THREAT</t>
+  </si>
+  <si>
+    <t>Nesma Airlines NE-155</t>
+  </si>
+  <si>
+    <t>Nile Air NP-132</t>
+  </si>
+  <si>
+    <t>03-FEB-26</t>
+  </si>
+  <si>
+    <t>flynas XY-854</t>
+  </si>
+  <si>
     <t>05-FEB-26</t>
   </si>
   <si>
-    <t>SM-434</t>
-  </si>
-  <si>
-    <t>Nesma Airlines NE-155</t>
-  </si>
-  <si>
-    <t>LOW THREAT</t>
-  </si>
-  <si>
-    <t>SAR</t>
-  </si>
-  <si>
-    <t>Nile Air NP-132</t>
+    <t>flyadeal F3-911</t>
+  </si>
+  <si>
+    <t>06-FEB-26</t>
+  </si>
+  <si>
+    <t>flynas XY-894</t>
+  </si>
+  <si>
+    <t>07-FEB-26</t>
+  </si>
+  <si>
+    <t>10-FEB-26</t>
   </si>
   <si>
     <t>EgyptAir MS-684</t>
   </si>
   <si>
-    <t>06-FEB-26</t>
-  </si>
-  <si>
-    <t>Nile Air NP-232</t>
-  </si>
-  <si>
-    <t>MEDIUM THREAT - MONITOR</t>
-  </si>
-  <si>
-    <t>07-FEB-26</t>
-  </si>
-  <si>
-    <t>Nesma Airlines NE-153</t>
-  </si>
-  <si>
-    <t>Air Arabia Egypt E5-316</t>
-  </si>
-  <si>
-    <t>10-FEB-26</t>
-  </si>
-  <si>
     <t>12-FEB-26</t>
   </si>
   <si>
-    <t>flynas XY-854</t>
-  </si>
-  <si>
-    <t>flyadeal F3-911</t>
+    <t>13-FEB-26</t>
+  </si>
+  <si>
+    <t>14-FEB-26</t>
+  </si>
+  <si>
+    <t>17-FEB-26</t>
   </si>
   <si>
     <t>EgyptAir MS-682</t>
   </si>
   <si>
-    <t>13-FEB-26</t>
+    <t>19-FEB-26</t>
+  </si>
+  <si>
+    <t>20-FEB-26</t>
+  </si>
+  <si>
+    <t>HIGH THREAT ALERT - NEED ACTION</t>
   </si>
   <si>
     <t>EgyptAir MS-688</t>
   </si>
   <si>
-    <t>14-FEB-26</t>
-  </si>
-  <si>
     <t>21-FEB-26</t>
   </si>
   <si>
     <t>24-FEB-26</t>
   </si>
   <si>
-    <t>26-FEB-26</t>
-  </si>
-  <si>
     <t>27-FEB-26</t>
   </si>
   <si>
@@ -141,10 +159,166 @@
     <t>28-FEB-26</t>
   </si>
   <si>
-    <t>flynas XY-894</t>
-  </si>
-  <si>
     <t>03-MAR-26</t>
+  </si>
+  <si>
+    <t>05-MAR-26</t>
+  </si>
+  <si>
+    <t>06-MAR-26</t>
+  </si>
+  <si>
+    <t>07-MAR-26</t>
+  </si>
+  <si>
+    <t>10-MAR-26</t>
+  </si>
+  <si>
+    <t>12-MAR-26</t>
+  </si>
+  <si>
+    <t>13-MAR-26</t>
+  </si>
+  <si>
+    <t>14-MAR-26</t>
+  </si>
+  <si>
+    <t>17-MAR-26</t>
+  </si>
+  <si>
+    <t>19-MAR-26</t>
+  </si>
+  <si>
+    <t>20-MAR-26</t>
+  </si>
+  <si>
+    <t>21-MAR-26</t>
+  </si>
+  <si>
+    <t>24-MAR-26</t>
+  </si>
+  <si>
+    <t>26-MAR-26</t>
+  </si>
+  <si>
+    <t>27-MAR-26</t>
+  </si>
+  <si>
+    <t>28-MAR-26</t>
+  </si>
+  <si>
+    <t>Air Arabia Egypt E5-312</t>
+  </si>
+  <si>
+    <t>30-MAR-26</t>
+  </si>
+  <si>
+    <t>SM-440</t>
+  </si>
+  <si>
+    <t>31-MAR-26</t>
+  </si>
+  <si>
+    <t>01-APR-26</t>
+  </si>
+  <si>
+    <t>03-APR-26</t>
+  </si>
+  <si>
+    <t>05-APR-26</t>
+  </si>
+  <si>
+    <t>07-APR-26</t>
+  </si>
+  <si>
+    <t>08-APR-26</t>
+  </si>
+  <si>
+    <t>10-APR-26</t>
+  </si>
+  <si>
+    <t>12-APR-26</t>
+  </si>
+  <si>
+    <t>13-APR-26</t>
+  </si>
+  <si>
+    <t>17-APR-26</t>
+  </si>
+  <si>
+    <t>20-APR-26</t>
+  </si>
+  <si>
+    <t>21-APR-26</t>
+  </si>
+  <si>
+    <t>24-APR-26</t>
+  </si>
+  <si>
+    <t>26-APR-26</t>
+  </si>
+  <si>
+    <t>27-APR-26</t>
+  </si>
+  <si>
+    <t>28-APR-26</t>
+  </si>
+  <si>
+    <t>29-APR-26</t>
+  </si>
+  <si>
+    <t>01-MAY-26</t>
+  </si>
+  <si>
+    <t>03-MAY-26</t>
+  </si>
+  <si>
+    <t>05-MAY-26</t>
+  </si>
+  <si>
+    <t>08-MAY-26</t>
+  </si>
+  <si>
+    <t>10-MAY-26</t>
+  </si>
+  <si>
+    <t>12-MAY-26</t>
+  </si>
+  <si>
+    <t>17-MAY-26</t>
+  </si>
+  <si>
+    <t>EgyptAir MS-698</t>
+  </si>
+  <si>
+    <t>18-MAY-26</t>
+  </si>
+  <si>
+    <t>Nile Air NP-332</t>
+  </si>
+  <si>
+    <t>19-MAY-26</t>
+  </si>
+  <si>
+    <t>20-MAY-26</t>
+  </si>
+  <si>
+    <t>22-MAY-26</t>
+  </si>
+  <si>
+    <t>24-MAY-26</t>
+  </si>
+  <si>
+    <t>25-MAY-26</t>
+  </si>
+  <si>
+    <t>26-MAY-26</t>
+  </si>
+  <si>
+    <t>27-MAY-26</t>
+  </si>
+  <si>
+    <t>29-MAY-26</t>
   </si>
 </sst>
 </file>
@@ -171,7 +345,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,14 +360,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFF3CD"/>
+        <bgColor rgb="FFFFF3CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD4EDDA"/>
         <bgColor rgb="FFD4EDDA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF3CD"/>
-        <bgColor rgb="FFFFF3CD"/>
+        <fgColor rgb="FFF8D7DA"/>
+        <bgColor rgb="FFF8D7DA"/>
       </patternFill>
     </fill>
   </fills>
@@ -224,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -236,6 +416,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -541,7 +724,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,7 +738,7 @@
     <col min="7" max="7" width="153.44140625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="10" max="10" width="30" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -605,13 +788,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>670</v>
+        <v>418</v>
       </c>
       <c r="E2" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F2" s="2">
-        <v>-136</v>
+        <v>-386</v>
       </c>
       <c r="G2" s="2">
         <v>30</v>
@@ -631,22 +814,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2">
-        <v>679</v>
+        <v>410</v>
       </c>
       <c r="E3" s="2">
-        <v>806</v>
+        <v>447</v>
       </c>
       <c r="F3" s="2">
-        <v>-127</v>
+        <v>-37</v>
       </c>
       <c r="G3" s="2">
         <v>30</v>
@@ -657,8 +840,8 @@
       <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>14</v>
+      <c r="J3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
@@ -666,34 +849,34 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
-        <v>1040</v>
+        <v>410</v>
       </c>
       <c r="E4" s="2">
-        <v>806</v>
+        <v>447</v>
       </c>
       <c r="F4" s="2">
-        <v>234</v>
+        <v>-37</v>
       </c>
       <c r="G4" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2">
         <v>30</v>
       </c>
       <c r="I4" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>15</v>
@@ -701,22 +884,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
-        <v>723</v>
+        <v>418</v>
       </c>
       <c r="E5" s="2">
-        <v>1016</v>
+        <v>447</v>
       </c>
       <c r="F5" s="2">
-        <v>-293</v>
+        <v>-29</v>
       </c>
       <c r="G5" s="2">
         <v>30</v>
@@ -728,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>15</v>
@@ -742,16 +925,16 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
-        <v>600</v>
+        <v>418</v>
       </c>
       <c r="E6" s="2">
-        <v>716</v>
+        <v>473</v>
       </c>
       <c r="F6" s="2">
-        <v>-116</v>
+        <v>-55</v>
       </c>
       <c r="G6" s="2">
         <v>30</v>
@@ -762,8 +945,8 @@
       <c r="I6" s="2">
         <v>0</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>14</v>
+      <c r="J6" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>15</v>
@@ -777,28 +960,28 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
-        <v>650</v>
+        <v>599</v>
       </c>
       <c r="E7" s="2">
-        <v>716</v>
+        <v>473</v>
       </c>
       <c r="F7" s="2">
-        <v>-66</v>
+        <v>126</v>
       </c>
       <c r="G7" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2">
         <v>30</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>15</v>
@@ -806,22 +989,22 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2">
-        <v>670</v>
+        <v>577</v>
       </c>
       <c r="E8" s="2">
-        <v>716</v>
+        <v>651</v>
       </c>
       <c r="F8" s="2">
-        <v>-46</v>
+        <v>-74</v>
       </c>
       <c r="G8" s="2">
         <v>30</v>
@@ -832,8 +1015,8 @@
       <c r="I8" s="2">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>14</v>
+      <c r="J8" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>15</v>
@@ -841,22 +1024,22 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
-        <v>679</v>
+        <v>600</v>
       </c>
       <c r="E9" s="2">
-        <v>716</v>
+        <v>651</v>
       </c>
       <c r="F9" s="2">
-        <v>-37</v>
+        <v>-51</v>
       </c>
       <c r="G9" s="2">
         <v>30</v>
@@ -867,8 +1050,8 @@
       <c r="I9" s="2">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>14</v>
+      <c r="J9" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>15</v>
@@ -876,34 +1059,34 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2">
-        <v>856</v>
+        <v>629</v>
       </c>
       <c r="E10" s="2">
-        <v>626</v>
+        <v>651</v>
       </c>
       <c r="F10" s="2">
-        <v>230</v>
+        <v>-22</v>
       </c>
       <c r="G10" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H10" s="2">
         <v>30</v>
       </c>
       <c r="I10" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>15</v>
@@ -917,28 +1100,28 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2">
-        <v>559</v>
+        <v>723</v>
       </c>
       <c r="E11" s="2">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="F11" s="2">
-        <v>-157</v>
+        <v>-5</v>
       </c>
       <c r="G11" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2">
         <v>30</v>
       </c>
       <c r="I11" s="2">
-        <v>10</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>15</v>
@@ -952,28 +1135,28 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2">
-        <v>644</v>
+        <v>849</v>
       </c>
       <c r="E12" s="2">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="F12" s="2">
-        <v>-72</v>
+        <v>121</v>
       </c>
       <c r="G12" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H12" s="2">
         <v>30</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>15</v>
@@ -981,22 +1164,22 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2">
-        <v>670</v>
+        <v>552</v>
       </c>
       <c r="E13" s="2">
-        <v>716</v>
+        <v>575</v>
       </c>
       <c r="F13" s="2">
-        <v>-46</v>
+        <v>-23</v>
       </c>
       <c r="G13" s="2">
         <v>30</v>
@@ -1007,8 +1190,8 @@
       <c r="I13" s="2">
         <v>0</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>14</v>
+      <c r="J13" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>15</v>
@@ -1016,34 +1199,34 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="E14" s="2">
-        <v>716</v>
+        <v>575</v>
       </c>
       <c r="F14" s="2">
-        <v>-37</v>
+        <v>94</v>
       </c>
       <c r="G14" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H14" s="2">
         <v>30</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>15</v>
@@ -1051,22 +1234,22 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="E15" s="2">
-        <v>716</v>
+        <v>575</v>
       </c>
       <c r="F15" s="2">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="G15" s="2">
         <v>46</v>
@@ -1077,8 +1260,8 @@
       <c r="I15" s="2">
         <v>-16</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>14</v>
+      <c r="J15" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>15</v>
@@ -1086,34 +1269,34 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2">
-        <v>549</v>
+        <v>669</v>
       </c>
       <c r="E16" s="2">
-        <v>806</v>
+        <v>575</v>
       </c>
       <c r="F16" s="2">
-        <v>-257</v>
+        <v>94</v>
       </c>
       <c r="G16" s="2">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H16" s="2">
         <v>30</v>
       </c>
       <c r="I16" s="2">
-        <v>15</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>15</v>
@@ -1121,34 +1304,34 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="E17" s="2">
-        <v>806</v>
+        <v>524</v>
       </c>
       <c r="F17" s="2">
-        <v>-127</v>
+        <v>145</v>
       </c>
       <c r="G17" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H17" s="2">
         <v>30</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>15</v>
@@ -1156,34 +1339,34 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2">
-        <v>1040</v>
+        <v>669</v>
       </c>
       <c r="E18" s="2">
-        <v>806</v>
+        <v>524</v>
       </c>
       <c r="F18" s="2">
-        <v>234</v>
+        <v>145</v>
       </c>
       <c r="G18" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H18" s="2">
         <v>30</v>
       </c>
       <c r="I18" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>15</v>
@@ -1191,34 +1374,34 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2">
-        <v>552</v>
+        <v>669</v>
       </c>
       <c r="E19" s="2">
-        <v>626</v>
+        <v>524</v>
       </c>
       <c r="F19" s="2">
-        <v>-74</v>
+        <v>145</v>
       </c>
       <c r="G19" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H19" s="2">
         <v>30</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>15</v>
@@ -1226,34 +1409,34 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2">
-        <v>563</v>
+        <v>656</v>
       </c>
       <c r="E20" s="2">
-        <v>626</v>
+        <v>476</v>
       </c>
       <c r="F20" s="2">
-        <v>-63</v>
+        <v>180</v>
       </c>
       <c r="G20" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H20" s="2">
         <v>30</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>14</v>
+        <v>-16</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>15</v>
@@ -1261,22 +1444,22 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="E21" s="2">
-        <v>626</v>
+        <v>566</v>
       </c>
       <c r="F21" s="2">
-        <v>-26</v>
+        <v>-16</v>
       </c>
       <c r="G21" s="2">
         <v>30</v>
@@ -1287,8 +1470,8 @@
       <c r="I21" s="2">
         <v>0</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>14</v>
+      <c r="J21" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>15</v>
@@ -1296,34 +1479,34 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2">
-        <v>417</v>
+        <v>599</v>
       </c>
       <c r="E22" s="2">
-        <v>476</v>
+        <v>566</v>
       </c>
       <c r="F22" s="2">
-        <v>-59</v>
+        <v>33</v>
       </c>
       <c r="G22" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H22" s="2">
         <v>30</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>15</v>
@@ -1331,34 +1514,34 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2">
-        <v>656</v>
+        <v>477</v>
       </c>
       <c r="E23" s="2">
-        <v>476</v>
+        <v>896</v>
       </c>
       <c r="F23" s="2">
-        <v>180</v>
+        <v>-419</v>
       </c>
       <c r="G23" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H23" s="2">
         <v>30</v>
       </c>
       <c r="I23" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>15</v>
@@ -1366,34 +1549,34 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D24" s="2">
-        <v>418</v>
+        <v>629</v>
       </c>
       <c r="E24" s="2">
-        <v>446</v>
+        <v>896</v>
       </c>
       <c r="F24" s="2">
-        <v>-28</v>
+        <v>-267</v>
       </c>
       <c r="G24" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24" s="2">
         <v>30</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>15</v>
@@ -1401,34 +1584,34 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D25" s="2">
-        <v>550</v>
+        <v>656</v>
       </c>
       <c r="E25" s="2">
-        <v>566</v>
+        <v>896</v>
       </c>
       <c r="F25" s="2">
+        <v>-240</v>
+      </c>
+      <c r="G25" s="2">
+        <v>46</v>
+      </c>
+      <c r="H25" s="2">
+        <v>30</v>
+      </c>
+      <c r="I25" s="2">
         <v>-16</v>
       </c>
-      <c r="G25" s="2">
-        <v>30</v>
-      </c>
-      <c r="H25" s="2">
-        <v>30</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>14</v>
+      <c r="J25" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>15</v>
@@ -1436,34 +1619,34 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D26" s="2">
-        <v>563</v>
+        <v>952</v>
       </c>
       <c r="E26" s="2">
-        <v>566</v>
+        <v>896</v>
       </c>
       <c r="F26" s="2">
-        <v>-3</v>
+        <v>56</v>
       </c>
       <c r="G26" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H26" s="2">
         <v>30</v>
       </c>
       <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>14</v>
+        <v>-16</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>15</v>
@@ -1471,7 +1654,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>12</v>
@@ -1480,25 +1663,25 @@
         <v>17</v>
       </c>
       <c r="D27" s="2">
-        <v>656</v>
+        <v>417</v>
       </c>
       <c r="E27" s="2">
-        <v>566</v>
+        <v>476</v>
       </c>
       <c r="F27" s="2">
-        <v>90</v>
+        <v>-59</v>
       </c>
       <c r="G27" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H27" s="2">
         <v>30</v>
       </c>
       <c r="I27" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>15</v>
@@ -1506,34 +1689,34 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D28" s="2">
-        <v>600</v>
+        <v>519</v>
       </c>
       <c r="E28" s="2">
-        <v>716</v>
+        <v>476</v>
       </c>
       <c r="F28" s="2">
-        <v>-116</v>
+        <v>43</v>
       </c>
       <c r="G28" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H28" s="2">
         <v>30</v>
       </c>
       <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>15</v>
@@ -1541,34 +1724,34 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D29" s="2">
-        <v>629</v>
+        <v>599</v>
       </c>
       <c r="E29" s="2">
-        <v>716</v>
+        <v>476</v>
       </c>
       <c r="F29" s="2">
-        <v>-87</v>
+        <v>123</v>
       </c>
       <c r="G29" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H29" s="2">
         <v>30</v>
       </c>
       <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>15</v>
@@ -1576,22 +1759,22 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2">
-        <v>848</v>
+        <v>656</v>
       </c>
       <c r="E30" s="2">
-        <v>716</v>
+        <v>476</v>
       </c>
       <c r="F30" s="2">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="G30" s="2">
         <v>46</v>
@@ -1602,8 +1785,8 @@
       <c r="I30" s="2">
         <v>-16</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>14</v>
+      <c r="J30" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>15</v>
@@ -1611,34 +1794,34 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D31" s="2">
-        <v>944</v>
+        <v>418</v>
       </c>
       <c r="E31" s="2">
-        <v>716</v>
+        <v>446</v>
       </c>
       <c r="F31" s="2">
-        <v>228</v>
+        <v>-28</v>
       </c>
       <c r="G31" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H31" s="2">
         <v>30</v>
       </c>
       <c r="I31" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>15</v>
@@ -1646,34 +1829,34 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D32" s="2">
-        <v>952</v>
+        <v>519</v>
       </c>
       <c r="E32" s="2">
-        <v>716</v>
+        <v>446</v>
       </c>
       <c r="F32" s="2">
-        <v>236</v>
+        <v>73</v>
       </c>
       <c r="G32" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H32" s="2">
         <v>30</v>
       </c>
       <c r="I32" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>15</v>
@@ -1681,7 +1864,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>12</v>
@@ -1690,25 +1873,25 @@
         <v>26</v>
       </c>
       <c r="D33" s="2">
-        <v>519</v>
+        <v>569</v>
       </c>
       <c r="E33" s="2">
-        <v>806</v>
+        <v>446</v>
       </c>
       <c r="F33" s="2">
-        <v>-287</v>
+        <v>123</v>
       </c>
       <c r="G33" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H33" s="2">
         <v>30</v>
       </c>
       <c r="I33" s="2">
-        <v>10</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>15</v>
@@ -1716,22 +1899,22 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="E34" s="2">
-        <v>806</v>
+        <v>716</v>
       </c>
       <c r="F34" s="2">
-        <v>-217</v>
+        <v>-87</v>
       </c>
       <c r="G34" s="2">
         <v>30</v>
@@ -1743,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>15</v>
@@ -1751,31 +1934,31 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2">
-        <v>609</v>
+        <v>656</v>
       </c>
       <c r="E35" s="2">
-        <v>806</v>
+        <v>716</v>
       </c>
       <c r="F35" s="2">
-        <v>-197</v>
+        <v>-60</v>
       </c>
       <c r="G35" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H35" s="2">
         <v>30</v>
       </c>
       <c r="I35" s="2">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>14</v>
@@ -1786,22 +1969,22 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D36" s="2">
-        <v>629</v>
+        <v>670</v>
       </c>
       <c r="E36" s="2">
-        <v>806</v>
+        <v>716</v>
       </c>
       <c r="F36" s="2">
-        <v>-177</v>
+        <v>-46</v>
       </c>
       <c r="G36" s="2">
         <v>30</v>
@@ -1812,8 +1995,8 @@
       <c r="I36" s="2">
         <v>0</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>14</v>
+      <c r="J36" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>15</v>
@@ -1821,34 +2004,34 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D37" s="2">
-        <v>670</v>
+        <v>776</v>
       </c>
       <c r="E37" s="2">
-        <v>806</v>
+        <v>716</v>
       </c>
       <c r="F37" s="2">
-        <v>-136</v>
+        <v>60</v>
       </c>
       <c r="G37" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H37" s="2">
         <v>30</v>
       </c>
       <c r="I37" s="2">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>14</v>
+        <v>-16</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>15</v>
@@ -1856,34 +2039,34 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="E38" s="2">
-        <v>806</v>
+        <v>716</v>
       </c>
       <c r="F38" s="2">
-        <v>-82</v>
+        <v>236</v>
       </c>
       <c r="G38" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H38" s="2">
         <v>30</v>
       </c>
       <c r="I38" s="2">
-        <v>0</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>14</v>
+        <v>-16</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>15</v>
@@ -1891,7 +2074,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>12</v>
@@ -1900,22 +2083,22 @@
         <v>17</v>
       </c>
       <c r="D39" s="2">
-        <v>848</v>
+        <v>511</v>
       </c>
       <c r="E39" s="2">
         <v>806</v>
       </c>
       <c r="F39" s="2">
-        <v>42</v>
+        <v>-295</v>
       </c>
       <c r="G39" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H39" s="2">
         <v>30</v>
       </c>
       <c r="I39" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>14</v>
@@ -1926,34 +2109,34 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D40" s="2">
-        <v>952</v>
+        <v>629</v>
       </c>
       <c r="E40" s="2">
         <v>806</v>
       </c>
       <c r="F40" s="2">
-        <v>146</v>
+        <v>-177</v>
       </c>
       <c r="G40" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H40" s="2">
         <v>30</v>
       </c>
       <c r="I40" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>15</v>
@@ -1961,31 +2144,31 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D41" s="2">
-        <v>1040</v>
+        <v>669</v>
       </c>
       <c r="E41" s="2">
         <v>806</v>
       </c>
       <c r="F41" s="2">
-        <v>234</v>
+        <v>-137</v>
       </c>
       <c r="G41" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H41" s="2">
         <v>30</v>
       </c>
       <c r="I41" s="2">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>14</v>
@@ -1996,22 +2179,22 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D42" s="2">
-        <v>811</v>
+        <v>670</v>
       </c>
       <c r="E42" s="2">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="F42" s="2">
-        <v>-85</v>
+        <v>-136</v>
       </c>
       <c r="G42" s="2">
         <v>30</v>
@@ -2022,8 +2205,8 @@
       <c r="I42" s="2">
         <v>0</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>14</v>
+      <c r="J42" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>15</v>
@@ -2031,36 +2214,4831 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D43" s="2">
-        <v>813</v>
+        <v>727</v>
       </c>
       <c r="E43" s="2">
+        <v>806</v>
+      </c>
+      <c r="F43" s="2">
+        <v>-79</v>
+      </c>
+      <c r="G43" s="2">
+        <v>30</v>
+      </c>
+      <c r="H43" s="2">
+        <v>30</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="2">
+        <v>749</v>
+      </c>
+      <c r="E44" s="2">
+        <v>806</v>
+      </c>
+      <c r="F44" s="2">
+        <v>-57</v>
+      </c>
+      <c r="G44" s="2">
+        <v>40</v>
+      </c>
+      <c r="H44" s="2">
+        <v>30</v>
+      </c>
+      <c r="I44" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="2">
+        <v>776</v>
+      </c>
+      <c r="E45" s="2">
+        <v>806</v>
+      </c>
+      <c r="F45" s="2">
+        <v>-30</v>
+      </c>
+      <c r="G45" s="2">
+        <v>46</v>
+      </c>
+      <c r="H45" s="2">
+        <v>30</v>
+      </c>
+      <c r="I45" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="2">
+        <v>784</v>
+      </c>
+      <c r="E46" s="2">
+        <v>806</v>
+      </c>
+      <c r="F46" s="2">
+        <v>-22</v>
+      </c>
+      <c r="G46" s="2">
+        <v>46</v>
+      </c>
+      <c r="H46" s="2">
+        <v>30</v>
+      </c>
+      <c r="I46" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="2">
+        <v>944</v>
+      </c>
+      <c r="E47" s="2">
+        <v>806</v>
+      </c>
+      <c r="F47" s="2">
+        <v>138</v>
+      </c>
+      <c r="G47" s="2">
+        <v>46</v>
+      </c>
+      <c r="H47" s="2">
+        <v>30</v>
+      </c>
+      <c r="I47" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="2">
+        <v>811</v>
+      </c>
+      <c r="E48" s="2">
         <v>896</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F48" s="2">
+        <v>-85</v>
+      </c>
+      <c r="G48" s="2">
+        <v>30</v>
+      </c>
+      <c r="H48" s="2">
+        <v>30</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="2">
+        <v>849</v>
+      </c>
+      <c r="E49" s="2">
+        <v>896</v>
+      </c>
+      <c r="F49" s="2">
+        <v>-47</v>
+      </c>
+      <c r="G49" s="2">
+        <v>40</v>
+      </c>
+      <c r="H49" s="2">
+        <v>30</v>
+      </c>
+      <c r="I49" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1069</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1136</v>
+      </c>
+      <c r="F50" s="2">
+        <v>-67</v>
+      </c>
+      <c r="G50" s="2">
+        <v>40</v>
+      </c>
+      <c r="H50" s="2">
+        <v>30</v>
+      </c>
+      <c r="I50" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1249</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1136</v>
+      </c>
+      <c r="F51" s="2">
+        <v>113</v>
+      </c>
+      <c r="G51" s="2">
+        <v>40</v>
+      </c>
+      <c r="H51" s="2">
+        <v>30</v>
+      </c>
+      <c r="I51" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1023</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1136</v>
+      </c>
+      <c r="F52" s="2">
+        <v>-113</v>
+      </c>
+      <c r="G52" s="2">
+        <v>30</v>
+      </c>
+      <c r="H52" s="2">
+        <v>30</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="2">
+        <v>851</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1016</v>
+      </c>
+      <c r="F53" s="2">
+        <v>-165</v>
+      </c>
+      <c r="G53" s="2">
+        <v>30</v>
+      </c>
+      <c r="H53" s="2">
+        <v>30</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1069</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1016</v>
+      </c>
+      <c r="F54" s="2">
+        <v>53</v>
+      </c>
+      <c r="G54" s="2">
+        <v>40</v>
+      </c>
+      <c r="H54" s="2">
+        <v>30</v>
+      </c>
+      <c r="I54" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1069</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1016</v>
+      </c>
+      <c r="F55" s="2">
+        <v>53</v>
+      </c>
+      <c r="G55" s="2">
+        <v>40</v>
+      </c>
+      <c r="H55" s="2">
+        <v>30</v>
+      </c>
+      <c r="I55" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1203</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1016</v>
+      </c>
+      <c r="F56" s="2">
+        <v>187</v>
+      </c>
+      <c r="G56" s="2">
+        <v>46</v>
+      </c>
+      <c r="H56" s="2">
+        <v>30</v>
+      </c>
+      <c r="I56" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1203</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1016</v>
+      </c>
+      <c r="F57" s="2">
+        <v>187</v>
+      </c>
+      <c r="G57" s="2">
+        <v>46</v>
+      </c>
+      <c r="H57" s="2">
+        <v>30</v>
+      </c>
+      <c r="I57" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1024</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1136</v>
+      </c>
+      <c r="F58" s="2">
+        <v>-112</v>
+      </c>
+      <c r="G58" s="2">
+        <v>30</v>
+      </c>
+      <c r="H58" s="2">
+        <v>30</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1429</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F59" s="2">
+        <v>-247</v>
+      </c>
+      <c r="G59" s="2">
+        <v>30</v>
+      </c>
+      <c r="H59" s="2">
+        <v>30</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1799</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F60" s="2">
+        <v>123</v>
+      </c>
+      <c r="G60" s="2">
+        <v>40</v>
+      </c>
+      <c r="H60" s="2">
+        <v>30</v>
+      </c>
+      <c r="I60" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1803</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F61" s="2">
+        <v>127</v>
+      </c>
+      <c r="G61" s="2">
+        <v>46</v>
+      </c>
+      <c r="H61" s="2">
+        <v>30</v>
+      </c>
+      <c r="I61" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1429</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1436</v>
+      </c>
+      <c r="F62" s="2">
+        <v>-7</v>
+      </c>
+      <c r="G62" s="2">
+        <v>30</v>
+      </c>
+      <c r="H62" s="2">
+        <v>30</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1127</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1256</v>
+      </c>
+      <c r="F63" s="2">
+        <v>-129</v>
+      </c>
+      <c r="G63" s="2">
+        <v>30</v>
+      </c>
+      <c r="H63" s="2">
+        <v>30</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1149</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1256</v>
+      </c>
+      <c r="F64" s="2">
+        <v>-107</v>
+      </c>
+      <c r="G64" s="2">
+        <v>30</v>
+      </c>
+      <c r="H64" s="2">
+        <v>30</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1238</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1256</v>
+      </c>
+      <c r="F65" s="2">
+        <v>-18</v>
+      </c>
+      <c r="G65" s="2">
+        <v>30</v>
+      </c>
+      <c r="H65" s="2">
+        <v>30</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1244</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1256</v>
+      </c>
+      <c r="F66" s="2">
+        <v>-12</v>
+      </c>
+      <c r="G66" s="2">
+        <v>30</v>
+      </c>
+      <c r="H66" s="2">
+        <v>30</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1249</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F67" s="2">
+        <v>-427</v>
+      </c>
+      <c r="G67" s="2">
+        <v>30</v>
+      </c>
+      <c r="H67" s="2">
+        <v>30</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1803</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F68" s="2">
+        <v>127</v>
+      </c>
+      <c r="G68" s="2">
+        <v>46</v>
+      </c>
+      <c r="H68" s="2">
+        <v>30</v>
+      </c>
+      <c r="I68" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1429</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F69" s="2">
+        <v>-247</v>
+      </c>
+      <c r="G69" s="2">
+        <v>30</v>
+      </c>
+      <c r="H69" s="2">
+        <v>30</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1453</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F70" s="2">
+        <v>-223</v>
+      </c>
+      <c r="G70" s="2">
+        <v>30</v>
+      </c>
+      <c r="H70" s="2">
+        <v>30</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1799</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F71" s="2">
+        <v>123</v>
+      </c>
+      <c r="G71" s="2">
+        <v>40</v>
+      </c>
+      <c r="H71" s="2">
+        <v>30</v>
+      </c>
+      <c r="I71" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1803</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F72" s="2">
+        <v>127</v>
+      </c>
+      <c r="G72" s="2">
+        <v>46</v>
+      </c>
+      <c r="H72" s="2">
+        <v>30</v>
+      </c>
+      <c r="I72" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1803</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F73" s="2">
+        <v>127</v>
+      </c>
+      <c r="G73" s="2">
+        <v>46</v>
+      </c>
+      <c r="H73" s="2">
+        <v>30</v>
+      </c>
+      <c r="I73" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1803</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F74" s="2">
+        <v>127</v>
+      </c>
+      <c r="G74" s="2">
+        <v>46</v>
+      </c>
+      <c r="H74" s="2">
+        <v>30</v>
+      </c>
+      <c r="I74" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1023</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1256</v>
+      </c>
+      <c r="F75" s="2">
+        <v>-233</v>
+      </c>
+      <c r="G75" s="2">
+        <v>30</v>
+      </c>
+      <c r="H75" s="2">
+        <v>30</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1149</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1256</v>
+      </c>
+      <c r="F76" s="2">
+        <v>-107</v>
+      </c>
+      <c r="G76" s="2">
+        <v>30</v>
+      </c>
+      <c r="H76" s="2">
+        <v>30</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1249</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1256</v>
+      </c>
+      <c r="F77" s="2">
+        <v>-7</v>
+      </c>
+      <c r="G77" s="2">
+        <v>40</v>
+      </c>
+      <c r="H77" s="2">
+        <v>30</v>
+      </c>
+      <c r="I77" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="2">
+        <v>914</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1016</v>
+      </c>
+      <c r="F78" s="2">
+        <v>-102</v>
+      </c>
+      <c r="G78" s="2">
+        <v>30</v>
+      </c>
+      <c r="H78" s="2">
+        <v>30</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="2">
+        <v>609</v>
+      </c>
+      <c r="E79" s="2">
+        <v>806</v>
+      </c>
+      <c r="F79" s="2">
+        <v>-197</v>
+      </c>
+      <c r="G79" s="2">
+        <v>20</v>
+      </c>
+      <c r="H79" s="2">
+        <v>30</v>
+      </c>
+      <c r="I79" s="2">
+        <v>10</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80" s="2">
+        <v>725</v>
+      </c>
+      <c r="E80" s="2">
+        <v>806</v>
+      </c>
+      <c r="F80" s="2">
+        <v>-81</v>
+      </c>
+      <c r="G80" s="2">
+        <v>30</v>
+      </c>
+      <c r="H80" s="2">
+        <v>30</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" s="2">
+        <v>799</v>
+      </c>
+      <c r="E81" s="2">
+        <v>806</v>
+      </c>
+      <c r="F81" s="2">
+        <v>-7</v>
+      </c>
+      <c r="G81" s="2">
+        <v>40</v>
+      </c>
+      <c r="H81" s="2">
+        <v>30</v>
+      </c>
+      <c r="I81" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="2">
+        <v>899</v>
+      </c>
+      <c r="E82" s="2">
+        <v>806</v>
+      </c>
+      <c r="F82" s="2">
+        <v>93</v>
+      </c>
+      <c r="G82" s="2">
+        <v>40</v>
+      </c>
+      <c r="H82" s="2">
+        <v>30</v>
+      </c>
+      <c r="I82" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" s="2">
+        <v>477</v>
+      </c>
+      <c r="E83" s="2">
+        <v>716</v>
+      </c>
+      <c r="F83" s="2">
+        <v>-239</v>
+      </c>
+      <c r="G83" s="2">
+        <v>30</v>
+      </c>
+      <c r="H83" s="2">
+        <v>30</v>
+      </c>
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" s="2">
+        <v>709</v>
+      </c>
+      <c r="E84" s="2">
+        <v>716</v>
+      </c>
+      <c r="F84" s="2">
+        <v>-7</v>
+      </c>
+      <c r="G84" s="2">
+        <v>40</v>
+      </c>
+      <c r="H84" s="2">
+        <v>30</v>
+      </c>
+      <c r="I84" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="2">
+        <v>709</v>
+      </c>
+      <c r="E85" s="2">
+        <v>716</v>
+      </c>
+      <c r="F85" s="2">
+        <v>-7</v>
+      </c>
+      <c r="G85" s="2">
+        <v>40</v>
+      </c>
+      <c r="H85" s="2">
+        <v>30</v>
+      </c>
+      <c r="I85" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="2">
+        <v>723</v>
+      </c>
+      <c r="E86" s="2">
+        <v>806</v>
+      </c>
+      <c r="F86" s="2">
         <v>-83</v>
       </c>
-      <c r="G43" s="2">
-        <v>30</v>
-      </c>
-      <c r="H43" s="2">
-        <v>30</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3" t="s">
+      <c r="G86" s="2">
+        <v>30</v>
+      </c>
+      <c r="H86" s="2">
+        <v>30</v>
+      </c>
+      <c r="I86" s="2">
+        <v>0</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="2">
+        <v>417</v>
+      </c>
+      <c r="E87" s="2">
+        <v>806</v>
+      </c>
+      <c r="F87" s="2">
+        <v>-389</v>
+      </c>
+      <c r="G87" s="2">
+        <v>30</v>
+      </c>
+      <c r="H87" s="2">
+        <v>30</v>
+      </c>
+      <c r="I87" s="2">
+        <v>0</v>
+      </c>
+      <c r="J87" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K87" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88" s="2">
+        <v>417</v>
+      </c>
+      <c r="E88" s="2">
+        <v>806</v>
+      </c>
+      <c r="F88" s="2">
+        <v>-389</v>
+      </c>
+      <c r="G88" s="2">
+        <v>30</v>
+      </c>
+      <c r="H88" s="2">
+        <v>30</v>
+      </c>
+      <c r="I88" s="2">
+        <v>0</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" s="2">
+        <v>469</v>
+      </c>
+      <c r="E89" s="2">
+        <v>806</v>
+      </c>
+      <c r="F89" s="2">
+        <v>-337</v>
+      </c>
+      <c r="G89" s="2">
+        <v>15</v>
+      </c>
+      <c r="H89" s="2">
+        <v>30</v>
+      </c>
+      <c r="I89" s="2">
+        <v>15</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" s="2">
+        <v>519</v>
+      </c>
+      <c r="E90" s="2">
+        <v>806</v>
+      </c>
+      <c r="F90" s="2">
+        <v>-287</v>
+      </c>
+      <c r="G90" s="2">
+        <v>20</v>
+      </c>
+      <c r="H90" s="2">
+        <v>30</v>
+      </c>
+      <c r="I90" s="2">
+        <v>10</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="2">
+        <v>519</v>
+      </c>
+      <c r="E91" s="2">
+        <v>806</v>
+      </c>
+      <c r="F91" s="2">
+        <v>-287</v>
+      </c>
+      <c r="G91" s="2">
+        <v>20</v>
+      </c>
+      <c r="H91" s="2">
+        <v>30</v>
+      </c>
+      <c r="I91" s="2">
+        <v>10</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="2">
+        <v>723</v>
+      </c>
+      <c r="E92" s="2">
+        <v>806</v>
+      </c>
+      <c r="F92" s="2">
+        <v>-83</v>
+      </c>
+      <c r="G92" s="2">
+        <v>30</v>
+      </c>
+      <c r="H92" s="2">
+        <v>30</v>
+      </c>
+      <c r="I92" s="2">
+        <v>0</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="2">
+        <v>709</v>
+      </c>
+      <c r="E93" s="2">
+        <v>566</v>
+      </c>
+      <c r="F93" s="2">
+        <v>143</v>
+      </c>
+      <c r="G93" s="2">
+        <v>40</v>
+      </c>
+      <c r="H93" s="2">
+        <v>30</v>
+      </c>
+      <c r="I93" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" s="2">
+        <v>687</v>
+      </c>
+      <c r="E94" s="2">
+        <v>716</v>
+      </c>
+      <c r="F94" s="2">
+        <v>-29</v>
+      </c>
+      <c r="G94" s="2">
+        <v>30</v>
+      </c>
+      <c r="H94" s="2">
+        <v>30</v>
+      </c>
+      <c r="I94" s="2">
+        <v>0</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95" s="2">
+        <v>709</v>
+      </c>
+      <c r="E95" s="2">
+        <v>716</v>
+      </c>
+      <c r="F95" s="2">
+        <v>-7</v>
+      </c>
+      <c r="G95" s="2">
+        <v>40</v>
+      </c>
+      <c r="H95" s="2">
+        <v>30</v>
+      </c>
+      <c r="I95" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="2">
+        <v>412</v>
+      </c>
+      <c r="E96" s="2">
+        <v>626</v>
+      </c>
+      <c r="F96" s="2">
+        <v>-214</v>
+      </c>
+      <c r="G96" s="2">
+        <v>30</v>
+      </c>
+      <c r="H96" s="2">
+        <v>30</v>
+      </c>
+      <c r="I96" s="2">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" s="2">
+        <v>749</v>
+      </c>
+      <c r="E97" s="2">
+        <v>626</v>
+      </c>
+      <c r="F97" s="2">
+        <v>123</v>
+      </c>
+      <c r="G97" s="2">
+        <v>40</v>
+      </c>
+      <c r="H97" s="2">
+        <v>30</v>
+      </c>
+      <c r="I97" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="2">
+        <v>629</v>
+      </c>
+      <c r="E98" s="2">
+        <v>506</v>
+      </c>
+      <c r="F98" s="2">
+        <v>123</v>
+      </c>
+      <c r="G98" s="2">
+        <v>40</v>
+      </c>
+      <c r="H98" s="2">
+        <v>30</v>
+      </c>
+      <c r="I98" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="2">
+        <v>417</v>
+      </c>
+      <c r="E99" s="2">
+        <v>506</v>
+      </c>
+      <c r="F99" s="2">
+        <v>-89</v>
+      </c>
+      <c r="G99" s="2">
+        <v>30</v>
+      </c>
+      <c r="H99" s="2">
+        <v>30</v>
+      </c>
+      <c r="I99" s="2">
+        <v>0</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" s="2">
+        <v>477</v>
+      </c>
+      <c r="E100" s="2">
+        <v>506</v>
+      </c>
+      <c r="F100" s="2">
+        <v>-29</v>
+      </c>
+      <c r="G100" s="2">
+        <v>30</v>
+      </c>
+      <c r="H100" s="2">
+        <v>30</v>
+      </c>
+      <c r="I100" s="2">
+        <v>0</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" s="2">
+        <v>599</v>
+      </c>
+      <c r="E101" s="2">
+        <v>506</v>
+      </c>
+      <c r="F101" s="2">
+        <v>93</v>
+      </c>
+      <c r="G101" s="2">
+        <v>40</v>
+      </c>
+      <c r="H101" s="2">
+        <v>30</v>
+      </c>
+      <c r="I101" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="2">
+        <v>417</v>
+      </c>
+      <c r="E102" s="2">
+        <v>446</v>
+      </c>
+      <c r="F102" s="2">
+        <v>-29</v>
+      </c>
+      <c r="G102" s="2">
+        <v>30</v>
+      </c>
+      <c r="H102" s="2">
+        <v>30</v>
+      </c>
+      <c r="I102" s="2">
+        <v>0</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" s="2">
+        <v>412</v>
+      </c>
+      <c r="E103" s="2">
+        <v>476</v>
+      </c>
+      <c r="F103" s="2">
+        <v>-64</v>
+      </c>
+      <c r="G103" s="2">
+        <v>30</v>
+      </c>
+      <c r="H103" s="2">
+        <v>30</v>
+      </c>
+      <c r="I103" s="2">
+        <v>0</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" s="2">
+        <v>569</v>
+      </c>
+      <c r="E104" s="2">
+        <v>476</v>
+      </c>
+      <c r="F104" s="2">
+        <v>93</v>
+      </c>
+      <c r="G104" s="2">
+        <v>40</v>
+      </c>
+      <c r="H104" s="2">
+        <v>30</v>
+      </c>
+      <c r="I104" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" s="2">
+        <v>569</v>
+      </c>
+      <c r="E105" s="2">
+        <v>446</v>
+      </c>
+      <c r="F105" s="2">
+        <v>123</v>
+      </c>
+      <c r="G105" s="2">
+        <v>40</v>
+      </c>
+      <c r="H105" s="2">
+        <v>30</v>
+      </c>
+      <c r="I105" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" s="2">
+        <v>417</v>
+      </c>
+      <c r="E106" s="2">
+        <v>476</v>
+      </c>
+      <c r="F106" s="2">
+        <v>-59</v>
+      </c>
+      <c r="G106" s="2">
+        <v>30</v>
+      </c>
+      <c r="H106" s="2">
+        <v>30</v>
+      </c>
+      <c r="I106" s="2">
+        <v>0</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" s="2">
+        <v>569</v>
+      </c>
+      <c r="E107" s="2">
+        <v>476</v>
+      </c>
+      <c r="F107" s="2">
+        <v>93</v>
+      </c>
+      <c r="G107" s="2">
+        <v>40</v>
+      </c>
+      <c r="H107" s="2">
+        <v>30</v>
+      </c>
+      <c r="I107" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="2">
+        <v>417</v>
+      </c>
+      <c r="E108" s="2">
+        <v>446</v>
+      </c>
+      <c r="F108" s="2">
+        <v>-29</v>
+      </c>
+      <c r="G108" s="2">
+        <v>30</v>
+      </c>
+      <c r="H108" s="2">
+        <v>30</v>
+      </c>
+      <c r="I108" s="2">
+        <v>0</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109" s="2">
+        <v>569</v>
+      </c>
+      <c r="E109" s="2">
+        <v>446</v>
+      </c>
+      <c r="F109" s="2">
+        <v>123</v>
+      </c>
+      <c r="G109" s="2">
+        <v>40</v>
+      </c>
+      <c r="H109" s="2">
+        <v>30</v>
+      </c>
+      <c r="I109" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="2">
+        <v>417</v>
+      </c>
+      <c r="E110" s="2">
+        <v>446</v>
+      </c>
+      <c r="F110" s="2">
+        <v>-29</v>
+      </c>
+      <c r="G110" s="2">
+        <v>30</v>
+      </c>
+      <c r="H110" s="2">
+        <v>30</v>
+      </c>
+      <c r="I110" s="2">
+        <v>0</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" s="2">
+        <v>569</v>
+      </c>
+      <c r="E111" s="2">
+        <v>476</v>
+      </c>
+      <c r="F111" s="2">
+        <v>93</v>
+      </c>
+      <c r="G111" s="2">
+        <v>40</v>
+      </c>
+      <c r="H111" s="2">
+        <v>30</v>
+      </c>
+      <c r="I111" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" s="2">
+        <v>569</v>
+      </c>
+      <c r="E112" s="2">
+        <v>446</v>
+      </c>
+      <c r="F112" s="2">
+        <v>123</v>
+      </c>
+      <c r="G112" s="2">
+        <v>40</v>
+      </c>
+      <c r="H112" s="2">
+        <v>30</v>
+      </c>
+      <c r="I112" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="2">
+        <v>412</v>
+      </c>
+      <c r="E113" s="2">
+        <v>446</v>
+      </c>
+      <c r="F113" s="2">
+        <v>-34</v>
+      </c>
+      <c r="G113" s="2">
+        <v>30</v>
+      </c>
+      <c r="H113" s="2">
+        <v>30</v>
+      </c>
+      <c r="I113" s="2">
+        <v>0</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="2">
+        <v>417</v>
+      </c>
+      <c r="E114" s="2">
+        <v>446</v>
+      </c>
+      <c r="F114" s="2">
+        <v>-29</v>
+      </c>
+      <c r="G114" s="2">
+        <v>30</v>
+      </c>
+      <c r="H114" s="2">
+        <v>30</v>
+      </c>
+      <c r="I114" s="2">
+        <v>0</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" s="2">
+        <v>569</v>
+      </c>
+      <c r="E115" s="2">
+        <v>446</v>
+      </c>
+      <c r="F115" s="2">
+        <v>123</v>
+      </c>
+      <c r="G115" s="2">
+        <v>40</v>
+      </c>
+      <c r="H115" s="2">
+        <v>30</v>
+      </c>
+      <c r="I115" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" s="2">
+        <v>417</v>
+      </c>
+      <c r="E116" s="2">
+        <v>446</v>
+      </c>
+      <c r="F116" s="2">
+        <v>-29</v>
+      </c>
+      <c r="G116" s="2">
+        <v>30</v>
+      </c>
+      <c r="H116" s="2">
+        <v>30</v>
+      </c>
+      <c r="I116" s="2">
+        <v>0</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" s="2">
+        <v>569</v>
+      </c>
+      <c r="E117" s="2">
+        <v>446</v>
+      </c>
+      <c r="F117" s="2">
+        <v>123</v>
+      </c>
+      <c r="G117" s="2">
+        <v>40</v>
+      </c>
+      <c r="H117" s="2">
+        <v>30</v>
+      </c>
+      <c r="I117" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D118" s="2">
+        <v>569</v>
+      </c>
+      <c r="E118" s="2">
+        <v>446</v>
+      </c>
+      <c r="F118" s="2">
+        <v>123</v>
+      </c>
+      <c r="G118" s="2">
+        <v>40</v>
+      </c>
+      <c r="H118" s="2">
+        <v>30</v>
+      </c>
+      <c r="I118" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" s="2">
+        <v>412</v>
+      </c>
+      <c r="E119" s="2">
+        <v>446</v>
+      </c>
+      <c r="F119" s="2">
+        <v>-34</v>
+      </c>
+      <c r="G119" s="2">
+        <v>30</v>
+      </c>
+      <c r="H119" s="2">
+        <v>30</v>
+      </c>
+      <c r="I119" s="2">
+        <v>0</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" s="2">
+        <v>569</v>
+      </c>
+      <c r="E120" s="2">
+        <v>446</v>
+      </c>
+      <c r="F120" s="2">
+        <v>123</v>
+      </c>
+      <c r="G120" s="2">
+        <v>40</v>
+      </c>
+      <c r="H120" s="2">
+        <v>30</v>
+      </c>
+      <c r="I120" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121" s="2">
+        <v>569</v>
+      </c>
+      <c r="E121" s="2">
+        <v>446</v>
+      </c>
+      <c r="F121" s="2">
+        <v>123</v>
+      </c>
+      <c r="G121" s="2">
+        <v>40</v>
+      </c>
+      <c r="H121" s="2">
+        <v>30</v>
+      </c>
+      <c r="I121" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="2">
+        <v>417</v>
+      </c>
+      <c r="E122" s="2">
+        <v>446</v>
+      </c>
+      <c r="F122" s="2">
+        <v>-29</v>
+      </c>
+      <c r="G122" s="2">
+        <v>30</v>
+      </c>
+      <c r="H122" s="2">
+        <v>30</v>
+      </c>
+      <c r="I122" s="2">
+        <v>0</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="2">
+        <v>417</v>
+      </c>
+      <c r="E123" s="2">
+        <v>476</v>
+      </c>
+      <c r="F123" s="2">
+        <v>-59</v>
+      </c>
+      <c r="G123" s="2">
+        <v>30</v>
+      </c>
+      <c r="H123" s="2">
+        <v>30</v>
+      </c>
+      <c r="I123" s="2">
+        <v>0</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" s="2">
+        <v>417</v>
+      </c>
+      <c r="E124" s="2">
+        <v>446</v>
+      </c>
+      <c r="F124" s="2">
+        <v>-29</v>
+      </c>
+      <c r="G124" s="2">
+        <v>30</v>
+      </c>
+      <c r="H124" s="2">
+        <v>30</v>
+      </c>
+      <c r="I124" s="2">
+        <v>0</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125" s="2">
+        <v>412</v>
+      </c>
+      <c r="E125" s="2">
+        <v>446</v>
+      </c>
+      <c r="F125" s="2">
+        <v>-34</v>
+      </c>
+      <c r="G125" s="2">
+        <v>30</v>
+      </c>
+      <c r="H125" s="2">
+        <v>30</v>
+      </c>
+      <c r="I125" s="2">
+        <v>0</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="2">
+        <v>417</v>
+      </c>
+      <c r="E126" s="2">
+        <v>446</v>
+      </c>
+      <c r="F126" s="2">
+        <v>-29</v>
+      </c>
+      <c r="G126" s="2">
+        <v>30</v>
+      </c>
+      <c r="H126" s="2">
+        <v>30</v>
+      </c>
+      <c r="I126" s="2">
+        <v>0</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" s="2">
+        <v>417</v>
+      </c>
+      <c r="E127" s="2">
+        <v>446</v>
+      </c>
+      <c r="F127" s="2">
+        <v>-29</v>
+      </c>
+      <c r="G127" s="2">
+        <v>30</v>
+      </c>
+      <c r="H127" s="2">
+        <v>30</v>
+      </c>
+      <c r="I127" s="2">
+        <v>0</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" s="2">
+        <v>412</v>
+      </c>
+      <c r="E128" s="2">
+        <v>446</v>
+      </c>
+      <c r="F128" s="2">
+        <v>-34</v>
+      </c>
+      <c r="G128" s="2">
+        <v>30</v>
+      </c>
+      <c r="H128" s="2">
+        <v>30</v>
+      </c>
+      <c r="I128" s="2">
+        <v>0</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D129" s="2">
+        <v>663</v>
+      </c>
+      <c r="E129" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F129" s="2">
+        <v>-1013</v>
+      </c>
+      <c r="G129" s="2">
+        <v>23</v>
+      </c>
+      <c r="H129" s="2">
+        <v>30</v>
+      </c>
+      <c r="I129" s="2">
+        <v>7</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D130" s="2">
+        <v>663</v>
+      </c>
+      <c r="E130" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F130" s="2">
+        <v>-1013</v>
+      </c>
+      <c r="G130" s="2">
+        <v>23</v>
+      </c>
+      <c r="H130" s="2">
+        <v>30</v>
+      </c>
+      <c r="I130" s="2">
+        <v>7</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D131" s="2">
+        <v>723</v>
+      </c>
+      <c r="E131" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F131" s="2">
+        <v>-953</v>
+      </c>
+      <c r="G131" s="2">
+        <v>23</v>
+      </c>
+      <c r="H131" s="2">
+        <v>30</v>
+      </c>
+      <c r="I131" s="2">
+        <v>7</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="2">
+        <v>723</v>
+      </c>
+      <c r="E132" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F132" s="2">
+        <v>-953</v>
+      </c>
+      <c r="G132" s="2">
+        <v>30</v>
+      </c>
+      <c r="H132" s="2">
+        <v>30</v>
+      </c>
+      <c r="I132" s="2">
+        <v>0</v>
+      </c>
+      <c r="J132" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D133" s="2">
+        <v>663</v>
+      </c>
+      <c r="E133" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F133" s="2">
+        <v>-1013</v>
+      </c>
+      <c r="G133" s="2">
+        <v>23</v>
+      </c>
+      <c r="H133" s="2">
+        <v>30</v>
+      </c>
+      <c r="I133" s="2">
+        <v>7</v>
+      </c>
+      <c r="J133" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D134" s="2">
+        <v>663</v>
+      </c>
+      <c r="E134" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F134" s="2">
+        <v>-1013</v>
+      </c>
+      <c r="G134" s="2">
+        <v>23</v>
+      </c>
+      <c r="H134" s="2">
+        <v>30</v>
+      </c>
+      <c r="I134" s="2">
+        <v>7</v>
+      </c>
+      <c r="J134" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D135" s="2">
+        <v>723</v>
+      </c>
+      <c r="E135" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F135" s="2">
+        <v>-953</v>
+      </c>
+      <c r="G135" s="2">
+        <v>30</v>
+      </c>
+      <c r="H135" s="2">
+        <v>30</v>
+      </c>
+      <c r="I135" s="2">
+        <v>0</v>
+      </c>
+      <c r="J135" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D136" s="2">
+        <v>783</v>
+      </c>
+      <c r="E136" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F136" s="2">
+        <v>-893</v>
+      </c>
+      <c r="G136" s="2">
+        <v>46</v>
+      </c>
+      <c r="H136" s="2">
+        <v>30</v>
+      </c>
+      <c r="I136" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J136" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D137" s="2">
+        <v>873</v>
+      </c>
+      <c r="E137" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F137" s="2">
+        <v>-803</v>
+      </c>
+      <c r="G137" s="2">
+        <v>46</v>
+      </c>
+      <c r="H137" s="2">
+        <v>30</v>
+      </c>
+      <c r="I137" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J137" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138" s="2">
+        <v>1069</v>
+      </c>
+      <c r="E138" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F138" s="2">
+        <v>-607</v>
+      </c>
+      <c r="G138" s="2">
+        <v>40</v>
+      </c>
+      <c r="H138" s="2">
+        <v>30</v>
+      </c>
+      <c r="I138" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J138" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D139" s="2">
+        <v>1249</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F139" s="2">
+        <v>-427</v>
+      </c>
+      <c r="G139" s="2">
+        <v>40</v>
+      </c>
+      <c r="H139" s="2">
+        <v>30</v>
+      </c>
+      <c r="I139" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J139" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="2">
+        <v>811</v>
+      </c>
+      <c r="E140" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F140" s="2">
+        <v>-865</v>
+      </c>
+      <c r="G140" s="2">
+        <v>30</v>
+      </c>
+      <c r="H140" s="2">
+        <v>30</v>
+      </c>
+      <c r="I140" s="2">
+        <v>0</v>
+      </c>
+      <c r="J140" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D141" s="2">
+        <v>873</v>
+      </c>
+      <c r="E141" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F141" s="2">
+        <v>-803</v>
+      </c>
+      <c r="G141" s="2">
+        <v>46</v>
+      </c>
+      <c r="H141" s="2">
+        <v>30</v>
+      </c>
+      <c r="I141" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J141" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D142" s="2">
+        <v>873</v>
+      </c>
+      <c r="E142" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F142" s="2">
+        <v>-803</v>
+      </c>
+      <c r="G142" s="2">
+        <v>46</v>
+      </c>
+      <c r="H142" s="2">
+        <v>30</v>
+      </c>
+      <c r="I142" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J142" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D143" s="2">
+        <v>879</v>
+      </c>
+      <c r="E143" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F143" s="2">
+        <v>-797</v>
+      </c>
+      <c r="G143" s="2">
+        <v>20</v>
+      </c>
+      <c r="H143" s="2">
+        <v>30</v>
+      </c>
+      <c r="I143" s="2">
+        <v>10</v>
+      </c>
+      <c r="J143" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D144" s="2">
+        <v>1083</v>
+      </c>
+      <c r="E144" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F144" s="2">
+        <v>-593</v>
+      </c>
+      <c r="G144" s="2">
+        <v>46</v>
+      </c>
+      <c r="H144" s="2">
+        <v>30</v>
+      </c>
+      <c r="I144" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J144" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D145" s="2">
+        <v>1083</v>
+      </c>
+      <c r="E145" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F145" s="2">
+        <v>-593</v>
+      </c>
+      <c r="G145" s="2">
+        <v>46</v>
+      </c>
+      <c r="H145" s="2">
+        <v>30</v>
+      </c>
+      <c r="I145" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J145" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" s="2">
+        <v>1238</v>
+      </c>
+      <c r="E146" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F146" s="2">
+        <v>-438</v>
+      </c>
+      <c r="G146" s="2">
+        <v>30</v>
+      </c>
+      <c r="H146" s="2">
+        <v>30</v>
+      </c>
+      <c r="I146" s="2">
+        <v>0</v>
+      </c>
+      <c r="J146" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D147" s="2">
+        <v>1249</v>
+      </c>
+      <c r="E147" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F147" s="2">
+        <v>-427</v>
+      </c>
+      <c r="G147" s="2">
+        <v>40</v>
+      </c>
+      <c r="H147" s="2">
+        <v>30</v>
+      </c>
+      <c r="I147" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J147" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D148" s="2">
+        <v>1323</v>
+      </c>
+      <c r="E148" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F148" s="2">
+        <v>-353</v>
+      </c>
+      <c r="G148" s="2">
+        <v>46</v>
+      </c>
+      <c r="H148" s="2">
+        <v>30</v>
+      </c>
+      <c r="I148" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J148" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D149" s="2">
+        <v>1323</v>
+      </c>
+      <c r="E149" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F149" s="2">
+        <v>-353</v>
+      </c>
+      <c r="G149" s="2">
+        <v>46</v>
+      </c>
+      <c r="H149" s="2">
+        <v>30</v>
+      </c>
+      <c r="I149" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J149" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D150" s="2">
+        <v>1323</v>
+      </c>
+      <c r="E150" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F150" s="2">
+        <v>-353</v>
+      </c>
+      <c r="G150" s="2">
+        <v>46</v>
+      </c>
+      <c r="H150" s="2">
+        <v>30</v>
+      </c>
+      <c r="I150" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J150" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D151" s="2">
+        <v>1323</v>
+      </c>
+      <c r="E151" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F151" s="2">
+        <v>-353</v>
+      </c>
+      <c r="G151" s="2">
+        <v>46</v>
+      </c>
+      <c r="H151" s="2">
+        <v>30</v>
+      </c>
+      <c r="I151" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J151" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" s="2">
+        <v>1238</v>
+      </c>
+      <c r="E152" s="2">
+        <v>2096</v>
+      </c>
+      <c r="F152" s="2">
+        <v>-858</v>
+      </c>
+      <c r="G152" s="2">
+        <v>30</v>
+      </c>
+      <c r="H152" s="2">
+        <v>30</v>
+      </c>
+      <c r="I152" s="2">
+        <v>0</v>
+      </c>
+      <c r="J152" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="2">
+        <v>1244</v>
+      </c>
+      <c r="E153" s="2">
+        <v>2096</v>
+      </c>
+      <c r="F153" s="2">
+        <v>-852</v>
+      </c>
+      <c r="G153" s="2">
+        <v>30</v>
+      </c>
+      <c r="H153" s="2">
+        <v>30</v>
+      </c>
+      <c r="I153" s="2">
+        <v>0</v>
+      </c>
+      <c r="J153" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D154" s="2">
+        <v>1443</v>
+      </c>
+      <c r="E154" s="2">
+        <v>2096</v>
+      </c>
+      <c r="F154" s="2">
+        <v>-653</v>
+      </c>
+      <c r="G154" s="2">
+        <v>46</v>
+      </c>
+      <c r="H154" s="2">
+        <v>30</v>
+      </c>
+      <c r="I154" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J154" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D155" s="2">
+        <v>1443</v>
+      </c>
+      <c r="E155" s="2">
+        <v>2096</v>
+      </c>
+      <c r="F155" s="2">
+        <v>-653</v>
+      </c>
+      <c r="G155" s="2">
+        <v>46</v>
+      </c>
+      <c r="H155" s="2">
+        <v>30</v>
+      </c>
+      <c r="I155" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J155" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K155" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D156" s="2">
+        <v>1443</v>
+      </c>
+      <c r="E156" s="2">
+        <v>2096</v>
+      </c>
+      <c r="F156" s="2">
+        <v>-653</v>
+      </c>
+      <c r="G156" s="2">
+        <v>46</v>
+      </c>
+      <c r="H156" s="2">
+        <v>30</v>
+      </c>
+      <c r="I156" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J156" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D157" s="2">
+        <v>1477</v>
+      </c>
+      <c r="E157" s="2">
+        <v>2096</v>
+      </c>
+      <c r="F157" s="2">
+        <v>-619</v>
+      </c>
+      <c r="G157" s="2">
+        <v>30</v>
+      </c>
+      <c r="H157" s="2">
+        <v>30</v>
+      </c>
+      <c r="I157" s="2">
+        <v>0</v>
+      </c>
+      <c r="J157" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K157" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D158" s="2">
+        <v>1623</v>
+      </c>
+      <c r="E158" s="2">
+        <v>2096</v>
+      </c>
+      <c r="F158" s="2">
+        <v>-473</v>
+      </c>
+      <c r="G158" s="2">
+        <v>46</v>
+      </c>
+      <c r="H158" s="2">
+        <v>30</v>
+      </c>
+      <c r="I158" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J158" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D159" s="2">
+        <v>2099</v>
+      </c>
+      <c r="E159" s="2">
+        <v>2096</v>
+      </c>
+      <c r="F159" s="2">
+        <v>3</v>
+      </c>
+      <c r="G159" s="2">
+        <v>40</v>
+      </c>
+      <c r="H159" s="2">
+        <v>30</v>
+      </c>
+      <c r="I159" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D160" s="2">
+        <v>1238</v>
+      </c>
+      <c r="E160" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F160" s="2">
+        <v>-438</v>
+      </c>
+      <c r="G160" s="2">
+        <v>30</v>
+      </c>
+      <c r="H160" s="2">
+        <v>30</v>
+      </c>
+      <c r="I160" s="2">
+        <v>0</v>
+      </c>
+      <c r="J160" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D161" s="2">
+        <v>1443</v>
+      </c>
+      <c r="E161" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F161" s="2">
+        <v>-233</v>
+      </c>
+      <c r="G161" s="2">
+        <v>46</v>
+      </c>
+      <c r="H161" s="2">
+        <v>30</v>
+      </c>
+      <c r="I161" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J161" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K161" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D162" s="2">
+        <v>1443</v>
+      </c>
+      <c r="E162" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F162" s="2">
+        <v>-233</v>
+      </c>
+      <c r="G162" s="2">
+        <v>46</v>
+      </c>
+      <c r="H162" s="2">
+        <v>30</v>
+      </c>
+      <c r="I162" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J162" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D163" s="2">
+        <v>1443</v>
+      </c>
+      <c r="E163" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F163" s="2">
+        <v>-233</v>
+      </c>
+      <c r="G163" s="2">
+        <v>46</v>
+      </c>
+      <c r="H163" s="2">
+        <v>30</v>
+      </c>
+      <c r="I163" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J163" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D164" s="2">
+        <v>1443</v>
+      </c>
+      <c r="E164" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F164" s="2">
+        <v>-233</v>
+      </c>
+      <c r="G164" s="2">
+        <v>46</v>
+      </c>
+      <c r="H164" s="2">
+        <v>30</v>
+      </c>
+      <c r="I164" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J164" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D165" s="2">
+        <v>1443</v>
+      </c>
+      <c r="E165" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F165" s="2">
+        <v>-233</v>
+      </c>
+      <c r="G165" s="2">
+        <v>46</v>
+      </c>
+      <c r="H165" s="2">
+        <v>30</v>
+      </c>
+      <c r="I165" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J165" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K165" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D166" s="2">
+        <v>1443</v>
+      </c>
+      <c r="E166" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F166" s="2">
+        <v>-233</v>
+      </c>
+      <c r="G166" s="2">
+        <v>46</v>
+      </c>
+      <c r="H166" s="2">
+        <v>30</v>
+      </c>
+      <c r="I166" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J166" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K166" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D167" s="2">
+        <v>1453</v>
+      </c>
+      <c r="E167" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F167" s="2">
+        <v>-223</v>
+      </c>
+      <c r="G167" s="2">
+        <v>30</v>
+      </c>
+      <c r="H167" s="2">
+        <v>30</v>
+      </c>
+      <c r="I167" s="2">
+        <v>0</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D168" s="2">
+        <v>1623</v>
+      </c>
+      <c r="E168" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F168" s="2">
+        <v>-53</v>
+      </c>
+      <c r="G168" s="2">
+        <v>46</v>
+      </c>
+      <c r="H168" s="2">
+        <v>30</v>
+      </c>
+      <c r="I168" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" s="2">
+        <v>1238</v>
+      </c>
+      <c r="E169" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F169" s="2">
+        <v>-438</v>
+      </c>
+      <c r="G169" s="2">
+        <v>30</v>
+      </c>
+      <c r="H169" s="2">
+        <v>30</v>
+      </c>
+      <c r="I169" s="2">
+        <v>0</v>
+      </c>
+      <c r="J169" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D170" s="2">
+        <v>1238</v>
+      </c>
+      <c r="E170" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F170" s="2">
+        <v>-438</v>
+      </c>
+      <c r="G170" s="2">
+        <v>30</v>
+      </c>
+      <c r="H170" s="2">
+        <v>30</v>
+      </c>
+      <c r="I170" s="2">
+        <v>0</v>
+      </c>
+      <c r="J170" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K170" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D171" s="2">
+        <v>1249</v>
+      </c>
+      <c r="E171" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F171" s="2">
+        <v>-427</v>
+      </c>
+      <c r="G171" s="2">
+        <v>40</v>
+      </c>
+      <c r="H171" s="2">
+        <v>30</v>
+      </c>
+      <c r="I171" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J171" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D172" s="2">
+        <v>1443</v>
+      </c>
+      <c r="E172" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F172" s="2">
+        <v>-233</v>
+      </c>
+      <c r="G172" s="2">
+        <v>46</v>
+      </c>
+      <c r="H172" s="2">
+        <v>30</v>
+      </c>
+      <c r="I172" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J172" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K172" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D173" s="2">
+        <v>1443</v>
+      </c>
+      <c r="E173" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F173" s="2">
+        <v>-233</v>
+      </c>
+      <c r="G173" s="2">
+        <v>46</v>
+      </c>
+      <c r="H173" s="2">
+        <v>30</v>
+      </c>
+      <c r="I173" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J173" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K173" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D174" s="2">
+        <v>1443</v>
+      </c>
+      <c r="E174" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F174" s="2">
+        <v>-233</v>
+      </c>
+      <c r="G174" s="2">
+        <v>46</v>
+      </c>
+      <c r="H174" s="2">
+        <v>30</v>
+      </c>
+      <c r="I174" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J174" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K174" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D175" s="2">
+        <v>1623</v>
+      </c>
+      <c r="E175" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F175" s="2">
+        <v>-53</v>
+      </c>
+      <c r="G175" s="2">
+        <v>46</v>
+      </c>
+      <c r="H175" s="2">
+        <v>30</v>
+      </c>
+      <c r="I175" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K175" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D176" s="2">
+        <v>723</v>
+      </c>
+      <c r="E176" s="2">
+        <v>896</v>
+      </c>
+      <c r="F176" s="2">
+        <v>-173</v>
+      </c>
+      <c r="G176" s="2">
+        <v>23</v>
+      </c>
+      <c r="H176" s="2">
+        <v>30</v>
+      </c>
+      <c r="I176" s="2">
+        <v>7</v>
+      </c>
+      <c r="J176" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K176" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D177" s="2">
+        <v>873</v>
+      </c>
+      <c r="E177" s="2">
+        <v>896</v>
+      </c>
+      <c r="F177" s="2">
+        <v>-23</v>
+      </c>
+      <c r="G177" s="2">
+        <v>46</v>
+      </c>
+      <c r="H177" s="2">
+        <v>30</v>
+      </c>
+      <c r="I177" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K177" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D178" s="2">
+        <v>873</v>
+      </c>
+      <c r="E178" s="2">
+        <v>896</v>
+      </c>
+      <c r="F178" s="2">
+        <v>-23</v>
+      </c>
+      <c r="G178" s="2">
+        <v>46</v>
+      </c>
+      <c r="H178" s="2">
+        <v>30</v>
+      </c>
+      <c r="I178" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K178" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D179" s="2">
+        <v>963</v>
+      </c>
+      <c r="E179" s="2">
+        <v>896</v>
+      </c>
+      <c r="F179" s="2">
+        <v>67</v>
+      </c>
+      <c r="G179" s="2">
+        <v>46</v>
+      </c>
+      <c r="H179" s="2">
+        <v>30</v>
+      </c>
+      <c r="I179" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J179" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K179" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D180" s="2">
+        <v>783</v>
+      </c>
+      <c r="E180" s="2">
+        <v>566</v>
+      </c>
+      <c r="F180" s="2">
+        <v>217</v>
+      </c>
+      <c r="G180" s="2">
+        <v>46</v>
+      </c>
+      <c r="H180" s="2">
+        <v>30</v>
+      </c>
+      <c r="I180" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J180" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K180" s="2" t="s">
         <v>15</v>
       </c>
     </row>
